--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_10_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_10_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2793913.038978474</v>
+        <v>2789286.066246959</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10092530.91379688</v>
+        <v>10092530.91379689</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>430763.7823717236</v>
+        <v>430763.7823717231</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8971622.881061068</v>
+        <v>8971622.88106107</v>
       </c>
     </row>
     <row r="11">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -676,10 +676,10 @@
         <v>15.21022140383137</v>
       </c>
       <c r="H2" t="n">
-        <v>73.52639587449724</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J2" t="n">
         <v>4.097100052852153</v>
@@ -709,7 +709,7 @@
         <v>144.0576027644701</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>263.2420339516666</v>
+        <v>186.1894428885466</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>6.604488887060254</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -752,13 +752,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>80.82493961669634</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>87.69233988828964</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -791,13 +791,13 @@
         <v>170.7637213332854</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -831,61 +831,61 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
         <v>159.8350691069749</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.2420339516672</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.21022140383137</v>
+        <v>66.43353500765301</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>4.097100052852178</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -952,10 +952,10 @@
         <v>222.6908602868995</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V5" t="n">
-        <v>43.41663132394034</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.2420339516672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -980,10 +980,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>32.80470057332475</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>81.03803000133004</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -992,10 +992,10 @@
         <v>137.2940166796957</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>97.0844620270375</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>59.70004712227033</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>17.44799951871606</v>
+        <v>11.21959608876246</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.68702246598912</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>399.0721465063843</v>
+        <v>14.736584465029</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>114.3055064074236</v>
+        <v>94.1442894331316</v>
       </c>
       <c r="S8" t="n">
-        <v>93.85777579297621</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>220.617514587292</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -1223,16 +1223,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.0405985760713</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>109.3098884080721</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>78.96719903982057</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>166.0565912067547</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9214532265578</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>96.16748096863488</v>
       </c>
       <c r="W9" t="n">
-        <v>120.824223546919</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1296,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>21.95765138567718</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>98.42243369837485</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H11" t="n">
-        <v>283.5630920045444</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081983</v>
+        <v>84.61259060081882</v>
       </c>
       <c r="T11" t="n">
         <v>199.1970568374742</v>
@@ -1466,7 +1466,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>84.0240632056146</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.4255876952163</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T12" t="n">
         <v>188.3907690366107</v>
@@ -1536,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>110.3469406895057</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
         <v>140.4539897919539</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108373</v>
+        <v>12.99855402706491</v>
       </c>
       <c r="S13" t="n">
         <v>181.338488358459</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127566</v>
       </c>
       <c r="H14" t="n">
-        <v>283.5630920045444</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081983</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9088959876461</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,7 +1703,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.0240632056146</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.4255876952163</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T15" t="n">
         <v>188.3907690366107</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>53.82423781886467</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>83.07736723265378</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440915</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
@@ -1824,7 +1824,7 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H17" t="n">
-        <v>283.5630920045444</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.61259060081983</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T17" t="n">
         <v>199.1970568374742</v>
@@ -1940,7 +1940,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>84.0240632056146</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.4255876952163</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T18" t="n">
         <v>188.3907690366107</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>89.99296719487894</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2019,7 +2019,7 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108373</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S19" t="n">
         <v>181.338488358459</v>
@@ -2058,13 +2058,13 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>56.22999555758326</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H20" t="n">
-        <v>283.5630920045444</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060081882</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T20" t="n">
         <v>199.1970568374742</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9088959876461</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V20" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174131</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>140.4539897919539</v>
+        <v>64.44601915223836</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>13.49299546962306</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5420528771669</v>
@@ -2526,13 +2526,13 @@
         <v>67.18075159108355</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4819944627618</v>
+        <v>141.4740238230462</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3114284079574</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>38.23508833617446</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2730,10 +2730,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H28" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>29.87865002969491</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T28" t="n">
         <v>217.4819944627618</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>85.258877604297</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5420528771669</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>67.18075159108355</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U31" t="n">
         <v>286.1854515484204</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>159.576094893433</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3085,7 +3085,7 @@
         <v>199.1970568374742</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9088959876463</v>
+        <v>250.908895987647</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>64.44601915223832</v>
       </c>
       <c r="G34" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H34" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>4.102261381594548</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8432760127568</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H35" t="n">
         <v>283.5630920045443</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081882</v>
       </c>
       <c r="T35" t="n">
         <v>199.1970568374742</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9088959876461</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>109.9843174036494</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3444,7 +3444,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>67.18075159108355</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T37" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U37" t="n">
-        <v>94.95056422407941</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081882</v>
       </c>
       <c r="T38" t="n">
-        <v>199.1970568374736</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9088959876461</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>46.81108873965646</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5420528771669</v>
+        <v>89.5340822374514</v>
       </c>
       <c r="H40" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I40" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3720,13 +3720,13 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3796,7 +3796,7 @@
         <v>199.1970568374742</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9088959876461</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3900,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H43" t="n">
-        <v>140.4539897919539</v>
+        <v>64.44601915223836</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S43" t="n">
         <v>181.338488358459</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>92.27424676953278</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127566</v>
       </c>
       <c r="H44" t="n">
         <v>283.5630920045443</v>
@@ -4030,7 +4030,7 @@
         <v>84.61259060081962</v>
       </c>
       <c r="T44" t="n">
-        <v>199.1970568374736</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U44" t="n">
         <v>250.9088959876463</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.338488358459</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U46" t="n">
         <v>286.1854515484204</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>208.9143201549875</v>
+        <v>126.5514222678061</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>387.677339508617</v>
+        <v>256.5063620977151</v>
       </c>
       <c r="C2" t="n">
-        <v>387.677339508617</v>
+        <v>256.5063620977151</v>
       </c>
       <c r="D2" t="n">
-        <v>121.7762951129941</v>
+        <v>256.5063620977151</v>
       </c>
       <c r="E2" t="n">
-        <v>121.7762951129941</v>
+        <v>256.5063620977151</v>
       </c>
       <c r="F2" t="n">
-        <v>114.8307943637907</v>
+        <v>249.5608613485116</v>
       </c>
       <c r="G2" t="n">
-        <v>99.4669343599206</v>
+        <v>234.1970013446415</v>
       </c>
       <c r="H2" t="n">
-        <v>25.19784761800419</v>
+        <v>234.1970013446415</v>
       </c>
       <c r="I2" t="n">
         <v>25.19784761800419</v>
@@ -4357,25 +4357,25 @@
         <v>907.4554057415451</v>
       </c>
       <c r="S2" t="n">
-        <v>907.4554057415451</v>
+        <v>698.4535282668857</v>
       </c>
       <c r="T2" t="n">
-        <v>907.4554057415451</v>
+        <v>698.4535282668857</v>
       </c>
       <c r="U2" t="n">
-        <v>653.5783839042398</v>
+        <v>444.5765064295804</v>
       </c>
       <c r="V2" t="n">
-        <v>653.5783839042398</v>
+        <v>444.5765064295804</v>
       </c>
       <c r="W2" t="n">
-        <v>387.677339508617</v>
+        <v>256.5063620977151</v>
       </c>
       <c r="X2" t="n">
-        <v>387.677339508617</v>
+        <v>256.5063620977151</v>
       </c>
       <c r="Y2" t="n">
-        <v>387.677339508617</v>
+        <v>256.5063620977151</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>504.4126911737065</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C3" t="n">
-        <v>329.9596618925794</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D3" t="n">
-        <v>329.9596618925794</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E3" t="n">
-        <v>329.9596618925794</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F3" t="n">
-        <v>329.9596618925794</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G3" t="n">
-        <v>191.2788369635939</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H3" t="n">
-        <v>109.6374838154158</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I3" t="n">
         <v>21.05936271613333</v>
@@ -4418,13 +4418,13 @@
         <v>394.933760794076</v>
       </c>
       <c r="M3" t="n">
-        <v>655.5433744062259</v>
+        <v>531.9454581020244</v>
       </c>
       <c r="N3" t="n">
-        <v>916.1529880183758</v>
+        <v>792.5550717141743</v>
       </c>
       <c r="O3" t="n">
-        <v>916.1529880183758</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="P3" t="n">
         <v>1052.968135806666</v>
@@ -4439,22 +4439,22 @@
         <v>880.4795283993074</v>
       </c>
       <c r="T3" t="n">
-        <v>880.4795283993074</v>
+        <v>678.4944708143832</v>
       </c>
       <c r="U3" t="n">
-        <v>880.4795283993074</v>
+        <v>678.4944708143832</v>
       </c>
       <c r="V3" t="n">
-        <v>880.4795283993074</v>
+        <v>443.3423625826405</v>
       </c>
       <c r="W3" t="n">
-        <v>880.4795283993074</v>
+        <v>443.3423625826405</v>
       </c>
       <c r="X3" t="n">
-        <v>672.6280281937745</v>
+        <v>235.4908623771077</v>
       </c>
       <c r="Y3" t="n">
-        <v>672.6280281937745</v>
+        <v>27.73056361215379</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C4" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D4" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E4" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F4" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G4" t="n">
         <v>21.05936271613333</v>
@@ -4533,7 +4533,7 @@
         <v>182.5089274706535</v>
       </c>
       <c r="Y4" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613333</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>43.36872346920693</v>
+        <v>365.1489735786416</v>
       </c>
       <c r="C5" t="n">
-        <v>43.36872346920693</v>
+        <v>365.1489735786416</v>
       </c>
       <c r="D5" t="n">
-        <v>43.36872346920693</v>
+        <v>99.24792918301881</v>
       </c>
       <c r="E5" t="n">
-        <v>43.36872346920693</v>
+        <v>99.24792918301881</v>
       </c>
       <c r="F5" t="n">
-        <v>36.42322272000345</v>
+        <v>92.30242843381534</v>
       </c>
       <c r="G5" t="n">
-        <v>21.05936271613337</v>
+        <v>25.19784761800422</v>
       </c>
       <c r="H5" t="n">
-        <v>21.05936271613337</v>
+        <v>25.19784761800422</v>
       </c>
       <c r="I5" t="n">
-        <v>21.05936271613337</v>
+        <v>25.19784761800422</v>
       </c>
       <c r="J5" t="n">
-        <v>21.05936271613337</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K5" t="n">
-        <v>135.7250809573685</v>
+        <v>135.7250809573683</v>
       </c>
       <c r="L5" t="n">
-        <v>330.2546714142367</v>
+        <v>330.2546714142362</v>
       </c>
       <c r="M5" t="n">
-        <v>563.3128681098032</v>
+        <v>563.3128681098024</v>
       </c>
       <c r="N5" t="n">
-        <v>785.5101925369341</v>
+        <v>785.5101925369328</v>
       </c>
       <c r="O5" t="n">
-        <v>950.1371873885156</v>
+        <v>950.1371873885138</v>
       </c>
       <c r="P5" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q5" t="n">
-        <v>1052.968135806669</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R5" t="n">
-        <v>1052.968135806669</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S5" t="n">
-        <v>843.9662583320093</v>
+        <v>843.966258332007</v>
       </c>
       <c r="T5" t="n">
-        <v>619.0259954159492</v>
+        <v>619.0259954159469</v>
       </c>
       <c r="U5" t="n">
-        <v>619.0259954159492</v>
+        <v>365.1489735786416</v>
       </c>
       <c r="V5" t="n">
-        <v>575.1708122604539</v>
+        <v>365.1489735786416</v>
       </c>
       <c r="W5" t="n">
-        <v>575.1708122604539</v>
+        <v>365.1489735786416</v>
       </c>
       <c r="X5" t="n">
-        <v>575.1708122604539</v>
+        <v>365.1489735786416</v>
       </c>
       <c r="Y5" t="n">
-        <v>309.2697678648304</v>
+        <v>365.1489735786416</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>339.4108068034104</v>
+        <v>589.5956988171286</v>
       </c>
       <c r="C6" t="n">
-        <v>339.4108068034104</v>
+        <v>589.5956988171286</v>
       </c>
       <c r="D6" t="n">
-        <v>306.2747456182339</v>
+        <v>589.5956988171286</v>
       </c>
       <c r="E6" t="n">
-        <v>306.2747456182339</v>
+        <v>507.7391028561891</v>
       </c>
       <c r="F6" t="n">
-        <v>159.7401876451189</v>
+        <v>361.204544883074</v>
       </c>
       <c r="G6" t="n">
-        <v>21.05936271613337</v>
+        <v>222.5237199540885</v>
       </c>
       <c r="H6" t="n">
-        <v>21.05936271613337</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="I6" t="n">
-        <v>21.05936271613337</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J6" t="n">
-        <v>24.95018035683224</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K6" t="n">
-        <v>24.95018035683224</v>
+        <v>154.3302328992135</v>
       </c>
       <c r="L6" t="n">
-        <v>265.553708251695</v>
+        <v>394.9337607940759</v>
       </c>
       <c r="M6" t="n">
-        <v>526.1633218638455</v>
+        <v>655.5433744062259</v>
       </c>
       <c r="N6" t="n">
-        <v>786.772935475996</v>
+        <v>916.1529880183758</v>
       </c>
       <c r="O6" t="n">
-        <v>977.3180709271207</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="P6" t="n">
-        <v>977.3180709271207</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q6" t="n">
-        <v>1052.968135806669</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R6" t="n">
-        <v>954.903022648045</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S6" t="n">
-        <v>782.4144152406859</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T6" t="n">
-        <v>782.4144152406859</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U6" t="n">
-        <v>782.4144152406859</v>
+        <v>824.7478070488712</v>
       </c>
       <c r="V6" t="n">
-        <v>547.2623070089433</v>
+        <v>589.5956988171286</v>
       </c>
       <c r="W6" t="n">
-        <v>547.2623070089433</v>
+        <v>589.5956988171286</v>
       </c>
       <c r="X6" t="n">
-        <v>339.4108068034104</v>
+        <v>589.5956988171286</v>
       </c>
       <c r="Y6" t="n">
-        <v>339.4108068034104</v>
+        <v>589.5956988171286</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>98.98668255551357</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="C7" t="n">
-        <v>98.98668255551357</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="D7" t="n">
-        <v>98.98668255551357</v>
+        <v>32.39228805831763</v>
       </c>
       <c r="E7" t="n">
-        <v>98.98668255551357</v>
+        <v>32.39228805831763</v>
       </c>
       <c r="F7" t="n">
-        <v>38.68360465423041</v>
+        <v>32.39228805831763</v>
       </c>
       <c r="G7" t="n">
-        <v>38.68360465423041</v>
+        <v>32.39228805831763</v>
       </c>
       <c r="H7" t="n">
-        <v>38.68360465423041</v>
+        <v>32.39228805831763</v>
       </c>
       <c r="I7" t="n">
-        <v>38.68360465423041</v>
+        <v>32.39228805831763</v>
       </c>
       <c r="J7" t="n">
-        <v>38.68360465423041</v>
+        <v>32.39228805831763</v>
       </c>
       <c r="K7" t="n">
-        <v>21.05936271613337</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="L7" t="n">
-        <v>54.48163939360313</v>
+        <v>54.48163939360295</v>
       </c>
       <c r="M7" t="n">
-        <v>100.1098670955242</v>
+        <v>100.1098670955239</v>
       </c>
       <c r="N7" t="n">
-        <v>150.0877739486502</v>
+        <v>150.0877739486497</v>
       </c>
       <c r="O7" t="n">
-        <v>180.2341645716489</v>
+        <v>180.2341645716483</v>
       </c>
       <c r="P7" t="n">
-        <v>182.5089274706541</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="Q7" t="n">
-        <v>98.98668255551357</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="R7" t="n">
-        <v>98.98668255551357</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="S7" t="n">
-        <v>98.98668255551357</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="T7" t="n">
-        <v>98.98668255551357</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="U7" t="n">
-        <v>98.98668255551357</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="V7" t="n">
-        <v>98.98668255551357</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="W7" t="n">
-        <v>98.98668255551357</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="X7" t="n">
-        <v>98.98668255551357</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="Y7" t="n">
-        <v>98.98668255551357</v>
+        <v>182.5089274706534</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>441.9744507589913</v>
+        <v>53.75671132327818</v>
       </c>
       <c r="C8" t="n">
-        <v>441.9744507589913</v>
+        <v>53.75671132327818</v>
       </c>
       <c r="D8" t="n">
-        <v>441.9744507589913</v>
+        <v>53.75671132327818</v>
       </c>
       <c r="E8" t="n">
-        <v>441.9744507589913</v>
+        <v>53.75671132327818</v>
       </c>
       <c r="F8" t="n">
-        <v>435.0289500097878</v>
+        <v>46.81121057407471</v>
       </c>
       <c r="G8" t="n">
-        <v>31.92577172051074</v>
+        <v>31.92577172051006</v>
       </c>
       <c r="H8" t="n">
-        <v>31.92577172051074</v>
+        <v>31.92577172051006</v>
       </c>
       <c r="I8" t="n">
-        <v>31.92577172051074</v>
+        <v>31.92577172051006</v>
       </c>
       <c r="J8" t="n">
-        <v>67.66699237152091</v>
+        <v>67.66699237151772</v>
       </c>
       <c r="K8" t="n">
-        <v>241.9786214194003</v>
+        <v>241.9786214193932</v>
       </c>
       <c r="L8" t="n">
-        <v>510.504238484128</v>
+        <v>510.5042384841163</v>
       </c>
       <c r="M8" t="n">
-        <v>825.8972722888772</v>
+        <v>825.8972722888602</v>
       </c>
       <c r="N8" t="n">
-        <v>1131.761697568039</v>
+        <v>1131.761697568017</v>
       </c>
       <c r="O8" t="n">
-        <v>1375.393163234537</v>
+        <v>1375.393163234511</v>
       </c>
       <c r="P8" t="n">
-        <v>1545.65259966019</v>
+        <v>1545.652599660159</v>
       </c>
       <c r="Q8" t="n">
-        <v>1596.288586025537</v>
+        <v>1596.288586025503</v>
       </c>
       <c r="R8" t="n">
-        <v>1480.828478543291</v>
+        <v>1501.193344173855</v>
       </c>
       <c r="S8" t="n">
-        <v>1386.022644408972</v>
+        <v>1501.193344173855</v>
       </c>
       <c r="T8" t="n">
-        <v>1163.176670078374</v>
+        <v>1501.193344173855</v>
       </c>
       <c r="U8" t="n">
-        <v>1163.176670078374</v>
+        <v>1501.193344173855</v>
       </c>
       <c r="V8" t="n">
-        <v>832.113782734803</v>
+        <v>1170.130456830284</v>
       </c>
       <c r="W8" t="n">
-        <v>832.113782734803</v>
+        <v>817.3618015601699</v>
       </c>
       <c r="X8" t="n">
-        <v>832.113782734803</v>
+        <v>443.8960432990899</v>
       </c>
       <c r="Y8" t="n">
-        <v>441.9744507589913</v>
+        <v>53.75671132327818</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>843.1543889248738</v>
+        <v>661.0852236414588</v>
       </c>
       <c r="C9" t="n">
-        <v>668.7013596437469</v>
+        <v>486.6321943603318</v>
       </c>
       <c r="D9" t="n">
-        <v>519.7669499824956</v>
+        <v>337.6977846990806</v>
       </c>
       <c r="E9" t="n">
-        <v>360.52949497704</v>
+        <v>178.4603296936251</v>
       </c>
       <c r="F9" t="n">
-        <v>360.52949497704</v>
+        <v>31.92577172051006</v>
       </c>
       <c r="G9" t="n">
-        <v>222.1046479305033</v>
+        <v>31.92577172051006</v>
       </c>
       <c r="H9" t="n">
-        <v>111.690619235481</v>
+        <v>31.92577172051006</v>
       </c>
       <c r="I9" t="n">
-        <v>31.92577172051074</v>
+        <v>31.92577172051006</v>
       </c>
       <c r="J9" t="n">
-        <v>59.51961820537555</v>
+        <v>31.92577172051006</v>
       </c>
       <c r="K9" t="n">
-        <v>233.3027400460232</v>
+        <v>163.4641084361401</v>
       </c>
       <c r="L9" t="n">
-        <v>528.3799898168636</v>
+        <v>458.5413582069771</v>
       </c>
       <c r="M9" t="n">
-        <v>533.5180518372406</v>
+        <v>853.622783248289</v>
       </c>
       <c r="N9" t="n">
-        <v>928.5994768785611</v>
+        <v>1248.704208289601</v>
       </c>
       <c r="O9" t="n">
-        <v>1248.704208289631</v>
+        <v>1248.704208289601</v>
       </c>
       <c r="P9" t="n">
-        <v>1488.613408501237</v>
+        <v>1488.613408501205</v>
       </c>
       <c r="Q9" t="n">
-        <v>1596.288586025537</v>
+        <v>1596.288586025503</v>
       </c>
       <c r="R9" t="n">
-        <v>1596.288586025537</v>
+        <v>1596.288586025503</v>
       </c>
       <c r="S9" t="n">
-        <v>1428.554655513664</v>
+        <v>1596.288586025503</v>
       </c>
       <c r="T9" t="n">
-        <v>1428.554655513664</v>
+        <v>1596.288586025503</v>
       </c>
       <c r="U9" t="n">
-        <v>1200.35116740603</v>
+        <v>1596.288586025503</v>
       </c>
       <c r="V9" t="n">
-        <v>965.199059174287</v>
+        <v>1499.149716360215</v>
       </c>
       <c r="W9" t="n">
-        <v>843.1543889248738</v>
+        <v>1244.912359632013</v>
       </c>
       <c r="X9" t="n">
-        <v>843.1543889248738</v>
+        <v>1037.060859426481</v>
       </c>
       <c r="Y9" t="n">
-        <v>843.1543889248738</v>
+        <v>829.3005606615268</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>31.92577172051074</v>
+        <v>352.1349505593573</v>
       </c>
       <c r="C10" t="n">
-        <v>31.92577172051074</v>
+        <v>352.1349505593573</v>
       </c>
       <c r="D10" t="n">
-        <v>31.92577172051074</v>
+        <v>202.0183111470215</v>
       </c>
       <c r="E10" t="n">
-        <v>31.92577172051074</v>
+        <v>54.10521756462842</v>
       </c>
       <c r="F10" t="n">
-        <v>31.92577172051074</v>
+        <v>31.92577172051006</v>
       </c>
       <c r="G10" t="n">
-        <v>31.92577172051074</v>
+        <v>31.92577172051006</v>
       </c>
       <c r="H10" t="n">
-        <v>31.92577172051074</v>
+        <v>31.92577172051006</v>
       </c>
       <c r="I10" t="n">
-        <v>31.92577172051074</v>
+        <v>31.92577172051006</v>
       </c>
       <c r="J10" t="n">
-        <v>31.92577172051074</v>
+        <v>31.92577172051006</v>
       </c>
       <c r="K10" t="n">
-        <v>39.08908224095799</v>
+        <v>39.08908224095577</v>
       </c>
       <c r="L10" t="n">
-        <v>103.7820880685988</v>
+        <v>103.7820880685946</v>
       </c>
       <c r="M10" t="n">
-        <v>182.3809151796186</v>
+        <v>182.3809151796123</v>
       </c>
       <c r="N10" t="n">
-        <v>264.5454542808079</v>
+        <v>264.5454542807997</v>
       </c>
       <c r="O10" t="n">
-        <v>324.4214093422841</v>
+        <v>324.4214093422739</v>
       </c>
       <c r="P10" t="n">
-        <v>352.134950559369</v>
+        <v>352.1349505593573</v>
       </c>
       <c r="Q10" t="n">
-        <v>352.134950559369</v>
+        <v>352.1349505593573</v>
       </c>
       <c r="R10" t="n">
-        <v>352.134950559369</v>
+        <v>352.1349505593573</v>
       </c>
       <c r="S10" t="n">
-        <v>352.134950559369</v>
+        <v>352.1349505593573</v>
       </c>
       <c r="T10" t="n">
-        <v>252.7183508640408</v>
+        <v>352.1349505593573</v>
       </c>
       <c r="U10" t="n">
-        <v>252.7183508640408</v>
+        <v>352.1349505593573</v>
       </c>
       <c r="V10" t="n">
-        <v>252.7183508640408</v>
+        <v>352.1349505593573</v>
       </c>
       <c r="W10" t="n">
-        <v>252.7183508640408</v>
+        <v>352.1349505593573</v>
       </c>
       <c r="X10" t="n">
-        <v>252.7183508640408</v>
+        <v>352.1349505593573</v>
       </c>
       <c r="Y10" t="n">
-        <v>31.92577172051074</v>
+        <v>352.1349505593573</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C11" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D11" t="n">
         <v>1591.032978284208</v>
@@ -5029,64 +5029,64 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F11" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G11" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H11" t="n">
-        <v>93.84834815160738</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I11" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J11" t="n">
-        <v>373.3442236507193</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K11" t="n">
-        <v>842.9746074384002</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L11" t="n">
-        <v>1462.494387944173</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M11" t="n">
-        <v>2183.49894988321</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N11" t="n">
-        <v>2920.783927800314</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O11" t="n">
-        <v>3654.445485610262</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P11" t="n">
-        <v>4202.751434297608</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q11" t="n">
-        <v>4566.333620403614</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R11" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T11" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U11" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V11" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W11" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X11" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="12">
@@ -5111,34 +5111,34 @@
         <v>314.5013895084599</v>
       </c>
       <c r="G12" t="n">
-        <v>178.7211392683895</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H12" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I12" t="n">
-        <v>93.84834815160704</v>
+        <v>94.88738072612962</v>
       </c>
       <c r="J12" t="n">
-        <v>93.84834815160704</v>
+        <v>242.5353624779756</v>
       </c>
       <c r="K12" t="n">
-        <v>424.3570907149651</v>
+        <v>573.0441050413344</v>
       </c>
       <c r="L12" t="n">
-        <v>915.0894235587155</v>
+        <v>1063.776437885086</v>
       </c>
       <c r="M12" t="n">
-        <v>915.0894235587155</v>
+        <v>1655.794792137213</v>
       </c>
       <c r="N12" t="n">
-        <v>1537.18538695805</v>
+        <v>2277.890755536549</v>
       </c>
       <c r="O12" t="n">
-        <v>2084.061861958244</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P12" t="n">
-        <v>2503.645380384319</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.812354695766</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>495.0957149475958</v>
+        <v>549.8252074365081</v>
       </c>
       <c r="C13" t="n">
-        <v>495.0957149475958</v>
+        <v>549.8252074365081</v>
       </c>
       <c r="D13" t="n">
-        <v>495.0957149475958</v>
+        <v>549.8252074365081</v>
       </c>
       <c r="E13" t="n">
-        <v>347.1826213652026</v>
+        <v>549.8252074365081</v>
       </c>
       <c r="F13" t="n">
-        <v>347.1826213652026</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G13" t="n">
-        <v>235.7210651131767</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H13" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I13" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J13" t="n">
-        <v>172.8304710411607</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K13" t="n">
-        <v>432.4591980117239</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L13" t="n">
-        <v>820.2210160948575</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M13" t="n">
-        <v>1239.450608139316</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N13" t="n">
-        <v>1654.146473931023</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O13" t="n">
-        <v>2021.168930946052</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P13" t="n">
-        <v>2311.699365782256</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q13" t="n">
-        <v>2429.41249933569</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R13" t="n">
-        <v>2361.553154294192</v>
+        <v>2416.282646783104</v>
       </c>
       <c r="S13" t="n">
-        <v>2178.382964033122</v>
+        <v>2233.112456522034</v>
       </c>
       <c r="T13" t="n">
-        <v>1958.704181747504</v>
+        <v>2013.433674236416</v>
       </c>
       <c r="U13" t="n">
-        <v>1669.627968062231</v>
+        <v>1724.357460551143</v>
       </c>
       <c r="V13" t="n">
-        <v>1414.943479856344</v>
+        <v>1469.672972345256</v>
       </c>
       <c r="W13" t="n">
-        <v>1125.526309819383</v>
+        <v>1180.255802308295</v>
       </c>
       <c r="X13" t="n">
-        <v>897.5367589213656</v>
+        <v>952.266251410278</v>
       </c>
       <c r="Y13" t="n">
-        <v>676.7441797778355</v>
+        <v>731.4736722667478</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C14" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D14" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E14" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F14" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963555</v>
       </c>
       <c r="G14" t="n">
-        <v>380.275713812763</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H14" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I14" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J14" t="n">
-        <v>373.3442236507193</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K14" t="n">
-        <v>842.9746074384002</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L14" t="n">
-        <v>1462.494387944173</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M14" t="n">
-        <v>2183.49894988321</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N14" t="n">
-        <v>2920.783927800314</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O14" t="n">
-        <v>3654.445485610262</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P14" t="n">
-        <v>4202.751434297608</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q14" t="n">
-        <v>4566.333620403614</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R14" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T14" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U14" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V14" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W14" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X14" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="15">
@@ -5348,34 +5348,34 @@
         <v>314.5013895084599</v>
       </c>
       <c r="G15" t="n">
-        <v>178.7211392683895</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H15" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I15" t="n">
-        <v>93.84834815160704</v>
+        <v>94.88738072612962</v>
       </c>
       <c r="J15" t="n">
-        <v>93.84834815160704</v>
+        <v>242.5353624779756</v>
       </c>
       <c r="K15" t="n">
-        <v>93.84834815160704</v>
+        <v>573.0441050413344</v>
       </c>
       <c r="L15" t="n">
-        <v>584.5806809953574</v>
+        <v>1063.776437885086</v>
       </c>
       <c r="M15" t="n">
-        <v>1176.599035247484</v>
+        <v>1655.794792137213</v>
       </c>
       <c r="N15" t="n">
-        <v>1798.694998646819</v>
+        <v>2277.890755536549</v>
       </c>
       <c r="O15" t="n">
-        <v>1903.667562284445</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P15" t="n">
-        <v>2323.25108071052</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.812354695766</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>817.6395481949814</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C16" t="n">
-        <v>763.2716312062292</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="D16" t="n">
-        <v>613.1549917938935</v>
+        <v>344.9790755352643</v>
       </c>
       <c r="E16" t="n">
-        <v>465.2418982115004</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="F16" t="n">
-        <v>318.35195071359</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G16" t="n">
-        <v>318.35195071359</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H16" t="n">
-        <v>176.4792337520203</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I16" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J16" t="n">
-        <v>172.8304710411607</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K16" t="n">
-        <v>432.4591980117239</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L16" t="n">
-        <v>820.2210160948575</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M16" t="n">
-        <v>1239.450608139316</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N16" t="n">
-        <v>1654.146473931023</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O16" t="n">
-        <v>2021.168930946052</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P16" t="n">
-        <v>2311.699365782256</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q16" t="n">
-        <v>2429.41249933569</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R16" t="n">
-        <v>2429.41249933569</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S16" t="n">
-        <v>2246.242309074621</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T16" t="n">
-        <v>2026.563526789002</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U16" t="n">
-        <v>1737.487313103729</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V16" t="n">
-        <v>1737.487313103729</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W16" t="n">
-        <v>1448.070143066769</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X16" t="n">
-        <v>1220.080592168751</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y16" t="n">
-        <v>999.2880130252212</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="17">
@@ -5503,43 +5503,43 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F17" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G17" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127623</v>
       </c>
       <c r="H17" t="n">
-        <v>93.84834815160684</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I17" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J17" t="n">
-        <v>373.3442236507193</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K17" t="n">
-        <v>893.7741287892104</v>
+        <v>893.7741287892015</v>
       </c>
       <c r="L17" t="n">
-        <v>1513.293909294984</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M17" t="n">
-        <v>2234.29847123402</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N17" t="n">
-        <v>2971.583449151125</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O17" t="n">
-        <v>3654.445485610262</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P17" t="n">
-        <v>4202.751434297608</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q17" t="n">
-        <v>4566.333620403614</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R17" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S17" t="n">
         <v>4606.9501443472</v>
@@ -5585,31 +5585,31 @@
         <v>314.5013895084599</v>
       </c>
       <c r="G18" t="n">
-        <v>178.7211392683895</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H18" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I18" t="n">
-        <v>94.88738072612946</v>
+        <v>94.88738072612962</v>
       </c>
       <c r="J18" t="n">
-        <v>94.88738072612946</v>
+        <v>242.5353624779756</v>
       </c>
       <c r="K18" t="n">
-        <v>94.88738072612946</v>
+        <v>573.0441050413344</v>
       </c>
       <c r="L18" t="n">
-        <v>585.6197135698798</v>
+        <v>1063.776437885086</v>
       </c>
       <c r="M18" t="n">
-        <v>1177.638067822006</v>
+        <v>1655.794792137213</v>
       </c>
       <c r="N18" t="n">
-        <v>1799.734031221341</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O18" t="n">
-        <v>2134.228836269691</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P18" t="n">
         <v>2553.812354695766</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.9184063975744</v>
+        <v>1016.791123359144</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9822234696675</v>
+        <v>847.854940431237</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8655840573317</v>
+        <v>697.7383010189012</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9524904749386</v>
+        <v>549.8252074365081</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0625429770282</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G19" t="n">
-        <v>93.84834815160704</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H19" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I19" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J19" t="n">
-        <v>172.8304710411607</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K19" t="n">
-        <v>432.4591980117239</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L19" t="n">
-        <v>820.2210160948575</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M19" t="n">
-        <v>1239.450608139316</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N19" t="n">
-        <v>1654.146473931023</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O19" t="n">
-        <v>2021.168930946052</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P19" t="n">
-        <v>2311.699365782256</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q19" t="n">
-        <v>2429.41249933569</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R19" t="n">
-        <v>2361.553154294192</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S19" t="n">
-        <v>2178.382964033122</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T19" t="n">
-        <v>1958.704181747504</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U19" t="n">
-        <v>1958.704181747504</v>
+        <v>1901.906206436818</v>
       </c>
       <c r="V19" t="n">
-        <v>1704.019693541617</v>
+        <v>1647.221718230931</v>
       </c>
       <c r="W19" t="n">
-        <v>1414.602523504656</v>
+        <v>1647.221718230931</v>
       </c>
       <c r="X19" t="n">
-        <v>1186.612972606639</v>
+        <v>1419.232167332914</v>
       </c>
       <c r="Y19" t="n">
-        <v>965.8203934631086</v>
+        <v>1198.439588189384</v>
       </c>
     </row>
     <row r="20">
@@ -5734,67 +5734,67 @@
         <v>1949.298676890959</v>
       </c>
       <c r="D20" t="n">
-        <v>1591.032978284209</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E20" t="n">
         <v>1205.244725685964</v>
       </c>
       <c r="F20" t="n">
-        <v>794.2588208963568</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G20" t="n">
-        <v>380.2757138127631</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H20" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I20" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J20" t="n">
-        <v>373.3442236507201</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K20" t="n">
         <v>842.974607438402</v>
       </c>
       <c r="L20" t="n">
-        <v>1513.293909294977</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M20" t="n">
-        <v>2234.298471234015</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N20" t="n">
-        <v>2971.583449151121</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O20" t="n">
-        <v>3654.445485610259</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P20" t="n">
-        <v>4202.751434297607</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q20" t="n">
-        <v>4566.333620403614</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R20" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.950144347202</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.74099602652</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U20" t="n">
-        <v>4152.29766674607</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V20" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W20" t="n">
-        <v>3468.466124132385</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X20" t="n">
-        <v>3095.000365871305</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.861033895493</v>
@@ -5825,31 +5825,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H21" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I21" t="n">
-        <v>93.84834815160704</v>
+        <v>94.88738072612962</v>
       </c>
       <c r="J21" t="n">
-        <v>93.84834815160704</v>
+        <v>242.5353624779756</v>
       </c>
       <c r="K21" t="n">
-        <v>424.3570907149658</v>
+        <v>573.0441050413344</v>
       </c>
       <c r="L21" t="n">
-        <v>915.0894235587172</v>
+        <v>1063.776437885086</v>
       </c>
       <c r="M21" t="n">
-        <v>1507.107777810845</v>
+        <v>1384.839916296236</v>
       </c>
       <c r="N21" t="n">
-        <v>2129.203741210181</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O21" t="n">
-        <v>2323.251080710519</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P21" t="n">
-        <v>2323.251080710519</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.812354695766</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3215.536969706305</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C22" t="n">
-        <v>3046.600786778398</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D22" t="n">
-        <v>2896.484147366062</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E22" t="n">
-        <v>2748.571053783669</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="F22" t="n">
-        <v>2748.571053783669</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="G22" t="n">
-        <v>2581.356858958248</v>
+        <v>158.945337194272</v>
       </c>
       <c r="H22" t="n">
-        <v>2439.484141996678</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I22" t="n">
-        <v>2356.853256396265</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J22" t="n">
-        <v>2435.835379285819</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K22" t="n">
-        <v>2695.464106256383</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L22" t="n">
-        <v>3083.225924339517</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M22" t="n">
-        <v>3502.455516383976</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N22" t="n">
-        <v>3917.151382175683</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O22" t="n">
-        <v>4284.173839190713</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P22" t="n">
-        <v>4574.704274026917</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q22" t="n">
-        <v>4692.417407580352</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R22" t="n">
-        <v>4624.558062538854</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S22" t="n">
-        <v>4441.387872277784</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.709089992167</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.632876306894</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.948388101007</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W22" t="n">
-        <v>3664.319099747852</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X22" t="n">
-        <v>3436.329548849835</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y22" t="n">
-        <v>3215.536969706305</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C23" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D23" t="n">
         <v>1591.032978284208</v>
@@ -5980,16 +5980,16 @@
         <v>794.2588208963566</v>
       </c>
       <c r="G23" t="n">
-        <v>380.275713812763</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H23" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I23" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J23" t="n">
-        <v>373.3442236507201</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K23" t="n">
         <v>842.974607438402</v>
@@ -6010,31 +6010,31 @@
         <v>4151.951912946808</v>
       </c>
       <c r="Q23" t="n">
-        <v>4566.333620403614</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R23" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T23" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U23" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V23" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W23" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X23" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="24">
@@ -6062,34 +6062,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H24" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I24" t="n">
-        <v>93.84834815160704</v>
+        <v>94.88738072612962</v>
       </c>
       <c r="J24" t="n">
-        <v>241.496329903453</v>
+        <v>242.5353624779756</v>
       </c>
       <c r="K24" t="n">
-        <v>572.0050724668118</v>
+        <v>573.0441050413344</v>
       </c>
       <c r="L24" t="n">
-        <v>929.9301936362498</v>
+        <v>1063.776437885086</v>
       </c>
       <c r="M24" t="n">
-        <v>929.9301936362498</v>
+        <v>1384.839916296236</v>
       </c>
       <c r="N24" t="n">
-        <v>1552.026157035586</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O24" t="n">
-        <v>2098.90263203578</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P24" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q24" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R24" t="n">
         <v>2553.812354695766</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>868.8780297767509</v>
+        <v>571.8714428665047</v>
       </c>
       <c r="C25" t="n">
-        <v>699.941846848844</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="D25" t="n">
-        <v>549.8252074365082</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="E25" t="n">
-        <v>549.8252074365082</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="F25" t="n">
         <v>402.9352599385978</v>
@@ -6141,16 +6141,16 @@
         <v>235.7210651131766</v>
       </c>
       <c r="H25" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I25" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J25" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K25" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L25" t="n">
         <v>820.2210160948589</v>
@@ -6174,25 +6174,25 @@
         <v>2361.553154294196</v>
       </c>
       <c r="S25" t="n">
-        <v>2361.553154294196</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T25" t="n">
-        <v>2141.874372008578</v>
+        <v>2035.479909666413</v>
       </c>
       <c r="U25" t="n">
-        <v>1861.761818061146</v>
+        <v>1746.403695981139</v>
       </c>
       <c r="V25" t="n">
-        <v>1607.077329855259</v>
+        <v>1491.719207775252</v>
       </c>
       <c r="W25" t="n">
-        <v>1317.660159818298</v>
+        <v>1202.302037738292</v>
       </c>
       <c r="X25" t="n">
-        <v>1089.670608920281</v>
+        <v>974.3124868402746</v>
       </c>
       <c r="Y25" t="n">
-        <v>868.8780297767509</v>
+        <v>753.5199076967444</v>
       </c>
     </row>
     <row r="26">
@@ -6217,10 +6217,10 @@
         <v>794.2588208963566</v>
       </c>
       <c r="G26" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H26" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I26" t="n">
         <v>93.84834815160703</v>
@@ -6229,10 +6229,10 @@
         <v>373.34422365072</v>
       </c>
       <c r="K26" t="n">
-        <v>893.7741287892015</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L26" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M26" t="n">
         <v>2234.298471234014</v>
@@ -6305,22 +6305,22 @@
         <v>94.88738072612962</v>
       </c>
       <c r="J27" t="n">
-        <v>98.87344321111635</v>
+        <v>242.5353624779756</v>
       </c>
       <c r="K27" t="n">
-        <v>429.3821857744751</v>
+        <v>573.0441050413344</v>
       </c>
       <c r="L27" t="n">
-        <v>920.1145186182265</v>
+        <v>1063.776437885086</v>
       </c>
       <c r="M27" t="n">
-        <v>1512.132872870354</v>
+        <v>1384.839916296236</v>
       </c>
       <c r="N27" t="n">
-        <v>2134.22883626969</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O27" t="n">
-        <v>2134.22883626969</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P27" t="n">
         <v>2553.812354695766</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3162.063392596857</v>
+        <v>744.6035248193385</v>
       </c>
       <c r="C28" t="n">
-        <v>2993.12720966895</v>
+        <v>705.9822234696674</v>
       </c>
       <c r="D28" t="n">
-        <v>2843.010570256615</v>
+        <v>555.8655840573316</v>
       </c>
       <c r="E28" t="n">
-        <v>2843.010570256615</v>
+        <v>407.9524904749385</v>
       </c>
       <c r="F28" t="n">
-        <v>2696.120622758704</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G28" t="n">
-        <v>2528.906427933283</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H28" t="n">
-        <v>2387.033710971714</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I28" t="n">
-        <v>2356.853256396264</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J28" t="n">
-        <v>2435.835379285818</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K28" t="n">
-        <v>2695.464106256382</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L28" t="n">
-        <v>3083.225924339516</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M28" t="n">
-        <v>3502.455516383975</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N28" t="n">
-        <v>3917.151382175683</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O28" t="n">
-        <v>4284.173839190712</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P28" t="n">
-        <v>4574.704274026916</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q28" t="n">
-        <v>4692.417407580351</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R28" t="n">
-        <v>4624.558062538853</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S28" t="n">
-        <v>4624.558062538853</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T28" t="n">
-        <v>4404.879280253235</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U28" t="n">
-        <v>4115.803066567962</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V28" t="n">
-        <v>3861.118578362075</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W28" t="n">
-        <v>3571.701408325114</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X28" t="n">
-        <v>3343.711857427097</v>
+        <v>965.3961039628687</v>
       </c>
       <c r="Y28" t="n">
-        <v>3343.711857427097</v>
+        <v>744.6035248193385</v>
       </c>
     </row>
     <row r="29">
@@ -6451,13 +6451,13 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F29" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G29" t="n">
         <v>380.2757138127627</v>
       </c>
       <c r="H29" t="n">
-        <v>93.848348151607</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I29" t="n">
         <v>93.84834815160703</v>
@@ -6475,16 +6475,16 @@
         <v>2183.498949883215</v>
       </c>
       <c r="N29" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O29" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P29" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q29" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R29" t="n">
         <v>4692.417407580351</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3082.265894313994</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C30" t="n">
-        <v>2907.812865032867</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D30" t="n">
-        <v>2758.878455371616</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E30" t="n">
-        <v>2599.64100036616</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F30" t="n">
-        <v>2453.106442393045</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G30" t="n">
-        <v>2317.326192152975</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H30" t="n">
-        <v>2232.453401036192</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I30" t="n">
-        <v>2232.453401036192</v>
+        <v>94.88738072612962</v>
       </c>
       <c r="J30" t="n">
-        <v>2380.101382788038</v>
+        <v>242.5353624779756</v>
       </c>
       <c r="K30" t="n">
-        <v>2380.101382788038</v>
+        <v>573.0441050413344</v>
       </c>
       <c r="L30" t="n">
-        <v>2870.83371563179</v>
+        <v>1063.776437885086</v>
       </c>
       <c r="M30" t="n">
-        <v>2870.83371563179</v>
+        <v>1384.839916296236</v>
       </c>
       <c r="N30" t="n">
-        <v>3492.929679031126</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O30" t="n">
-        <v>4039.80615403132</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P30" t="n">
-        <v>4426.529929361194</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q30" t="n">
-        <v>4657.091203346441</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R30" t="n">
-        <v>4692.417407580351</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S30" t="n">
-        <v>4573.805702837709</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T30" t="n">
-        <v>4383.511996740122</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U30" t="n">
-        <v>4155.482495264493</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V30" t="n">
-        <v>3920.33038703275</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W30" t="n">
-        <v>3666.093030304549</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X30" t="n">
-        <v>3458.241530099016</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y30" t="n">
-        <v>3250.481231334062</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3220.554200242645</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C31" t="n">
-        <v>3051.618017314738</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="D31" t="n">
-        <v>2901.501377902402</v>
+        <v>408.9756365594213</v>
       </c>
       <c r="E31" t="n">
-        <v>2753.588284320009</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="F31" t="n">
-        <v>2606.698336822099</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G31" t="n">
-        <v>2439.484141996677</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H31" t="n">
-        <v>2439.484141996677</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I31" t="n">
-        <v>2356.853256396264</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J31" t="n">
-        <v>2435.835379285818</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K31" t="n">
-        <v>2695.464106256382</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L31" t="n">
-        <v>3083.225924339516</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M31" t="n">
-        <v>3502.455516383975</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N31" t="n">
-        <v>3917.151382175683</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O31" t="n">
-        <v>4284.173839190712</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P31" t="n">
-        <v>4574.704274026916</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q31" t="n">
-        <v>4692.417407580351</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R31" t="n">
-        <v>4624.558062538853</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S31" t="n">
-        <v>4624.558062538853</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T31" t="n">
-        <v>4624.558062538853</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U31" t="n">
-        <v>4335.48184885358</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V31" t="n">
-        <v>4080.797360647693</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W31" t="n">
-        <v>3791.380190610733</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X31" t="n">
-        <v>3563.390639712716</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y31" t="n">
-        <v>3402.202665072884</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C32" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D32" t="n">
         <v>1591.032978284208</v>
@@ -6688,64 +6688,64 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F32" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G32" t="n">
-        <v>380.2757138127627</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H32" t="n">
-        <v>93.848348151607</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I32" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J32" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K32" t="n">
-        <v>842.974607438402</v>
+        <v>893.7741287892034</v>
       </c>
       <c r="L32" t="n">
-        <v>1462.494387944177</v>
+        <v>1513.293909294978</v>
       </c>
       <c r="M32" t="n">
-        <v>2183.498949883215</v>
+        <v>2234.298471234016</v>
       </c>
       <c r="N32" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.583449151122</v>
       </c>
       <c r="O32" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.44548561026</v>
       </c>
       <c r="P32" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297608</v>
       </c>
       <c r="Q32" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403615</v>
       </c>
       <c r="R32" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580353</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347202</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.740996026519</v>
+        <v>4405.74099602652</v>
       </c>
       <c r="U32" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V32" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W32" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X32" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="33">
@@ -6773,28 +6773,28 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H33" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I33" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612965</v>
       </c>
       <c r="J33" t="n">
-        <v>241.496329903453</v>
+        <v>242.5353624779756</v>
       </c>
       <c r="K33" t="n">
-        <v>241.496329903453</v>
+        <v>573.0441050413344</v>
       </c>
       <c r="L33" t="n">
-        <v>732.2286627472043</v>
+        <v>1063.776437885086</v>
       </c>
       <c r="M33" t="n">
-        <v>1324.247016999332</v>
+        <v>1384.839916296236</v>
       </c>
       <c r="N33" t="n">
-        <v>1946.342980398668</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O33" t="n">
-        <v>2493.219455398862</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P33" t="n">
         <v>2553.812354695766</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3043.374094863972</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C34" t="n">
-        <v>3043.374094863972</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D34" t="n">
-        <v>3043.374094863972</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E34" t="n">
-        <v>2895.461001281578</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="F34" t="n">
-        <v>2748.571053783668</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G34" t="n">
-        <v>2581.356858958247</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="H34" t="n">
-        <v>2439.484141996677</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I34" t="n">
-        <v>2356.853256396264</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J34" t="n">
-        <v>2435.835379285818</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K34" t="n">
-        <v>2695.464106256382</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L34" t="n">
-        <v>3083.225924339516</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M34" t="n">
-        <v>3502.455516383975</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N34" t="n">
-        <v>3917.151382175683</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O34" t="n">
-        <v>4284.173839190712</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P34" t="n">
-        <v>4574.704274026916</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q34" t="n">
-        <v>4692.417407580351</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R34" t="n">
-        <v>4624.558062538853</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S34" t="n">
-        <v>4441.387872277784</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.709089992166</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.632876306893</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.948388101006</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W34" t="n">
-        <v>3673.804689735759</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X34" t="n">
-        <v>3445.815138837741</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y34" t="n">
-        <v>3225.022559694211</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="35">
@@ -6913,55 +6913,55 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C35" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D35" t="n">
         <v>1591.032978284208</v>
       </c>
       <c r="E35" t="n">
-        <v>1205.244725685963</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>794.2588208963557</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G35" t="n">
-        <v>380.275713812763</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H35" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I35" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J35" t="n">
-        <v>424.1437450015205</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K35" t="n">
-        <v>893.7741287892025</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L35" t="n">
-        <v>1513.293909294977</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M35" t="n">
-        <v>2234.298471234015</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N35" t="n">
-        <v>2971.583449151121</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O35" t="n">
-        <v>3654.445485610259</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P35" t="n">
-        <v>4202.751434297607</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q35" t="n">
-        <v>4566.333620403614</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R35" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S35" t="n">
         <v>4606.950144347201</v>
@@ -6982,7 +6982,7 @@
         <v>3095.000365871304</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3082.265894313995</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C36" t="n">
-        <v>2907.812865032868</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D36" t="n">
-        <v>2758.878455371617</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E36" t="n">
-        <v>2599.641000366161</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F36" t="n">
-        <v>2453.106442393046</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G36" t="n">
-        <v>2317.326192152976</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H36" t="n">
-        <v>2232.453401036193</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I36" t="n">
-        <v>2232.453401036193</v>
+        <v>94.88738072612962</v>
       </c>
       <c r="J36" t="n">
-        <v>2232.453401036193</v>
+        <v>242.5353624779756</v>
       </c>
       <c r="K36" t="n">
-        <v>2562.962143599552</v>
+        <v>573.0441050413344</v>
       </c>
       <c r="L36" t="n">
-        <v>3053.694476443303</v>
+        <v>1063.776437885086</v>
       </c>
       <c r="M36" t="n">
-        <v>3523.444969180821</v>
+        <v>1655.794792137213</v>
       </c>
       <c r="N36" t="n">
-        <v>4145.540932580157</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O36" t="n">
-        <v>4692.417407580352</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P36" t="n">
-        <v>4692.417407580352</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q36" t="n">
-        <v>4692.417407580352</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R36" t="n">
-        <v>4692.417407580352</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S36" t="n">
-        <v>4573.80570283771</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T36" t="n">
-        <v>4383.511996740123</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U36" t="n">
-        <v>4155.482495264494</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V36" t="n">
-        <v>3920.330387032751</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W36" t="n">
-        <v>3666.09303030455</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X36" t="n">
-        <v>3458.241530099017</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y36" t="n">
-        <v>3250.481231334063</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3362.426917204215</v>
+        <v>977.7697540515045</v>
       </c>
       <c r="C37" t="n">
-        <v>3193.490734276308</v>
+        <v>808.8335711235976</v>
       </c>
       <c r="D37" t="n">
-        <v>3043.374094863972</v>
+        <v>697.7383010189012</v>
       </c>
       <c r="E37" t="n">
-        <v>2895.461001281579</v>
+        <v>549.8252074365081</v>
       </c>
       <c r="F37" t="n">
-        <v>2748.571053783669</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G37" t="n">
-        <v>2581.356858958248</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H37" t="n">
-        <v>2439.484141996678</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I37" t="n">
-        <v>2356.853256396265</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J37" t="n">
-        <v>2435.835379285819</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K37" t="n">
-        <v>2695.464106256383</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L37" t="n">
-        <v>3083.225924339517</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M37" t="n">
-        <v>3502.455516383976</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N37" t="n">
-        <v>3917.151382175683</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O37" t="n">
-        <v>4284.173839190713</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P37" t="n">
-        <v>4574.704274026917</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q37" t="n">
-        <v>4692.417407580352</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R37" t="n">
-        <v>4624.558062538854</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S37" t="n">
-        <v>4624.558062538854</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T37" t="n">
-        <v>4404.879280253236</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U37" t="n">
-        <v>4308.969619420833</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V37" t="n">
-        <v>4054.285131214946</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="W37" t="n">
-        <v>3764.867961177985</v>
+        <v>1380.210798025274</v>
       </c>
       <c r="X37" t="n">
-        <v>3764.867961177985</v>
+        <v>1380.210798025274</v>
       </c>
       <c r="Y37" t="n">
-        <v>3544.075382034455</v>
+        <v>1159.418218881744</v>
       </c>
     </row>
     <row r="38">
@@ -7162,61 +7162,61 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F38" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G38" t="n">
         <v>380.2757138127629</v>
       </c>
       <c r="H38" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I38" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J38" t="n">
-        <v>424.1437450015205</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K38" t="n">
-        <v>893.7741287892025</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L38" t="n">
-        <v>1513.293909294977</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M38" t="n">
-        <v>2234.298471234015</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N38" t="n">
-        <v>2971.583449151121</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O38" t="n">
-        <v>3654.445485610259</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P38" t="n">
-        <v>4202.751434297607</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q38" t="n">
-        <v>4566.333620403614</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R38" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S38" t="n">
         <v>4606.950144347201</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.74099602652</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U38" t="n">
-        <v>4152.29766674607</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V38" t="n">
         <v>3821.234779402499</v>
       </c>
       <c r="W38" t="n">
-        <v>3468.466124132385</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X38" t="n">
-        <v>3095.000365871305</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.861033895493</v>
@@ -7247,34 +7247,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H39" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I39" t="n">
-        <v>93.84834815160704</v>
+        <v>94.88738072612962</v>
       </c>
       <c r="J39" t="n">
-        <v>93.84834815160704</v>
+        <v>242.5353624779756</v>
       </c>
       <c r="K39" t="n">
-        <v>424.3570907149658</v>
+        <v>573.0441050413344</v>
       </c>
       <c r="L39" t="n">
-        <v>915.0894235587172</v>
+        <v>1063.776437885086</v>
       </c>
       <c r="M39" t="n">
-        <v>1507.107777810845</v>
+        <v>1655.794792137213</v>
       </c>
       <c r="N39" t="n">
-        <v>2098.90263203578</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O39" t="n">
-        <v>2098.90263203578</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P39" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q39" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R39" t="n">
         <v>2553.812354695766</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3240.774662296163</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C40" t="n">
-        <v>3193.490734276308</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D40" t="n">
-        <v>3043.374094863972</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E40" t="n">
-        <v>2895.461001281579</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="F40" t="n">
-        <v>2748.571053783669</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="G40" t="n">
-        <v>2581.356858958248</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H40" t="n">
-        <v>2439.484141996678</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I40" t="n">
-        <v>2356.853256396265</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J40" t="n">
-        <v>2435.835379285819</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K40" t="n">
-        <v>2695.464106256383</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L40" t="n">
-        <v>3083.225924339517</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M40" t="n">
-        <v>3502.455516383976</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N40" t="n">
-        <v>3917.151382175683</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O40" t="n">
-        <v>4284.173839190713</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P40" t="n">
-        <v>4574.704274026917</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q40" t="n">
-        <v>4692.417407580352</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R40" t="n">
-        <v>4624.558062538854</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S40" t="n">
-        <v>4441.387872277784</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.709089992167</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.632876306894</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V40" t="n">
-        <v>3932.632876306894</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W40" t="n">
-        <v>3643.215706269933</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X40" t="n">
-        <v>3643.215706269933</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y40" t="n">
-        <v>3422.423127126403</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C41" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D41" t="n">
         <v>1591.032978284208</v>
@@ -7402,61 +7402,61 @@
         <v>794.2588208963566</v>
       </c>
       <c r="G41" t="n">
-        <v>380.275713812763</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H41" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I41" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J41" t="n">
-        <v>424.1437450015205</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K41" t="n">
-        <v>893.7741287892025</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L41" t="n">
-        <v>1513.293909294977</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M41" t="n">
-        <v>2234.298471234015</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N41" t="n">
-        <v>2971.583449151121</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O41" t="n">
-        <v>3654.445485610259</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P41" t="n">
-        <v>4202.751434297607</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q41" t="n">
-        <v>4566.333620403614</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R41" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T41" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U41" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V41" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W41" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X41" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3082.265894313995</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C42" t="n">
-        <v>2907.812865032868</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D42" t="n">
-        <v>2758.878455371617</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E42" t="n">
-        <v>2599.641000366161</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F42" t="n">
-        <v>2453.106442393046</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G42" t="n">
-        <v>2317.326192152976</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H42" t="n">
-        <v>2232.453401036193</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I42" t="n">
-        <v>2232.453401036193</v>
+        <v>94.88738072612962</v>
       </c>
       <c r="J42" t="n">
-        <v>2232.453401036193</v>
+        <v>242.5353624779756</v>
       </c>
       <c r="K42" t="n">
-        <v>2232.453401036193</v>
+        <v>573.0441050413344</v>
       </c>
       <c r="L42" t="n">
-        <v>2723.185733879945</v>
+        <v>1063.776437885086</v>
       </c>
       <c r="M42" t="n">
-        <v>3315.204088132072</v>
+        <v>1655.794792137213</v>
       </c>
       <c r="N42" t="n">
-        <v>3937.300051531408</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O42" t="n">
-        <v>4484.176526531603</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P42" t="n">
-        <v>4484.176526531603</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q42" t="n">
-        <v>4692.417407580352</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R42" t="n">
-        <v>4692.417407580352</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S42" t="n">
-        <v>4573.80570283771</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T42" t="n">
-        <v>4383.511996740123</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U42" t="n">
-        <v>4155.482495264494</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V42" t="n">
-        <v>3920.330387032751</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W42" t="n">
-        <v>3666.09303030455</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X42" t="n">
-        <v>3458.241530099017</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y42" t="n">
-        <v>3250.481231334063</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="43">
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>697.7383010189013</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C43" t="n">
-        <v>697.7383010189013</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D43" t="n">
-        <v>697.7383010189013</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E43" t="n">
-        <v>549.8252074365082</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="F43" t="n">
-        <v>402.9352599385978</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="G43" t="n">
-        <v>235.7210651131766</v>
+        <v>158.945337194272</v>
       </c>
       <c r="H43" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I43" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J43" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K43" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L43" t="n">
         <v>820.2210160948589</v>
@@ -7593,28 +7593,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R43" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S43" t="n">
-        <v>2246.242309074625</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T43" t="n">
-        <v>2026.563526789007</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U43" t="n">
-        <v>1737.487313103734</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V43" t="n">
-        <v>1482.802824897847</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W43" t="n">
-        <v>1193.385654860886</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X43" t="n">
-        <v>1100.179344992671</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y43" t="n">
-        <v>879.3867658491411</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C44" t="n">
         <v>1949.298676890958</v>
       </c>
       <c r="D44" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E44" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F44" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963555</v>
       </c>
       <c r="G44" t="n">
         <v>380.2757138127629</v>
       </c>
       <c r="H44" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I44" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J44" t="n">
-        <v>373.3442236507201</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K44" t="n">
-        <v>893.7741287892025</v>
+        <v>893.7741287892015</v>
       </c>
       <c r="L44" t="n">
-        <v>1513.293909294977</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M44" t="n">
-        <v>2234.298471234015</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N44" t="n">
-        <v>2971.583449151121</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O44" t="n">
-        <v>3654.445485610259</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P44" t="n">
-        <v>4202.751434297607</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q44" t="n">
-        <v>4566.333620403614</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R44" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.74099602652</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U44" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V44" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W44" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X44" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="45">
@@ -7721,34 +7721,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H45" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I45" t="n">
-        <v>93.84834815160704</v>
+        <v>94.88738072612962</v>
       </c>
       <c r="J45" t="n">
-        <v>241.496329903453</v>
+        <v>242.5353624779756</v>
       </c>
       <c r="K45" t="n">
-        <v>572.0050724668118</v>
+        <v>242.5353624779756</v>
       </c>
       <c r="L45" t="n">
-        <v>572.0050724668118</v>
+        <v>733.2676953217269</v>
       </c>
       <c r="M45" t="n">
-        <v>965.25639787016</v>
+        <v>1325.286049573855</v>
       </c>
       <c r="N45" t="n">
-        <v>1587.352361269496</v>
+        <v>1947.382012973191</v>
       </c>
       <c r="O45" t="n">
-        <v>2134.22883626969</v>
+        <v>1947.382012973191</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.812354695766</v>
+        <v>2366.965531399267</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R45" t="n">
         <v>2553.812354695766</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>952.5320614616468</v>
+        <v>952.5320614616467</v>
       </c>
       <c r="C46" t="n">
-        <v>783.5958785337399</v>
+        <v>783.5958785337398</v>
       </c>
       <c r="D46" t="n">
-        <v>633.4792391214041</v>
+        <v>633.479239121404</v>
       </c>
       <c r="E46" t="n">
-        <v>485.566145539011</v>
+        <v>485.5661455390109</v>
       </c>
       <c r="F46" t="n">
-        <v>485.566145539011</v>
+        <v>485.5661455390109</v>
       </c>
       <c r="G46" t="n">
         <v>318.3519507135898</v>
@@ -7803,13 +7803,13 @@
         <v>176.4792337520202</v>
       </c>
       <c r="I46" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J46" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K46" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L46" t="n">
         <v>820.2210160948589</v>
@@ -7830,28 +7830,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R46" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S46" t="n">
-        <v>2178.382964033126</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T46" t="n">
-        <v>2178.382964033126</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U46" t="n">
-        <v>1889.306750347853</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V46" t="n">
-        <v>1634.622262141966</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W46" t="n">
-        <v>1345.205092105005</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="X46" t="n">
-        <v>1134.180526291887</v>
+        <v>1354.973105435416</v>
       </c>
       <c r="Y46" t="n">
-        <v>1134.180526291887</v>
+        <v>1134.180526291886</v>
       </c>
     </row>
   </sheetData>
@@ -8066,16 +8066,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>392.8337743093847</v>
+        <v>267.9873942041307</v>
       </c>
       <c r="N3" t="n">
-        <v>381.709495280812</v>
+        <v>381.7094952808119</v>
       </c>
       <c r="O3" t="n">
-        <v>130.8188201934042</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>262.7191051148786</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q3" t="n">
         <v>133.663080786811</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K6" t="n">
-        <v>129.8481964236086</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>392.833774309385</v>
+        <v>392.8337743093848</v>
       </c>
       <c r="N6" t="n">
-        <v>381.7094952808122</v>
+        <v>381.709495280812</v>
       </c>
       <c r="O6" t="n">
-        <v>323.288653982419</v>
+        <v>269.0159391714756</v>
       </c>
       <c r="P6" t="n">
-        <v>124.5219861368071</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,22 +8531,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>98.21846313347619</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.7937368863008</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>70.57133424719405</v>
+        <v>464.4535191168293</v>
       </c>
       <c r="N9" t="n">
-        <v>451.6297827179033</v>
+        <v>451.6297827178988</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>70.52420674029956</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8704,13 +8704,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>51.31264782910125</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>51.31264782908892</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8941,13 +8941,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>51.31264782910125</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>51.31264782908892</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>51.31264782910131</v>
+        <v>51.31264782909039</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>51.31264782909136</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>51.312647829089</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>51.31264782908983</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>51.312647829089</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9877,13 +9877,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>51.31264782909039</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>51.31264782909034</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -10123,7 +10123,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>51.31264782908988</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>51.312647829089</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>51.31264782909221</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>51.31264782908892</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>51.31264782909136</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10597,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>51.31264782908988</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>51.31264782909136</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>51.312647829089</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>51.31264782909136</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11080,7 +11080,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>51.31264782908892</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>51.3126478290913</v>
+        <v>51.31264782909039</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>55.19511218766124</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440915</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>54.18219756401864</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>113.4225832797632</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>63.35659541391539</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108373</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>89.83901298705835</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440915</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1854515484204</v>
+        <v>229.9554559908372</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>76.00797063971555</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>273.0300028669679</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>76.00797063971558</v>
       </c>
       <c r="U25" t="n">
-        <v>8.874023140463066</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>129.0117327624534</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I28" t="n">
-        <v>51.92592671471411</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S28" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>63.35659541391536</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>59.00855845866184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>80.97502887069292</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>282.4207369549965</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>38.63115561456293</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,16 +25362,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>191.234887324341</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>120.4357323589714</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>76.00797063971552</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25788,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>76.00797063971555</v>
       </c>
       <c r="I43" t="n">
         <v>81.80457674440902</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>133.4354086195044</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>16.79533523404967</v>
+        <v>99.15823312123109</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>844826.5811665613</v>
+        <v>844826.5811665612</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>753302.3151765896</v>
+        <v>753302.3151765894</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>753302.3151765896</v>
+        <v>753302.3151765894</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>753302.3151765896</v>
+        <v>753302.3151765895</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>753302.3151765896</v>
+        <v>753302.3151765894</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>753302.3151765895</v>
+        <v>753302.3151765894</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>753302.3151765896</v>
+        <v>753302.3151765895</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>753302.3151765895</v>
+        <v>753302.3151765894</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>753302.3151765894</v>
+        <v>753302.3151765895</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>753302.3151765896</v>
+        <v>753302.3151765894</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>753302.3151765896</v>
+        <v>753302.3151765894</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>753302.3151765895</v>
+        <v>753302.3151765894</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>753302.3151765895</v>
+        <v>753302.3151765896</v>
       </c>
     </row>
   </sheetData>
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="C2" t="n">
         <v>677359.4601380336</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.4601380329</v>
       </c>
       <c r="E2" t="n">
-        <v>665513.4561228114</v>
+        <v>665513.4561228117</v>
       </c>
       <c r="F2" t="n">
         <v>665513.4561228114</v>
       </c>
       <c r="G2" t="n">
-        <v>665513.456122811</v>
+        <v>665513.4561228114</v>
       </c>
       <c r="H2" t="n">
-        <v>665513.4561228115</v>
+        <v>665513.4561228112</v>
       </c>
       <c r="I2" t="n">
-        <v>665513.4561228114</v>
+        <v>665513.4561228113</v>
       </c>
       <c r="J2" t="n">
-        <v>665513.4561228114</v>
+        <v>665513.4561228113</v>
       </c>
       <c r="K2" t="n">
-        <v>665513.4561228112</v>
+        <v>665513.4561228113</v>
       </c>
       <c r="L2" t="n">
-        <v>665513.4561228113</v>
+        <v>665513.4561228117</v>
       </c>
       <c r="M2" t="n">
         <v>665513.4561228115</v>
@@ -26355,7 +26355,7 @@
         <v>665513.4561228115</v>
       </c>
       <c r="P2" t="n">
-        <v>665513.4561228115</v>
+        <v>665513.4561228118</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>110394.4548749495</v>
       </c>
       <c r="C3" t="n">
-        <v>6.171489195594403e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>143093.1975581176</v>
+        <v>143093.1975581093</v>
       </c>
       <c r="E3" t="n">
-        <v>1209019.537077486</v>
+        <v>1209019.537077497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.308439567818172e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68875.69873124979</v>
+        <v>68875.69873124985</v>
       </c>
       <c r="K3" t="n">
-        <v>1.170374162029475e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>34377.37901658591</v>
+        <v>34377.379016584</v>
       </c>
       <c r="M3" t="n">
-        <v>192891.9217116865</v>
+        <v>192891.9217116885</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>354753.502998367</v>
       </c>
       <c r="C4" t="n">
-        <v>354753.5029983668</v>
+        <v>354753.502998367</v>
       </c>
       <c r="D4" t="n">
-        <v>312563.8135151826</v>
+        <v>312563.8135151853</v>
       </c>
       <c r="E4" t="n">
-        <v>7918.140297431917</v>
+        <v>7918.14029743167</v>
       </c>
       <c r="F4" t="n">
-        <v>7918.140297431917</v>
+        <v>7918.14029743167</v>
       </c>
       <c r="G4" t="n">
-        <v>7918.140297431918</v>
+        <v>7918.140297431701</v>
       </c>
       <c r="H4" t="n">
-        <v>7918.140297431657</v>
+        <v>7918.140297431728</v>
       </c>
       <c r="I4" t="n">
-        <v>7918.140297431688</v>
+        <v>7918.140297431673</v>
       </c>
       <c r="J4" t="n">
+        <v>7918.140297431699</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7918.140297431673</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7918.140297431738</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7918.14029743169</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7918.140297431673</v>
+      </c>
+      <c r="O4" t="n">
+        <v>7918.140297431672</v>
+      </c>
+      <c r="P4" t="n">
         <v>7918.140297431701</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7918.14029743169</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7918.14029743167</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7918.140297431757</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7918.14029743172</v>
-      </c>
-      <c r="O4" t="n">
-        <v>7918.14029743172</v>
-      </c>
-      <c r="P4" t="n">
-        <v>7918.140297431677</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>50134.40740683334</v>
       </c>
       <c r="C5" t="n">
-        <v>50134.40740683338</v>
+        <v>50134.40740683334</v>
       </c>
       <c r="D5" t="n">
-        <v>60961.29296005091</v>
+        <v>60961.29296005023</v>
       </c>
       <c r="E5" t="n">
         <v>100930.0394572385</v>
@@ -26487,10 +26487,10 @@
         <v>100930.0394572385</v>
       </c>
       <c r="H5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="I5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="J5" t="n">
         <v>100930.0394572385</v>
@@ -26499,19 +26499,19 @@
         <v>100930.0394572385</v>
       </c>
       <c r="L5" t="n">
+        <v>100930.0394572386</v>
+      </c>
+      <c r="M5" t="n">
         <v>100930.0394572385</v>
       </c>
-      <c r="M5" t="n">
-        <v>100930.0394572386</v>
-      </c>
       <c r="N5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="O5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="P5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>162077.094857884</v>
+        <v>162077.0948578838</v>
       </c>
       <c r="C6" t="n">
-        <v>272471.5497328328</v>
+        <v>272471.5497328333</v>
       </c>
       <c r="D6" t="n">
-        <v>160741.1561046825</v>
+        <v>160741.1561046881</v>
       </c>
       <c r="E6" t="n">
-        <v>-652354.2607093451</v>
+        <v>-652713.2305279981</v>
       </c>
       <c r="F6" t="n">
-        <v>556665.2763681409</v>
+        <v>556306.3065494982</v>
       </c>
       <c r="G6" t="n">
-        <v>556665.2763681405</v>
+        <v>556306.3065494981</v>
       </c>
       <c r="H6" t="n">
-        <v>556665.2763681415</v>
+        <v>556306.3065494979</v>
       </c>
       <c r="I6" t="n">
-        <v>556665.2763681411</v>
+        <v>556306.3065494981</v>
       </c>
       <c r="J6" t="n">
-        <v>487789.5776368914</v>
+        <v>487430.607818248</v>
       </c>
       <c r="K6" t="n">
-        <v>556665.2763681408</v>
+        <v>556306.3065494981</v>
       </c>
       <c r="L6" t="n">
-        <v>522287.8973515553</v>
+        <v>521928.9275329142</v>
       </c>
       <c r="M6" t="n">
-        <v>363773.3546564547</v>
+        <v>363414.3848378097</v>
       </c>
       <c r="N6" t="n">
-        <v>556665.2763681413</v>
+        <v>556306.3065494983</v>
       </c>
       <c r="O6" t="n">
-        <v>556665.2763681413</v>
+        <v>556306.3065494983</v>
       </c>
       <c r="P6" t="n">
-        <v>556665.2763681413</v>
+        <v>556306.3065494985</v>
       </c>
     </row>
   </sheetData>
@@ -26718,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26740,19 +26740,19 @@
         <v>23.01338268678938</v>
       </c>
       <c r="C3" t="n">
-        <v>23.01338268678986</v>
+        <v>23.01338268678931</v>
       </c>
       <c r="D3" t="n">
-        <v>140.8305712138876</v>
+        <v>140.8305712138801</v>
       </c>
       <c r="E3" t="n">
-        <v>1358.041048716384</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716384</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
-        <v>1358.041048716384</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="H3" t="n">
         <v>1358.041048716386</v>
@@ -26792,10 +26792,10 @@
         <v>263.2420339516666</v>
       </c>
       <c r="C4" t="n">
-        <v>263.2420339516672</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="D4" t="n">
-        <v>399.0721465063843</v>
+        <v>399.0721465063757</v>
       </c>
       <c r="E4" t="n">
         <v>1173.104351895088</v>
@@ -26928,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>9.135549459772716e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26962,13 +26962,13 @@
         <v>23.01338268678938</v>
       </c>
       <c r="C3" t="n">
-        <v>4.760636329592671e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>117.8171885270977</v>
+        <v>117.8171885270908</v>
       </c>
       <c r="E3" t="n">
-        <v>1217.210477502496</v>
+        <v>1217.210477502506</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>263.2420339516666</v>
       </c>
       <c r="C4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>135.8301125547171</v>
+        <v>135.8301125547091</v>
       </c>
       <c r="E4" t="n">
-        <v>774.0322053887037</v>
+        <v>774.0322053887121</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516664</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>135.8301125547171</v>
+        <v>135.8301125547096</v>
       </c>
       <c r="M4" t="n">
-        <v>774.0322053887039</v>
+        <v>774.0322053887116</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27165,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>9.135549459772716e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>263.2420339516666</v>
       </c>
       <c r="K4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>135.8301125547171</v>
+        <v>135.8301125547091</v>
       </c>
       <c r="M4" t="n">
-        <v>774.0322053887037</v>
+        <v>774.0322053887121</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>91.44100766901636</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>265.0009256163811</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I2" t="n">
-        <v>206.9091621893709</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>206.9118586999128</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>222.6908602868995</v>
@@ -27441,7 +27441,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>85.99893476574641</v>
+        <v>163.0515258288664</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27457,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>159.9286947628071</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27472,13 +27472,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H3" t="n">
-        <v>30.93243416058965</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27511,13 +27511,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9381254702172</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27526,7 +27526,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>8.11441070893386</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H4" t="n">
         <v>161.8582038473137</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>58.74958424511985</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.4918077118134</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>91.44100766901636</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27630,16 +27630,16 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>348.7766863961784</v>
       </c>
       <c r="H5" t="n">
         <v>338.5273214908784</v>
       </c>
       <c r="I5" t="n">
-        <v>206.9091621893709</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J5" t="n">
-        <v>4.097100052851991</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>144.05760276447</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27672,10 +27672,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3382516189322</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>284.3356271461946</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.9959047043864</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27700,10 +27700,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>114.640364991314</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>76.6070504540709</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27712,10 +27712,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>87.6923398882896</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,16 +27742,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T6" t="n">
         <v>199.9652070090748</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27760,7 +27760,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27779,13 +27779,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>85.72100090066093</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.9494798159088</v>
@@ -27794,13 +27794,13 @@
         <v>161.8582038473137</v>
       </c>
       <c r="I7" t="n">
-        <v>154.2024705022107</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J7" t="n">
-        <v>90.42516245839138</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>6.228403429953714</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R7" t="n">
-        <v>175.4274210366963</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S7" t="n">
-        <v>223.2933741908972</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T7" t="n">
         <v>227.7682732010226</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>15.66443795864467</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>333.6766871913683</v>
+        <v>333.6766871913686</v>
       </c>
       <c r="I8" t="n">
-        <v>188.6492741061912</v>
+        <v>188.6492741061924</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>20.16121697429386</v>
       </c>
       <c r="S8" t="n">
-        <v>102.2610811639768</v>
+        <v>196.1188569569537</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>220.6175145872921</v>
       </c>
       <c r="U8" t="n">
         <v>251.300360663828</v>
@@ -27915,10 +27915,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -27943,16 +27943,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.0405985760713</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>109.3098884080723</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>78.96719903982112</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>81.35030994411679</v>
+        <v>81.35030994411777</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>166.056591206755</v>
       </c>
       <c r="T9" t="n">
-        <v>198.9437542142031</v>
+        <v>198.9437542142032</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9214532265578</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>136.6331061807904</v>
       </c>
       <c r="W9" t="n">
-        <v>130.8707596140006</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28016,25 +28016,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>123.4633966372541</v>
       </c>
       <c r="G10" t="n">
         <v>167.737022590696</v>
       </c>
       <c r="H10" t="n">
-        <v>159.9692659722399</v>
+        <v>159.96926597224</v>
       </c>
       <c r="I10" t="n">
-        <v>147.8133023112658</v>
+        <v>147.8133023112662</v>
       </c>
       <c r="J10" t="n">
-        <v>75.40443663584649</v>
+        <v>75.40443663584743</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.89662699839737</v>
+        <v>64.89662699839849</v>
       </c>
       <c r="R10" t="n">
-        <v>165.8745716194008</v>
+        <v>165.8745716194014</v>
       </c>
       <c r="S10" t="n">
-        <v>219.5908241842342</v>
+        <v>219.5908241842344</v>
       </c>
       <c r="T10" t="n">
-        <v>128.4380677221931</v>
+        <v>226.860501420568</v>
       </c>
       <c r="U10" t="n">
         <v>286.3051771691584</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-9.135549459772716e-14</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>-9.135549459772716e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-9.135549459772716e-14</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-9.135549459772716e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-9.135549459772716e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-9.135549459772716e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-9.135549459772716e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-9.135549459772716e-14</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-9.135549459772716e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-9.135549459772716e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-9.135549459772716e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-9.135549459772716e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-9.135549459772716e-14</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X20" t="n">
-        <v>-9.135549459772716e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-9.135549459772716e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -30000,7 +30000,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>8.196257465834636e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30696,7 +30696,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-9.161664530469791e-13</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09251611130367775</v>
+        <v>0.09251611130367554</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9474806248887899</v>
+        <v>0.9474806248887675</v>
       </c>
       <c r="I5" t="n">
-        <v>3.56672738103504</v>
+        <v>3.566727381034955</v>
       </c>
       <c r="J5" t="n">
-        <v>7.852189301760526</v>
+        <v>7.852189301760339</v>
       </c>
       <c r="K5" t="n">
-        <v>11.76839629324521</v>
+        <v>11.76839629324493</v>
       </c>
       <c r="L5" t="n">
-        <v>14.59973623455514</v>
+        <v>14.59973623455479</v>
       </c>
       <c r="M5" t="n">
-        <v>16.24501962895192</v>
+        <v>16.24501962895153</v>
       </c>
       <c r="N5" t="n">
-        <v>16.50788103019349</v>
+        <v>16.5078810301931</v>
       </c>
       <c r="O5" t="n">
-        <v>15.58792394841755</v>
+        <v>15.58792394841718</v>
       </c>
       <c r="P5" t="n">
-        <v>13.303932450608</v>
+        <v>13.30393245060768</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214545037</v>
+        <v>9.990699214544799</v>
       </c>
       <c r="R5" t="n">
-        <v>5.811515176679652</v>
+        <v>5.811515176679515</v>
       </c>
       <c r="S5" t="n">
-        <v>2.108210886332559</v>
+        <v>2.108210886332509</v>
       </c>
       <c r="T5" t="n">
-        <v>0.4049892772318495</v>
+        <v>0.4049892772318399</v>
       </c>
       <c r="U5" t="n">
-        <v>0.007401288904294218</v>
+        <v>0.007401288904294042</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04950048351498196</v>
+        <v>0.04950048351498078</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4780704592104837</v>
+        <v>0.4780704592104724</v>
       </c>
       <c r="I6" t="n">
-        <v>1.704292963125476</v>
+        <v>1.704292963125435</v>
       </c>
       <c r="J6" t="n">
-        <v>4.676710155246607</v>
+        <v>4.676710155246496</v>
       </c>
       <c r="K6" t="n">
-        <v>7.993242550750399</v>
+        <v>7.993242550750209</v>
       </c>
       <c r="L6" t="n">
-        <v>10.74790103688238</v>
+        <v>10.74790103688212</v>
       </c>
       <c r="M6" t="n">
-        <v>12.54229356430047</v>
+        <v>12.54229356430017</v>
       </c>
       <c r="N6" t="n">
-        <v>12.87425075418822</v>
+        <v>12.87425075418792</v>
       </c>
       <c r="O6" t="n">
-        <v>11.77742425104047</v>
+        <v>11.77742425104019</v>
       </c>
       <c r="P6" t="n">
-        <v>9.452421277523179</v>
+        <v>9.452421277522953</v>
       </c>
       <c r="Q6" t="n">
-        <v>6.31869329921068</v>
+        <v>6.31869329921053</v>
       </c>
       <c r="R6" t="n">
-        <v>3.073372125605635</v>
+        <v>3.073372125605562</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9194497705524055</v>
+        <v>0.9194497705523836</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1995216857467912</v>
+        <v>0.1995216857467865</v>
       </c>
       <c r="U6" t="n">
-        <v>0.003256610757564604</v>
+        <v>0.003256610757564526</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04149954254994892</v>
+        <v>0.04149954254994793</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3689686601259097</v>
+        <v>0.368968660125901</v>
       </c>
       <c r="I7" t="n">
-        <v>1.248004425047555</v>
+        <v>1.248004425047526</v>
       </c>
       <c r="J7" t="n">
-        <v>2.934017658281388</v>
+        <v>2.934017658281319</v>
       </c>
       <c r="K7" t="n">
-        <v>4.821492307166792</v>
+        <v>4.821492307166677</v>
       </c>
       <c r="L7" t="n">
-        <v>6.169850171471498</v>
+        <v>6.169850171471351</v>
       </c>
       <c r="M7" t="n">
-        <v>6.50524192898881</v>
+        <v>6.505241928988656</v>
       </c>
       <c r="N7" t="n">
-        <v>6.350561815848097</v>
+        <v>6.350561815847946</v>
       </c>
       <c r="O7" t="n">
-        <v>5.865771705150964</v>
+        <v>5.865771705150824</v>
       </c>
       <c r="P7" t="n">
-        <v>5.019181037132002</v>
+        <v>5.019181037131882</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.475020785705268</v>
+        <v>3.475020785705186</v>
       </c>
       <c r="R7" t="n">
-        <v>1.865970340473157</v>
+        <v>1.865970340473113</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7232238460750187</v>
+        <v>0.7232238460750015</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1773162272588726</v>
+        <v>0.1773162272588684</v>
       </c>
       <c r="U7" t="n">
-        <v>0.002263611411815398</v>
+        <v>0.002263611411815344</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5661530501060802</v>
+        <v>0.5661530501060504</v>
       </c>
       <c r="H8" t="n">
-        <v>5.798114924398896</v>
+        <v>5.798114924398591</v>
       </c>
       <c r="I8" t="n">
-        <v>21.82661546421468</v>
+        <v>21.82661546421353</v>
       </c>
       <c r="J8" t="n">
-        <v>48.05153243644097</v>
+        <v>48.05153243643844</v>
       </c>
       <c r="K8" t="n">
-        <v>72.01679104743137</v>
+        <v>72.01679104742757</v>
       </c>
       <c r="L8" t="n">
-        <v>89.34319745461534</v>
+        <v>89.34319745461063</v>
       </c>
       <c r="M8" t="n">
-        <v>99.41152175943934</v>
+        <v>99.41152175943409</v>
       </c>
       <c r="N8" t="n">
-        <v>101.0201041130533</v>
+        <v>101.0201041130479</v>
       </c>
       <c r="O8" t="n">
-        <v>95.39041972106091</v>
+        <v>95.39041972105588</v>
       </c>
       <c r="P8" t="n">
-        <v>81.41351629656704</v>
+        <v>81.41351629656275</v>
       </c>
       <c r="Q8" t="n">
-        <v>61.13816018964302</v>
+        <v>61.13816018963979</v>
       </c>
       <c r="R8" t="n">
-        <v>35.5636115337261</v>
+        <v>35.56361153372422</v>
       </c>
       <c r="S8" t="n">
-        <v>12.90121262929232</v>
+        <v>12.90121262929164</v>
       </c>
       <c r="T8" t="n">
-        <v>2.478334976839367</v>
+        <v>2.478334976839237</v>
       </c>
       <c r="U8" t="n">
-        <v>0.04529224400848641</v>
+        <v>0.04529224400848402</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3029185871393054</v>
+        <v>0.3029185871392894</v>
       </c>
       <c r="H9" t="n">
-        <v>2.925555828424344</v>
+        <v>2.92555582842419</v>
       </c>
       <c r="I9" t="n">
-        <v>10.4294338115945</v>
+        <v>10.42943381159396</v>
       </c>
       <c r="J9" t="n">
-        <v>28.619163533192</v>
+        <v>28.6191635331905</v>
       </c>
       <c r="K9" t="n">
-        <v>48.91470887152546</v>
+        <v>48.91470887152288</v>
       </c>
       <c r="L9" t="n">
-        <v>65.77186252776892</v>
+        <v>65.77186252776545</v>
       </c>
       <c r="M9" t="n">
-        <v>76.75266131156872</v>
+        <v>76.75266131156467</v>
       </c>
       <c r="N9" t="n">
-        <v>78.78407587181434</v>
+        <v>78.78407587181019</v>
       </c>
       <c r="O9" t="n">
-        <v>72.07203770414867</v>
+        <v>72.07203770414488</v>
       </c>
       <c r="P9" t="n">
-        <v>57.84416424066262</v>
+        <v>57.84416424065957</v>
       </c>
       <c r="Q9" t="n">
-        <v>38.66729193027344</v>
+        <v>38.6672919302714</v>
       </c>
       <c r="R9" t="n">
-        <v>18.80752420852635</v>
+        <v>18.80752420852536</v>
       </c>
       <c r="S9" t="n">
-        <v>5.626579897083146</v>
+        <v>5.626579897082849</v>
       </c>
       <c r="T9" t="n">
-        <v>1.220974480618515</v>
+        <v>1.220974480618451</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01992885441705957</v>
+        <v>0.01992885441705852</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2539567677627481</v>
+        <v>0.2539567677627347</v>
       </c>
       <c r="H10" t="n">
-        <v>2.257906535199707</v>
+        <v>2.257906535199588</v>
       </c>
       <c r="I10" t="n">
-        <v>7.637172615992462</v>
+        <v>7.63717261599206</v>
       </c>
       <c r="J10" t="n">
-        <v>17.95474348082628</v>
+        <v>17.95474348082534</v>
       </c>
       <c r="K10" t="n">
-        <v>29.50515901825381</v>
+        <v>29.50515901825226</v>
       </c>
       <c r="L10" t="n">
-        <v>37.75644527265438</v>
+        <v>37.75644527265239</v>
       </c>
       <c r="M10" t="n">
-        <v>39.80887769575513</v>
+        <v>39.80887769575303</v>
       </c>
       <c r="N10" t="n">
-        <v>38.86231156136673</v>
+        <v>38.86231156136468</v>
       </c>
       <c r="O10" t="n">
-        <v>35.89563477432007</v>
+        <v>35.89563477431818</v>
       </c>
       <c r="P10" t="n">
-        <v>30.71491671195999</v>
+        <v>30.71491671195837</v>
       </c>
       <c r="Q10" t="n">
-        <v>21.26541625329702</v>
+        <v>21.2654162532959</v>
       </c>
       <c r="R10" t="n">
-        <v>11.41881975776865</v>
+        <v>11.41881975776805</v>
       </c>
       <c r="S10" t="n">
-        <v>4.425773852738071</v>
+        <v>4.425773852737838</v>
       </c>
       <c r="T10" t="n">
-        <v>1.08508800771356</v>
+        <v>1.085088007713502</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01385218733251355</v>
+        <v>0.01385218733251282</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377417</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122274</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704056</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>463.3649706874057</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K11" t="n">
-        <v>694.463976083042</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L11" t="n">
-        <v>861.543971036425</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M11" t="n">
-        <v>958.6336695293294</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229593</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O11" t="n">
-        <v>919.8578442086938</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687511</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148597</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987157</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S11" t="n">
-        <v>124.4074789854255</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T11" t="n">
-        <v>23.89879272665716</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4367569201901933</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.9210694255409</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H12" t="n">
-        <v>28.21138103088186</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K12" t="n">
-        <v>471.6886536848217</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L12" t="n">
-        <v>634.2436048745715</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927626</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426194</v>
+        <v>421.3049304638554</v>
       </c>
       <c r="P12" t="n">
-        <v>557.7961431982445</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.6554855117261</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.25758340862151</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821091</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1921756201013751</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.448926481291839</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H13" t="n">
-        <v>21.77318271548564</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284914</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J13" t="n">
-        <v>173.139102227333</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K13" t="n">
-        <v>284.5207311900882</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640613</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265016</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416869</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465957</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P13" t="n">
-        <v>296.1865264282419</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q13" t="n">
-        <v>205.0641983561739</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R13" t="n">
-        <v>110.1126397860858</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851322</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T13" t="n">
-        <v>10.46359496551967</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1335778080704641</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377417</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122274</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704056</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874057</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K14" t="n">
-        <v>694.463976083042</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L14" t="n">
-        <v>861.543971036425</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293294</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229593</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086938</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687511</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148597</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987157</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S14" t="n">
-        <v>124.4074789854255</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665716</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4367569201901933</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.9210694255409</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088186</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745715</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>740.132371550429</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927626</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O15" t="n">
-        <v>248.6291370077031</v>
+        <v>421.3049304638554</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982445</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286947</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862151</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821091</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1921756201013751</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291839</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H16" t="n">
-        <v>21.77318271548564</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284914</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J16" t="n">
-        <v>173.139102227333</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900882</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640613</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265016</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416869</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465957</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282419</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q16" t="n">
-        <v>205.0641983561739</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R16" t="n">
-        <v>110.1126397860858</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851322</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T16" t="n">
-        <v>10.46359496551967</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1335778080704641</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377417</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122274</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704056</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>463.3649706874057</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K17" t="n">
-        <v>694.463976083042</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L17" t="n">
-        <v>861.543971036425</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M17" t="n">
-        <v>958.6336695293294</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N17" t="n">
-        <v>974.1453645229593</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O17" t="n">
-        <v>919.8578442086938</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P17" t="n">
-        <v>785.0773883687511</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148597</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R17" t="n">
-        <v>342.9428985987157</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S17" t="n">
-        <v>124.4074789854255</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T17" t="n">
-        <v>23.89879272665716</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4367569201901933</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.9210694255409</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H18" t="n">
-        <v>28.21138103088186</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I18" t="n">
-        <v>100.5719078530529</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
-        <v>634.2436048745715</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M18" t="n">
-        <v>740.132371550429</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7214730927626</v>
+        <v>486.0296793139987</v>
       </c>
       <c r="O18" t="n">
-        <v>480.4697848973234</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P18" t="n">
-        <v>557.7961431982445</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.25758340862151</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T18" t="n">
-        <v>11.77395965821091</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1921756201013751</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.448926481291839</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H19" t="n">
-        <v>21.77318271548564</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284914</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J19" t="n">
-        <v>173.139102227333</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K19" t="n">
-        <v>284.5207311900882</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L19" t="n">
-        <v>364.0885788640613</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M19" t="n">
-        <v>383.8803574265016</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N19" t="n">
-        <v>374.7525405416869</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O19" t="n">
-        <v>346.1446266465957</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P19" t="n">
-        <v>296.1865264282419</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q19" t="n">
-        <v>205.0641983561739</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R19" t="n">
-        <v>110.1126397860858</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S19" t="n">
-        <v>42.67810967851322</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T19" t="n">
-        <v>10.46359496551967</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1335778080704641</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,10 +32548,10 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K21" t="n">
         <v>471.6886536848224</v>
@@ -32560,19 +32560,19 @@
         <v>634.2436048745725</v>
       </c>
       <c r="M21" t="n">
-        <v>740.1323715504302</v>
+        <v>466.4405777716651</v>
       </c>
       <c r="N21" t="n">
         <v>759.7214730927639</v>
       </c>
       <c r="O21" t="n">
-        <v>338.6036580811493</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,7 +32785,7 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J24" t="n">
         <v>275.9770021735818</v>
@@ -32794,10 +32794,10 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L24" t="n">
-        <v>500.0949062136499</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>466.4405777716651</v>
       </c>
       <c r="N24" t="n">
         <v>759.7214730927639</v>
@@ -32806,13 +32806,13 @@
         <v>694.9967242426205</v>
       </c>
       <c r="P24" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.25758340862161</v>
@@ -33025,7 +33025,7 @@
         <v>100.5719078530531</v>
       </c>
       <c r="J27" t="n">
-        <v>130.8639524090775</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K27" t="n">
         <v>471.6886536848224</v>
@@ -33034,16 +33034,16 @@
         <v>634.2436048745725</v>
       </c>
       <c r="M27" t="n">
-        <v>740.1323715504302</v>
+        <v>466.4405777716651</v>
       </c>
       <c r="N27" t="n">
         <v>759.7214730927639</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P27" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33259,19 +33259,19 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J30" t="n">
         <v>275.9770021735818</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L30" t="n">
         <v>634.2436048745725</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>466.4405777716651</v>
       </c>
       <c r="N30" t="n">
         <v>759.7214730927639</v>
@@ -33280,13 +33280,13 @@
         <v>694.9967242426205</v>
       </c>
       <c r="P30" t="n">
-        <v>524.6044835051122</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.25758340862161</v>
@@ -33496,19 +33496,19 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J33" t="n">
         <v>275.9770021735818</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L33" t="n">
         <v>634.2436048745725</v>
       </c>
       <c r="M33" t="n">
-        <v>740.1323715504302</v>
+        <v>466.4405777716651</v>
       </c>
       <c r="N33" t="n">
         <v>759.7214730927639</v>
@@ -33517,7 +33517,7 @@
         <v>694.9967242426205</v>
       </c>
       <c r="P33" t="n">
-        <v>195.1793561990816</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33733,10 +33733,10 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K36" t="n">
         <v>471.6886536848224</v>
@@ -33745,10 +33745,10 @@
         <v>634.2436048745725</v>
       </c>
       <c r="M36" t="n">
-        <v>616.6294811316325</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N36" t="n">
-        <v>759.7214730927639</v>
+        <v>486.0296793139987</v>
       </c>
       <c r="O36" t="n">
         <v>694.9967242426205</v>
@@ -33970,10 +33970,10 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K39" t="n">
         <v>471.6886536848224</v>
@@ -33985,19 +33985,19 @@
         <v>740.1323715504302</v>
       </c>
       <c r="N39" t="n">
-        <v>729.1142921085204</v>
+        <v>486.0296793139987</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P39" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.25758340862161</v>
@@ -34207,13 +34207,13 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L42" t="n">
         <v>634.2436048745725</v>
@@ -34222,7 +34222,7 @@
         <v>740.1323715504302</v>
       </c>
       <c r="N42" t="n">
-        <v>759.7214730927639</v>
+        <v>486.0296793139987</v>
       </c>
       <c r="O42" t="n">
         <v>694.9967242426205</v>
@@ -34231,7 +34231,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>350.3260983776877</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34444,34 +34444,34 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J45" t="n">
         <v>275.9770021735818</v>
       </c>
       <c r="K45" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M45" t="n">
-        <v>539.3575949355013</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N45" t="n">
         <v>759.7214730927639</v>
       </c>
       <c r="O45" t="n">
-        <v>694.9967242426205</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>557.7961431982454</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>293.0329044522736</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S45" t="n">
         <v>54.25758340862161</v>
@@ -34786,16 +34786,16 @@
         <v>243.0338665604671</v>
       </c>
       <c r="M3" t="n">
-        <v>263.2420339516666</v>
+        <v>138.3956538464126</v>
       </c>
       <c r="N3" t="n">
         <v>263.2420339516666</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>263.0434990833253</v>
       </c>
       <c r="P3" t="n">
-        <v>138.1971189780713</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>115.8239578194294</v>
+        <v>115.8239578194291</v>
       </c>
       <c r="L5" t="n">
-        <v>196.4945358150183</v>
+        <v>196.494535815018</v>
       </c>
       <c r="M5" t="n">
-        <v>235.4123198945117</v>
+        <v>235.4123198945113</v>
       </c>
       <c r="N5" t="n">
-        <v>224.4417418455867</v>
+        <v>224.4417418455863</v>
       </c>
       <c r="O5" t="n">
-        <v>166.2898937894762</v>
+        <v>166.2898937894758</v>
       </c>
       <c r="P5" t="n">
-        <v>103.8696448668211</v>
+        <v>103.8696448668208</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>3.930118828988751</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>134.6170405889698</v>
       </c>
       <c r="L6" t="n">
-        <v>243.0338665604674</v>
+        <v>243.0338665604671</v>
       </c>
       <c r="M6" t="n">
-        <v>263.2420339516672</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="N6" t="n">
-        <v>263.2420339516672</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="O6" t="n">
-        <v>192.469833789015</v>
+        <v>138.1971189780713</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>76.41420694903826</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,19 +35099,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>33.75987543178763</v>
+        <v>33.75987543178749</v>
       </c>
       <c r="M7" t="n">
-        <v>46.0891188908294</v>
+        <v>46.08911889082924</v>
       </c>
       <c r="N7" t="n">
-        <v>50.48273419507669</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="O7" t="n">
-        <v>30.45089961919064</v>
+        <v>30.4508996191905</v>
       </c>
       <c r="P7" t="n">
-        <v>2.29774030202549</v>
+        <v>2.29774030202537</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>36.10224308182845</v>
+        <v>36.10224308182593</v>
       </c>
       <c r="K8" t="n">
-        <v>176.0723525736155</v>
+        <v>176.0723525736118</v>
       </c>
       <c r="L8" t="n">
-        <v>271.2379970350785</v>
+        <v>271.2379970350738</v>
       </c>
       <c r="M8" t="n">
-        <v>318.5788220249991</v>
+        <v>318.5788220249939</v>
       </c>
       <c r="N8" t="n">
-        <v>308.9539649284465</v>
+        <v>308.9539649284412</v>
       </c>
       <c r="O8" t="n">
-        <v>246.0923895621195</v>
+        <v>246.0923895621145</v>
       </c>
       <c r="P8" t="n">
-        <v>171.9792287127801</v>
+        <v>171.9792287127759</v>
       </c>
       <c r="Q8" t="n">
-        <v>51.14746097509821</v>
+        <v>51.14746097509499</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>27.87257220693415</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>175.5385069097451</v>
+        <v>132.8670067834647</v>
       </c>
       <c r="L9" t="n">
-        <v>298.0578280513539</v>
+        <v>298.0578280513504</v>
       </c>
       <c r="M9" t="n">
-        <v>5.189961636744437</v>
+        <v>399.0721465063757</v>
       </c>
       <c r="N9" t="n">
-        <v>399.0721465063843</v>
+        <v>399.0721465063757</v>
       </c>
       <c r="O9" t="n">
-        <v>323.3381125364338</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>242.3325254662695</v>
+        <v>242.3325254662665</v>
       </c>
       <c r="Q9" t="n">
-        <v>108.762805580101</v>
+        <v>108.762805580099</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>7.235667192370958</v>
+        <v>7.235667192369405</v>
       </c>
       <c r="L10" t="n">
-        <v>65.34647053297053</v>
+        <v>65.34647053296854</v>
       </c>
       <c r="M10" t="n">
-        <v>79.39275465759572</v>
+        <v>79.39275465759363</v>
       </c>
       <c r="N10" t="n">
-        <v>82.99448394059533</v>
+        <v>82.99448394059328</v>
       </c>
       <c r="O10" t="n">
-        <v>60.48076268835975</v>
+        <v>60.48076268835786</v>
       </c>
       <c r="P10" t="n">
-        <v>27.99347597685347</v>
+        <v>27.99347597685186</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607194</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380614</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L11" t="n">
-        <v>625.7775560664377</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M11" t="n">
-        <v>728.2874363020567</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N11" t="n">
-        <v>744.7323009263685</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O11" t="n">
-        <v>741.0722806161083</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P11" t="n">
-        <v>553.8443926134817</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.2547334404102</v>
+        <v>418.5673812695001</v>
       </c>
       <c r="R11" t="n">
-        <v>127.3573607845836</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K12" t="n">
-        <v>333.8472147104627</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L12" t="n">
-        <v>495.6892250946973</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094293</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O12" t="n">
-        <v>552.400479798175</v>
+        <v>278.7086860194109</v>
       </c>
       <c r="P12" t="n">
-        <v>423.8217357839143</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>50.67371142570462</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066024</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K13" t="n">
-        <v>262.2512393642053</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L13" t="n">
-        <v>391.6786041243774</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883422</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N13" t="n">
-        <v>418.8847129209155</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O13" t="n">
-        <v>370.7297545606353</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931354</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044795</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607194</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380614</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664377</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020567</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263685</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O14" t="n">
-        <v>741.0722806161083</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134817</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404102</v>
+        <v>418.5673812695001</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845836</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946973</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284106</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094293</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O15" t="n">
-        <v>106.0328925632587</v>
+        <v>278.7086860194109</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839143</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426731</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066024</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642053</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L16" t="n">
-        <v>391.6786041243774</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883422</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209155</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606353</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931354</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044795</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>282.3190661607194</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K17" t="n">
-        <v>525.6867728671627</v>
+        <v>525.686772867153</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7775560664377</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M17" t="n">
-        <v>728.2874363020567</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N17" t="n">
-        <v>744.7323009263685</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O17" t="n">
-        <v>689.759632787007</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P17" t="n">
-        <v>553.8443926134817</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.2547334404102</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R17" t="n">
-        <v>127.3573607845836</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.04952785305295</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
-        <v>495.6892250946973</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M18" t="n">
-        <v>597.9983376284106</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094293</v>
+        <v>354.6879672306654</v>
       </c>
       <c r="O18" t="n">
-        <v>337.873540452879</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P18" t="n">
-        <v>423.8217357839143</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211066024</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K19" t="n">
-        <v>262.2512393642053</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L19" t="n">
-        <v>391.6786041243774</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M19" t="n">
-        <v>423.4642343883422</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N19" t="n">
-        <v>418.8847129209155</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O19" t="n">
-        <v>370.7297545606353</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P19" t="n">
-        <v>293.4650856931354</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.9021551044795</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,7 +36126,7 @@
         <v>474.3741250380626</v>
       </c>
       <c r="L20" t="n">
-        <v>677.0902038955306</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M20" t="n">
         <v>728.2874363020583</v>
@@ -36144,7 +36144,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R20" t="n">
-        <v>127.3573607845842</v>
+        <v>178.6700086136732</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K21" t="n">
         <v>333.8472147104634</v>
@@ -36208,19 +36208,19 @@
         <v>495.6892250946983</v>
       </c>
       <c r="M21" t="n">
-        <v>597.9983376284119</v>
+        <v>324.3065438496467</v>
       </c>
       <c r="N21" t="n">
         <v>628.3797610094306</v>
       </c>
       <c r="O21" t="n">
-        <v>196.0074136367048</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36378,10 +36378,10 @@
         <v>553.844392613483</v>
       </c>
       <c r="Q23" t="n">
-        <v>418.567381269501</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R23" t="n">
-        <v>127.3573607845842</v>
+        <v>178.6700086136732</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J24" t="n">
         <v>149.1393755069151</v>
@@ -36442,10 +36442,10 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L24" t="n">
-        <v>361.5405264337757</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>324.3065438496467</v>
       </c>
       <c r="N24" t="n">
         <v>628.3797610094306</v>
@@ -36454,13 +36454,13 @@
         <v>552.4004797981761</v>
       </c>
       <c r="P24" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>282.3190661607202</v>
       </c>
       <c r="K26" t="n">
-        <v>525.686772867153</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L26" t="n">
         <v>625.7775560664393</v>
       </c>
       <c r="M26" t="n">
-        <v>728.2874363020583</v>
+        <v>779.6000841311486</v>
       </c>
       <c r="N26" t="n">
         <v>744.73230092637</v>
@@ -36673,7 +36673,7 @@
         <v>1.049527853053121</v>
       </c>
       <c r="J27" t="n">
-        <v>4.02632574241084</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K27" t="n">
         <v>333.8472147104634</v>
@@ -36682,16 +36682,16 @@
         <v>495.6892250946983</v>
       </c>
       <c r="M27" t="n">
-        <v>597.9983376284119</v>
+        <v>324.3065438496467</v>
       </c>
       <c r="N27" t="n">
         <v>628.3797610094306</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P27" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36843,7 +36843,7 @@
         <v>728.2874363020583</v>
       </c>
       <c r="N29" t="n">
-        <v>796.0449487554599</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O29" t="n">
         <v>689.7596327870085</v>
@@ -36855,7 +36855,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R29" t="n">
-        <v>127.3573607845842</v>
+        <v>178.6700086136732</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,19 +36907,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J30" t="n">
         <v>149.1393755069151</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L30" t="n">
         <v>495.6892250946983</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>324.3065438496467</v>
       </c>
       <c r="N30" t="n">
         <v>628.3797610094306</v>
@@ -36928,13 +36928,13 @@
         <v>552.4004797981761</v>
       </c>
       <c r="P30" t="n">
-        <v>390.6300760907819</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>282.3190661607202</v>
       </c>
       <c r="K32" t="n">
-        <v>474.3741250380626</v>
+        <v>525.6867728671548</v>
       </c>
       <c r="L32" t="n">
         <v>625.7775560664393</v>
@@ -37089,7 +37089,7 @@
         <v>553.844392613483</v>
       </c>
       <c r="Q32" t="n">
-        <v>418.5673812695001</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R32" t="n">
         <v>127.3573607845842</v>
@@ -37144,19 +37144,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J33" t="n">
         <v>149.1393755069151</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L33" t="n">
         <v>495.6892250946983</v>
       </c>
       <c r="M33" t="n">
-        <v>597.9983376284119</v>
+        <v>324.3065438496467</v>
       </c>
       <c r="N33" t="n">
         <v>628.3797610094306</v>
@@ -37165,7 +37165,7 @@
         <v>552.4004797981761</v>
       </c>
       <c r="P33" t="n">
-        <v>61.20494878475137</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>333.6317139898116</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K35" t="n">
         <v>474.3741250380626</v>
@@ -37317,7 +37317,7 @@
         <v>728.2874363020583</v>
       </c>
       <c r="N35" t="n">
-        <v>744.73230092637</v>
+        <v>796.0449487554599</v>
       </c>
       <c r="O35" t="n">
         <v>689.7596327870085</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K36" t="n">
         <v>333.8472147104634</v>
@@ -37393,10 +37393,10 @@
         <v>495.6892250946983</v>
       </c>
       <c r="M36" t="n">
-        <v>474.4954472096142</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N36" t="n">
-        <v>628.3797610094306</v>
+        <v>354.6879672306654</v>
       </c>
       <c r="O36" t="n">
         <v>552.4004797981761</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>333.6317139898116</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K38" t="n">
         <v>474.3741250380626</v>
@@ -37566,7 +37566,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R38" t="n">
-        <v>127.3573607845842</v>
+        <v>178.6700086136732</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K39" t="n">
         <v>333.8472147104634</v>
@@ -37633,19 +37633,19 @@
         <v>597.9983376284119</v>
       </c>
       <c r="N39" t="n">
-        <v>597.7725800251872</v>
+        <v>354.6879672306654</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P39" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>333.6317139898116</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K41" t="n">
         <v>474.3741250380626</v>
@@ -37800,7 +37800,7 @@
         <v>553.844392613483</v>
       </c>
       <c r="Q41" t="n">
-        <v>367.2547334404112</v>
+        <v>418.5673812695001</v>
       </c>
       <c r="R41" t="n">
         <v>127.3573607845842</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L42" t="n">
         <v>495.6892250946983</v>
@@ -37870,7 +37870,7 @@
         <v>597.9983376284119</v>
       </c>
       <c r="N42" t="n">
-        <v>628.3797610094306</v>
+        <v>354.6879672306654</v>
       </c>
       <c r="O42" t="n">
         <v>552.4004797981761</v>
@@ -37879,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.3443242916662</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>282.3190661607202</v>
       </c>
       <c r="K44" t="n">
-        <v>525.6867728671539</v>
+        <v>525.686772867153</v>
       </c>
       <c r="L44" t="n">
         <v>625.7775560664393</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J45" t="n">
         <v>149.1393755069151</v>
       </c>
       <c r="K45" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M45" t="n">
-        <v>397.2235610134829</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N45" t="n">
         <v>628.3797610094306</v>
       </c>
       <c r="O45" t="n">
-        <v>552.4004797981761</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>423.8217357839152</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>153.051130366252</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_10_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_10_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2789286.066246959</v>
+        <v>2791105.337938001</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>430763.7823717231</v>
+        <v>430763.7823717227</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>246.2313899710005</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -679,10 +679,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>206.9091621893709</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.097100052852153</v>
+        <v>4.097100052852073</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>144.0576027644701</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>206.9118586999128</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3382516189322</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>186.1894428885466</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.604488887060254</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>170.7637213332854</v>
+        <v>131.3559228367315</v>
       </c>
       <c r="T3" t="n">
         <v>199.9652070090748</v>
@@ -800,13 +800,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -822,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>13.40110646040606</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>159.8350691069749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -904,13 +904,13 @@
         <v>263.2420339516666</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="G5" t="n">
-        <v>66.43353500765301</v>
+        <v>15.21022140383137</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>4.097100052852178</v>
+        <v>4.097100052852153</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>5.64440334803171</v>
       </c>
       <c r="S5" t="n">
         <v>206.9118586999128</v>
       </c>
       <c r="T5" t="n">
-        <v>222.6908602868995</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3382516189322</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>81.03803000133004</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>87.69233988828964</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>171.5751609241006</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>159.8350691069749</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>11.21959608876246</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>14.736584465029</v>
+        <v>14.73658446502901</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>94.1442894331316</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>33.72063333650896</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1220,10 +1220,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1268,10 +1268,10 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>166.081186667987</v>
       </c>
       <c r="V9" t="n">
-        <v>96.16748096863488</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1296,16 +1296,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>21.95765138567718</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>25.15207638095597</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081882</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T11" t="n">
         <v>199.1970568374742</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>64.44601915223835</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>12.99855402706491</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S13" t="n">
         <v>181.338488358459</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127566</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H14" t="n">
         <v>283.5630920045443</v>
@@ -1663,7 +1663,7 @@
         <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9088959876463</v>
+        <v>250.908895987647</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1767,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>11.29378580560386</v>
       </c>
       <c r="E16" t="n">
-        <v>83.07736723265378</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
@@ -2013,13 +2013,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>116.2771247230826</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>67.18075159108355</v>
       </c>
       <c r="S19" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U19" t="n">
-        <v>56.22999555758326</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2098,7 +2098,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H20" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045434</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2256,7 +2256,7 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>64.44601915223836</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.338488358459</v>
+        <v>172.5112693098274</v>
       </c>
       <c r="T22" t="n">
         <v>217.4819944627618</v>
@@ -2377,7 +2377,7 @@
         <v>250.9088959876463</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>76.61502530558701</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.338488358459</v>
       </c>
       <c r="T25" t="n">
-        <v>141.4740238230462</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U25" t="n">
         <v>286.1854515484204</v>
@@ -2608,10 +2608,10 @@
         <v>84.61259060081962</v>
       </c>
       <c r="T26" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374736</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9088959876461</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>38.23508833617446</v>
+        <v>86.27179222793497</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S28" t="n">
         <v>181.338488358459</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081882</v>
       </c>
       <c r="T29" t="n">
         <v>199.1970568374742</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9088959876461</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,13 +2955,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>85.258877604297</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>4.83707080080631</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5420528771669</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.338488358459</v>
@@ -3082,10 +3082,10 @@
         <v>84.61259060081962</v>
       </c>
       <c r="T32" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374736</v>
       </c>
       <c r="U32" t="n">
-        <v>250.908895987647</v>
+        <v>250.9088959876461</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>153.4525438190187</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>64.44601915223832</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5420528771669</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.338488358459</v>
@@ -3283,7 +3283,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H35" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045451</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.61259060081882</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T35" t="n">
         <v>199.1970568374742</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9088959876461</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>109.9843174036494</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3441,7 +3441,7 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H37" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.338488358459</v>
@@ -3483,13 +3483,13 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>96.69792262658369</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.61259060081882</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T38" t="n">
         <v>199.1970568374742</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9088959876479</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>34.9650244390951</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>89.5340822374514</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H40" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1854515484204</v>
@@ -3748,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>42.51029296932874</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>64.44601915223836</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.338488358459</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8432760127566</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H44" t="n">
         <v>283.5630920045443</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>48.65284241173728</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4146,7 +4146,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5420528771669</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4819944627618</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>126.5514222678061</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>256.5063620977151</v>
+        <v>828.0278728906073</v>
       </c>
       <c r="C2" t="n">
-        <v>256.5063620977151</v>
+        <v>579.309297162324</v>
       </c>
       <c r="D2" t="n">
-        <v>256.5063620977151</v>
+        <v>313.4082527667009</v>
       </c>
       <c r="E2" t="n">
-        <v>256.5063620977151</v>
+        <v>47.50720837107768</v>
       </c>
       <c r="F2" t="n">
-        <v>249.5608613485116</v>
+        <v>40.56170762187421</v>
       </c>
       <c r="G2" t="n">
-        <v>234.1970013446415</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="H2" t="n">
-        <v>234.1970013446415</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="I2" t="n">
-        <v>25.19784761800419</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="J2" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K2" t="n">
-        <v>135.7250809573682</v>
+        <v>135.7250809573683</v>
       </c>
       <c r="L2" t="n">
-        <v>330.2546714142361</v>
+        <v>330.2546714142364</v>
       </c>
       <c r="M2" t="n">
-        <v>563.3128681098024</v>
+        <v>563.3128681098028</v>
       </c>
       <c r="N2" t="n">
-        <v>785.5101925369329</v>
+        <v>785.5101925369336</v>
       </c>
       <c r="O2" t="n">
-        <v>950.137187388514</v>
+        <v>950.1371873885148</v>
       </c>
       <c r="P2" t="n">
-        <v>1052.968135806667</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Q2" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R2" t="n">
-        <v>907.4554057415451</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="S2" t="n">
-        <v>698.4535282668857</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="T2" t="n">
-        <v>698.4535282668857</v>
+        <v>828.0278728906073</v>
       </c>
       <c r="U2" t="n">
-        <v>444.5765064295804</v>
+        <v>828.0278728906073</v>
       </c>
       <c r="V2" t="n">
-        <v>444.5765064295804</v>
+        <v>828.0278728906073</v>
       </c>
       <c r="W2" t="n">
-        <v>256.5063620977151</v>
+        <v>828.0278728906073</v>
       </c>
       <c r="X2" t="n">
-        <v>256.5063620977151</v>
+        <v>828.0278728906073</v>
       </c>
       <c r="Y2" t="n">
-        <v>256.5063620977151</v>
+        <v>828.0278728906073</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="C3" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="D3" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="E3" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="F3" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="G3" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H3" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I3" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J3" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K3" t="n">
-        <v>154.3302328992135</v>
+        <v>154.3302328992136</v>
       </c>
       <c r="L3" t="n">
-        <v>394.933760794076</v>
+        <v>339.9440834239264</v>
       </c>
       <c r="M3" t="n">
-        <v>531.9454581020244</v>
+        <v>339.9440834239264</v>
       </c>
       <c r="N3" t="n">
-        <v>792.5550717141743</v>
+        <v>600.5536970360766</v>
       </c>
       <c r="O3" t="n">
-        <v>1052.968135806666</v>
+        <v>860.9667611285688</v>
       </c>
       <c r="P3" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Q3" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R3" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="S3" t="n">
-        <v>880.4795283993074</v>
+        <v>920.2853854665346</v>
       </c>
       <c r="T3" t="n">
-        <v>678.4944708143832</v>
+        <v>718.3003278816105</v>
       </c>
       <c r="U3" t="n">
-        <v>678.4944708143832</v>
+        <v>718.3003278816105</v>
       </c>
       <c r="V3" t="n">
-        <v>443.3423625826405</v>
+        <v>483.1482196498678</v>
       </c>
       <c r="W3" t="n">
-        <v>443.3423625826405</v>
+        <v>228.9108629216662</v>
       </c>
       <c r="X3" t="n">
-        <v>235.4908623771077</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="Y3" t="n">
-        <v>27.73056361215379</v>
+        <v>21.05936271613335</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="C4" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="D4" t="n">
-        <v>21.05936271613333</v>
+        <v>168.9724562985265</v>
       </c>
       <c r="E4" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="F4" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="G4" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H4" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I4" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J4" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K4" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="L4" t="n">
-        <v>54.48163939360296</v>
+        <v>54.48163939360305</v>
       </c>
       <c r="M4" t="n">
-        <v>100.1098670955239</v>
+        <v>100.1098670955241</v>
       </c>
       <c r="N4" t="n">
-        <v>150.0877739486497</v>
+        <v>150.08777394865</v>
       </c>
       <c r="O4" t="n">
-        <v>180.2341645716483</v>
+        <v>180.2341645716486</v>
       </c>
       <c r="P4" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="Q4" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="R4" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="S4" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="T4" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="U4" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="V4" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="W4" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="X4" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706538</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>365.1489735786416</v>
+        <v>838.2648408087427</v>
       </c>
       <c r="C5" t="n">
-        <v>365.1489735786416</v>
+        <v>838.2648408087427</v>
       </c>
       <c r="D5" t="n">
-        <v>99.24792918301881</v>
+        <v>572.3637964131199</v>
       </c>
       <c r="E5" t="n">
-        <v>99.24792918301881</v>
+        <v>306.4627520174971</v>
       </c>
       <c r="F5" t="n">
-        <v>92.30242843381534</v>
+        <v>40.56170762187426</v>
       </c>
       <c r="G5" t="n">
-        <v>25.19784761800422</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="H5" t="n">
-        <v>25.19784761800422</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="I5" t="n">
-        <v>25.19784761800422</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="J5" t="n">
         <v>21.05936271613333</v>
       </c>
       <c r="K5" t="n">
-        <v>135.7250809573683</v>
+        <v>135.7250809573682</v>
       </c>
       <c r="L5" t="n">
-        <v>330.2546714142362</v>
+        <v>330.2546714142361</v>
       </c>
       <c r="M5" t="n">
         <v>563.3128681098024</v>
       </c>
       <c r="N5" t="n">
-        <v>785.5101925369328</v>
+        <v>785.5101925369329</v>
       </c>
       <c r="O5" t="n">
-        <v>950.1371873885138</v>
+        <v>950.137187388514</v>
       </c>
       <c r="P5" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="Q5" t="n">
         <v>1052.968135806666</v>
       </c>
       <c r="R5" t="n">
-        <v>1052.968135806666</v>
+        <v>1047.266718283402</v>
       </c>
       <c r="S5" t="n">
-        <v>843.966258332007</v>
+        <v>838.2648408087427</v>
       </c>
       <c r="T5" t="n">
-        <v>619.0259954159469</v>
+        <v>838.2648408087427</v>
       </c>
       <c r="U5" t="n">
-        <v>365.1489735786416</v>
+        <v>838.2648408087427</v>
       </c>
       <c r="V5" t="n">
-        <v>365.1489735786416</v>
+        <v>838.2648408087427</v>
       </c>
       <c r="W5" t="n">
-        <v>365.1489735786416</v>
+        <v>838.2648408087427</v>
       </c>
       <c r="X5" t="n">
-        <v>365.1489735786416</v>
+        <v>838.2648408087427</v>
       </c>
       <c r="Y5" t="n">
-        <v>365.1489735786416</v>
+        <v>838.2648408087427</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>589.5956988171286</v>
+        <v>503.6842566639671</v>
       </c>
       <c r="C6" t="n">
-        <v>589.5956988171286</v>
+        <v>329.2312273828401</v>
       </c>
       <c r="D6" t="n">
-        <v>589.5956988171286</v>
+        <v>180.2968177215888</v>
       </c>
       <c r="E6" t="n">
-        <v>507.7391028561891</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F6" t="n">
-        <v>361.204544883074</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G6" t="n">
-        <v>222.5237199540885</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H6" t="n">
-        <v>109.6374838154158</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I6" t="n">
         <v>21.05936271613333</v>
       </c>
       <c r="J6" t="n">
-        <v>21.05936271613333</v>
+        <v>24.9501803568321</v>
       </c>
       <c r="K6" t="n">
-        <v>154.3302328992135</v>
+        <v>158.2210505399123</v>
       </c>
       <c r="L6" t="n">
-        <v>394.9337607940759</v>
+        <v>398.8245784347747</v>
       </c>
       <c r="M6" t="n">
-        <v>655.5433744062259</v>
+        <v>524.903632156528</v>
       </c>
       <c r="N6" t="n">
-        <v>916.1529880183758</v>
+        <v>524.903632156528</v>
       </c>
       <c r="O6" t="n">
-        <v>1052.968135806666</v>
+        <v>785.3166962490201</v>
       </c>
       <c r="P6" t="n">
-        <v>1052.968135806666</v>
+        <v>977.3180709271187</v>
       </c>
       <c r="Q6" t="n">
         <v>1052.968135806666</v>
@@ -4679,19 +4679,19 @@
         <v>1052.968135806666</v>
       </c>
       <c r="U6" t="n">
-        <v>824.7478070488712</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="V6" t="n">
-        <v>589.5956988171286</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="W6" t="n">
-        <v>589.5956988171286</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="X6" t="n">
-        <v>589.5956988171286</v>
+        <v>879.659892448989</v>
       </c>
       <c r="Y6" t="n">
-        <v>589.5956988171286</v>
+        <v>671.8995936840352</v>
       </c>
     </row>
     <row r="7">
@@ -4701,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>182.5089274706534</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="C7" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D7" t="n">
-        <v>32.39228805831763</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E7" t="n">
-        <v>32.39228805831763</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F7" t="n">
-        <v>32.39228805831763</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G7" t="n">
-        <v>32.39228805831763</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H7" t="n">
-        <v>32.39228805831763</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I7" t="n">
-        <v>32.39228805831763</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J7" t="n">
-        <v>32.39228805831763</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K7" t="n">
         <v>21.05936271613333</v>
       </c>
       <c r="L7" t="n">
-        <v>54.48163939360295</v>
+        <v>54.48163939360296</v>
       </c>
       <c r="M7" t="n">
         <v>100.1098670955239</v>
@@ -4743,34 +4743,34 @@
         <v>180.2341645716483</v>
       </c>
       <c r="P7" t="n">
-        <v>182.5089274706534</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="Q7" t="n">
-        <v>182.5089274706534</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="R7" t="n">
-        <v>182.5089274706534</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="S7" t="n">
-        <v>182.5089274706534</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="T7" t="n">
-        <v>182.5089274706534</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="U7" t="n">
-        <v>182.5089274706534</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="V7" t="n">
-        <v>182.5089274706534</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="W7" t="n">
-        <v>182.5089274706534</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="X7" t="n">
-        <v>182.5089274706534</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="Y7" t="n">
-        <v>182.5089274706534</v>
+        <v>182.5089274706535</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53.75671132327818</v>
+        <v>412.0224099300285</v>
       </c>
       <c r="C8" t="n">
-        <v>53.75671132327818</v>
+        <v>412.0224099300285</v>
       </c>
       <c r="D8" t="n">
-        <v>53.75671132327818</v>
+        <v>53.75671132327804</v>
       </c>
       <c r="E8" t="n">
-        <v>53.75671132327818</v>
+        <v>53.75671132327804</v>
       </c>
       <c r="F8" t="n">
-        <v>46.81121057407471</v>
+        <v>46.81121057407456</v>
       </c>
       <c r="G8" t="n">
-        <v>31.92577172051006</v>
+        <v>31.92577172050991</v>
       </c>
       <c r="H8" t="n">
-        <v>31.92577172051006</v>
+        <v>31.92577172050991</v>
       </c>
       <c r="I8" t="n">
-        <v>31.92577172051006</v>
+        <v>31.92577172050991</v>
       </c>
       <c r="J8" t="n">
-        <v>67.66699237151772</v>
+        <v>67.66699237151704</v>
       </c>
       <c r="K8" t="n">
-        <v>241.9786214193932</v>
+        <v>241.9786214193919</v>
       </c>
       <c r="L8" t="n">
-        <v>510.5042384841163</v>
+        <v>510.504238484114</v>
       </c>
       <c r="M8" t="n">
-        <v>825.8972722888602</v>
+        <v>825.8972722888567</v>
       </c>
       <c r="N8" t="n">
-        <v>1131.761697568017</v>
+        <v>1131.761697568012</v>
       </c>
       <c r="O8" t="n">
-        <v>1375.393163234511</v>
+        <v>1375.393163234505</v>
       </c>
       <c r="P8" t="n">
-        <v>1545.652599660159</v>
+        <v>1545.652599660152</v>
       </c>
       <c r="Q8" t="n">
-        <v>1596.288586025503</v>
+        <v>1596.288586025495</v>
       </c>
       <c r="R8" t="n">
-        <v>1501.193344173855</v>
+        <v>1596.288586025495</v>
       </c>
       <c r="S8" t="n">
-        <v>1501.193344173855</v>
+        <v>1562.227340231042</v>
       </c>
       <c r="T8" t="n">
-        <v>1501.193344173855</v>
+        <v>1562.227340231042</v>
       </c>
       <c r="U8" t="n">
-        <v>1501.193344173855</v>
+        <v>1562.227340231042</v>
       </c>
       <c r="V8" t="n">
-        <v>1170.130456830284</v>
+        <v>1562.227340231042</v>
       </c>
       <c r="W8" t="n">
-        <v>817.3618015601699</v>
+        <v>1562.227340231042</v>
       </c>
       <c r="X8" t="n">
-        <v>443.8960432990899</v>
+        <v>1188.761581969962</v>
       </c>
       <c r="Y8" t="n">
-        <v>53.75671132327818</v>
+        <v>798.6222499941503</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>661.0852236414588</v>
+        <v>355.3132106628882</v>
       </c>
       <c r="C9" t="n">
-        <v>486.6321943603318</v>
+        <v>180.8601813817612</v>
       </c>
       <c r="D9" t="n">
-        <v>337.6977846990806</v>
+        <v>31.92577172050991</v>
       </c>
       <c r="E9" t="n">
-        <v>178.4603296936251</v>
+        <v>31.92577172050991</v>
       </c>
       <c r="F9" t="n">
-        <v>31.92577172051006</v>
+        <v>31.92577172050991</v>
       </c>
       <c r="G9" t="n">
-        <v>31.92577172051006</v>
+        <v>31.92577172050991</v>
       </c>
       <c r="H9" t="n">
-        <v>31.92577172051006</v>
+        <v>31.92577172050991</v>
       </c>
       <c r="I9" t="n">
-        <v>31.92577172051006</v>
+        <v>31.92577172050991</v>
       </c>
       <c r="J9" t="n">
-        <v>31.92577172051006</v>
+        <v>59.51961820537291</v>
       </c>
       <c r="K9" t="n">
-        <v>163.4641084361401</v>
+        <v>233.3027400460174</v>
       </c>
       <c r="L9" t="n">
-        <v>458.5413582069771</v>
+        <v>528.3799898168536</v>
       </c>
       <c r="M9" t="n">
-        <v>853.622783248289</v>
+        <v>533.5180518372197</v>
       </c>
       <c r="N9" t="n">
-        <v>1248.704208289601</v>
+        <v>928.5994768785297</v>
       </c>
       <c r="O9" t="n">
-        <v>1248.704208289601</v>
+        <v>1248.704208289595</v>
       </c>
       <c r="P9" t="n">
-        <v>1488.613408501205</v>
+        <v>1488.613408501198</v>
       </c>
       <c r="Q9" t="n">
-        <v>1596.288586025503</v>
+        <v>1596.288586025495</v>
       </c>
       <c r="R9" t="n">
-        <v>1596.288586025503</v>
+        <v>1596.288586025495</v>
       </c>
       <c r="S9" t="n">
-        <v>1596.288586025503</v>
+        <v>1596.288586025495</v>
       </c>
       <c r="T9" t="n">
-        <v>1596.288586025503</v>
+        <v>1596.288586025495</v>
       </c>
       <c r="U9" t="n">
-        <v>1596.288586025503</v>
+        <v>1428.529811613387</v>
       </c>
       <c r="V9" t="n">
-        <v>1499.149716360215</v>
+        <v>1193.377703381645</v>
       </c>
       <c r="W9" t="n">
-        <v>1244.912359632013</v>
+        <v>939.140346653443</v>
       </c>
       <c r="X9" t="n">
-        <v>1037.060859426481</v>
+        <v>731.2888464479101</v>
       </c>
       <c r="Y9" t="n">
-        <v>829.3005606615268</v>
+        <v>523.5285476829563</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>352.1349505593573</v>
+        <v>352.1349505593548</v>
       </c>
       <c r="C10" t="n">
-        <v>352.1349505593573</v>
+        <v>352.1349505593548</v>
       </c>
       <c r="D10" t="n">
-        <v>202.0183111470215</v>
+        <v>352.1349505593548</v>
       </c>
       <c r="E10" t="n">
-        <v>54.10521756462842</v>
+        <v>204.2218569769616</v>
       </c>
       <c r="F10" t="n">
-        <v>31.92577172051006</v>
+        <v>57.33190947905129</v>
       </c>
       <c r="G10" t="n">
-        <v>31.92577172051006</v>
+        <v>31.92577172050991</v>
       </c>
       <c r="H10" t="n">
-        <v>31.92577172051006</v>
+        <v>31.92577172050991</v>
       </c>
       <c r="I10" t="n">
-        <v>31.92577172051006</v>
+        <v>31.92577172050991</v>
       </c>
       <c r="J10" t="n">
-        <v>31.92577172051006</v>
+        <v>31.92577172050991</v>
       </c>
       <c r="K10" t="n">
-        <v>39.08908224095577</v>
+        <v>39.08908224095529</v>
       </c>
       <c r="L10" t="n">
-        <v>103.7820880685946</v>
+        <v>103.7820880685937</v>
       </c>
       <c r="M10" t="n">
-        <v>182.3809151796123</v>
+        <v>182.380915179611</v>
       </c>
       <c r="N10" t="n">
-        <v>264.5454542807997</v>
+        <v>264.5454542807979</v>
       </c>
       <c r="O10" t="n">
-        <v>324.4214093422739</v>
+        <v>324.4214093422718</v>
       </c>
       <c r="P10" t="n">
-        <v>352.1349505593573</v>
+        <v>352.1349505593548</v>
       </c>
       <c r="Q10" t="n">
-        <v>352.1349505593573</v>
+        <v>352.1349505593548</v>
       </c>
       <c r="R10" t="n">
-        <v>352.1349505593573</v>
+        <v>352.1349505593548</v>
       </c>
       <c r="S10" t="n">
-        <v>352.1349505593573</v>
+        <v>352.1349505593548</v>
       </c>
       <c r="T10" t="n">
-        <v>352.1349505593573</v>
+        <v>352.1349505593548</v>
       </c>
       <c r="U10" t="n">
-        <v>352.1349505593573</v>
+        <v>352.1349505593548</v>
       </c>
       <c r="V10" t="n">
-        <v>352.1349505593573</v>
+        <v>352.1349505593548</v>
       </c>
       <c r="W10" t="n">
-        <v>352.1349505593573</v>
+        <v>352.1349505593548</v>
       </c>
       <c r="X10" t="n">
-        <v>352.1349505593573</v>
+        <v>352.1349505593548</v>
       </c>
       <c r="Y10" t="n">
-        <v>352.1349505593573</v>
+        <v>352.1349505593548</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C11" t="n">
         <v>1949.298676890959</v>
@@ -5029,43 +5029,43 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F11" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G11" t="n">
-        <v>380.2757138127629</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H11" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I11" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J11" t="n">
-        <v>373.34422365072</v>
+        <v>424.1437450015205</v>
       </c>
       <c r="K11" t="n">
-        <v>842.974607438402</v>
+        <v>893.7741287892025</v>
       </c>
       <c r="L11" t="n">
-        <v>1462.494387944177</v>
+        <v>1513.293909294977</v>
       </c>
       <c r="M11" t="n">
-        <v>2183.498949883215</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N11" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O11" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P11" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q11" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R11" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S11" t="n">
         <v>4606.950144347201</v>
@@ -5077,7 +5077,7 @@
         <v>4152.297666746069</v>
       </c>
       <c r="V11" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W11" t="n">
         <v>3468.466124132384</v>
@@ -5086,7 +5086,7 @@
         <v>3095.000365871304</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="12">
@@ -5114,25 +5114,25 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H12" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I12" t="n">
-        <v>94.88738072612962</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J12" t="n">
-        <v>242.5353624779756</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K12" t="n">
-        <v>573.0441050413344</v>
+        <v>572.0050724668118</v>
       </c>
       <c r="L12" t="n">
-        <v>1063.776437885086</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M12" t="n">
-        <v>1655.794792137213</v>
+        <v>1384.839916296236</v>
       </c>
       <c r="N12" t="n">
-        <v>2277.890755536549</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O12" t="n">
         <v>2553.812354695766</v>
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>549.8252074365081</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C13" t="n">
-        <v>549.8252074365081</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D13" t="n">
-        <v>549.8252074365081</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E13" t="n">
-        <v>549.8252074365081</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="F13" t="n">
-        <v>402.9352599385978</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="G13" t="n">
-        <v>235.7210651131766</v>
+        <v>158.945337194272</v>
       </c>
       <c r="H13" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I13" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J13" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K13" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L13" t="n">
         <v>820.2210160948589</v>
@@ -5223,28 +5223,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R13" t="n">
-        <v>2416.282646783104</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S13" t="n">
-        <v>2233.112456522034</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T13" t="n">
-        <v>2013.433674236416</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U13" t="n">
-        <v>1724.357460551143</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V13" t="n">
-        <v>1469.672972345256</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W13" t="n">
-        <v>1180.255802308295</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X13" t="n">
-        <v>952.266251410278</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y13" t="n">
-        <v>731.4736722667478</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C14" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D14" t="n">
-        <v>1591.032978284207</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E14" t="n">
-        <v>1205.244725685963</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F14" t="n">
-        <v>794.2588208963555</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G14" t="n">
-        <v>380.2757138127629</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H14" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I14" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J14" t="n">
-        <v>373.34422365072</v>
+        <v>424.1437450015205</v>
       </c>
       <c r="K14" t="n">
-        <v>842.974607438402</v>
+        <v>893.7741287892025</v>
       </c>
       <c r="L14" t="n">
-        <v>1462.494387944177</v>
+        <v>1513.293909294977</v>
       </c>
       <c r="M14" t="n">
-        <v>2183.498949883215</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N14" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O14" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P14" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q14" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R14" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347202</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.740996026519</v>
+        <v>4405.74099602652</v>
       </c>
       <c r="U14" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V14" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W14" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X14" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="15">
@@ -5351,25 +5351,25 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H15" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I15" t="n">
-        <v>94.88738072612962</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J15" t="n">
-        <v>242.5353624779756</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K15" t="n">
-        <v>573.0441050413344</v>
+        <v>572.0050724668118</v>
       </c>
       <c r="L15" t="n">
-        <v>1063.776437885086</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M15" t="n">
-        <v>1655.794792137213</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N15" t="n">
-        <v>2277.890755536549</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O15" t="n">
         <v>2553.812354695766</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>495.0957149476001</v>
+        <v>562.9550599890988</v>
       </c>
       <c r="C16" t="n">
-        <v>495.0957149476001</v>
+        <v>394.0188770611919</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9790755352643</v>
+        <v>382.611012611087</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0625429770282</v>
+        <v>382.611012611087</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0625429770282</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="G16" t="n">
-        <v>93.84834815160703</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H16" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I16" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J16" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K16" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L16" t="n">
         <v>820.2210160948589</v>
@@ -5460,28 +5460,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R16" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S16" t="n">
-        <v>2178.382964033126</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T16" t="n">
-        <v>1958.704181747508</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U16" t="n">
-        <v>1669.627968062235</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V16" t="n">
-        <v>1414.943479856348</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W16" t="n">
-        <v>1125.526309819387</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X16" t="n">
-        <v>897.5367589213699</v>
+        <v>965.3961039628687</v>
       </c>
       <c r="Y16" t="n">
-        <v>676.7441797778398</v>
+        <v>744.6035248193385</v>
       </c>
     </row>
     <row r="17">
@@ -5500,13 +5500,13 @@
         <v>1591.032978284208</v>
       </c>
       <c r="E17" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F17" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963557</v>
       </c>
       <c r="G17" t="n">
-        <v>380.2757138127623</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H17" t="n">
         <v>93.84834815160703</v>
@@ -5518,22 +5518,22 @@
         <v>373.34422365072</v>
       </c>
       <c r="K17" t="n">
-        <v>893.7741287892015</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L17" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M17" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N17" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O17" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P17" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q17" t="n">
         <v>4566.333620403613</v>
@@ -5591,31 +5591,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I18" t="n">
-        <v>94.88738072612962</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J18" t="n">
-        <v>242.5353624779756</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K18" t="n">
-        <v>573.0441050413344</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L18" t="n">
-        <v>1063.776437885086</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M18" t="n">
-        <v>1655.794792137213</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="N18" t="n">
-        <v>2006.935879695572</v>
+        <v>1684.833368709899</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.812354695766</v>
+        <v>2231.709843710094</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R18" t="n">
         <v>2553.812354695766</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.791123359144</v>
+        <v>678.2659052086697</v>
       </c>
       <c r="C19" t="n">
-        <v>847.854940431237</v>
+        <v>509.3297222807628</v>
       </c>
       <c r="D19" t="n">
-        <v>697.7383010189012</v>
+        <v>359.213082868427</v>
       </c>
       <c r="E19" t="n">
-        <v>549.8252074365081</v>
+        <v>211.2999892860339</v>
       </c>
       <c r="F19" t="n">
-        <v>402.9352599385978</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G19" t="n">
-        <v>235.7210651131766</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H19" t="n">
         <v>93.84834815160703</v>
@@ -5700,25 +5700,25 @@
         <v>2361.553154294196</v>
       </c>
       <c r="S19" t="n">
-        <v>2178.382964033126</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="T19" t="n">
-        <v>1958.704181747508</v>
+        <v>2141.874372008578</v>
       </c>
       <c r="U19" t="n">
-        <v>1901.906206436818</v>
+        <v>1852.798158323305</v>
       </c>
       <c r="V19" t="n">
-        <v>1647.221718230931</v>
+        <v>1598.113670117418</v>
       </c>
       <c r="W19" t="n">
-        <v>1647.221718230931</v>
+        <v>1308.696500080457</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.232167332914</v>
+        <v>1080.70694918244</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.439588189384</v>
+        <v>859.9143700389094</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C20" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D20" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E20" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F20" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963555</v>
       </c>
       <c r="G20" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127619</v>
       </c>
       <c r="H20" t="n">
         <v>93.84834815160703</v>
@@ -5755,25 +5755,25 @@
         <v>373.34422365072</v>
       </c>
       <c r="K20" t="n">
-        <v>842.974607438402</v>
+        <v>893.7741287892015</v>
       </c>
       <c r="L20" t="n">
-        <v>1462.494387944177</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M20" t="n">
-        <v>2183.498949883215</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N20" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O20" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P20" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q20" t="n">
-        <v>4515.534099052815</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R20" t="n">
         <v>4692.417407580351</v>
@@ -5791,13 +5791,13 @@
         <v>3821.234779402497</v>
       </c>
       <c r="W20" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X20" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="21">
@@ -5828,22 +5828,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I21" t="n">
-        <v>94.88738072612962</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J21" t="n">
-        <v>242.5353624779756</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K21" t="n">
-        <v>573.0441050413344</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L21" t="n">
-        <v>1063.776437885086</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M21" t="n">
-        <v>1384.839916296236</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N21" t="n">
-        <v>2006.935879695572</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O21" t="n">
         <v>2553.812354695766</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>495.0957149476001</v>
+        <v>571.8714428665047</v>
       </c>
       <c r="C22" t="n">
-        <v>326.1595320196932</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="D22" t="n">
-        <v>326.1595320196932</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="E22" t="n">
-        <v>326.1595320196932</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="F22" t="n">
-        <v>326.1595320196932</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G22" t="n">
-        <v>158.945337194272</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H22" t="n">
         <v>93.84834815160703</v>
@@ -5934,28 +5934,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R22" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S22" t="n">
-        <v>2178.382964033126</v>
+        <v>2255.15869195203</v>
       </c>
       <c r="T22" t="n">
-        <v>1958.704181747508</v>
+        <v>2035.479909666413</v>
       </c>
       <c r="U22" t="n">
-        <v>1669.627968062235</v>
+        <v>1746.403695981139</v>
       </c>
       <c r="V22" t="n">
-        <v>1414.943479856348</v>
+        <v>1491.719207775252</v>
       </c>
       <c r="W22" t="n">
-        <v>1125.526309819387</v>
+        <v>1202.302037738292</v>
       </c>
       <c r="X22" t="n">
-        <v>897.5367589213699</v>
+        <v>974.3124868402746</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.7441797778398</v>
+        <v>753.5199076967444</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C23" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D23" t="n">
         <v>1591.032978284208</v>
@@ -5977,10 +5977,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F23" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G23" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H23" t="n">
         <v>93.84834815160703</v>
@@ -6001,16 +6001,16 @@
         <v>2183.498949883215</v>
       </c>
       <c r="N23" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O23" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P23" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q23" t="n">
-        <v>4515.534099052815</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R23" t="n">
         <v>4692.417407580351</v>
@@ -6025,16 +6025,16 @@
         <v>4152.297666746068</v>
       </c>
       <c r="V23" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W23" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X23" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="24">
@@ -6065,22 +6065,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I24" t="n">
-        <v>94.88738072612962</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J24" t="n">
-        <v>242.5353624779756</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K24" t="n">
-        <v>573.0441050413344</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L24" t="n">
-        <v>1063.776437885086</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M24" t="n">
-        <v>1384.839916296236</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N24" t="n">
-        <v>2006.935879695572</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O24" t="n">
         <v>2553.812354695766</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.8714428665047</v>
+        <v>562.9550599890988</v>
       </c>
       <c r="C25" t="n">
-        <v>402.9352599385978</v>
+        <v>485.5661455390109</v>
       </c>
       <c r="D25" t="n">
-        <v>402.9352599385978</v>
+        <v>485.5661455390109</v>
       </c>
       <c r="E25" t="n">
-        <v>402.9352599385978</v>
+        <v>485.5661455390109</v>
       </c>
       <c r="F25" t="n">
-        <v>402.9352599385978</v>
+        <v>485.5661455390109</v>
       </c>
       <c r="G25" t="n">
-        <v>235.7210651131766</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H25" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I25" t="n">
         <v>93.84834815160703</v>
@@ -6171,28 +6171,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R25" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S25" t="n">
-        <v>2178.382964033126</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.479909666413</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.403695981139</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.719207775252</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.302037738292</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X25" t="n">
-        <v>974.3124868402746</v>
+        <v>965.3961039628687</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.5199076967444</v>
+        <v>744.6035248193385</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C26" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D26" t="n">
         <v>1591.032978284208</v>
@@ -6214,13 +6214,13 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F26" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G26" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127628</v>
       </c>
       <c r="H26" t="n">
-        <v>93.84834815160684</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I26" t="n">
         <v>93.84834815160703</v>
@@ -6235,13 +6235,13 @@
         <v>1462.494387944177</v>
       </c>
       <c r="M26" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N26" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O26" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P26" t="n">
         <v>4202.751434297606</v>
@@ -6259,19 +6259,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U26" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V26" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W26" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X26" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="27">
@@ -6302,22 +6302,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I27" t="n">
-        <v>94.88738072612962</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J27" t="n">
-        <v>242.5353624779756</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K27" t="n">
-        <v>573.0441050413344</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L27" t="n">
-        <v>1063.776437885086</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M27" t="n">
-        <v>1384.839916296236</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N27" t="n">
-        <v>2006.935879695572</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O27" t="n">
         <v>2553.812354695766</v>
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>744.6035248193385</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9822234696674</v>
+        <v>407.9524904749385</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8655840573316</v>
+        <v>407.9524904749385</v>
       </c>
       <c r="E28" t="n">
         <v>407.9524904749385</v>
@@ -6408,28 +6408,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R28" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S28" t="n">
-        <v>2246.242309074625</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T28" t="n">
-        <v>2026.563526789007</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U28" t="n">
-        <v>1737.487313103734</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V28" t="n">
-        <v>1482.802824897847</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W28" t="n">
-        <v>1193.385654860886</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X28" t="n">
-        <v>965.3961039628687</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y28" t="n">
-        <v>744.6035248193385</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C29" t="n">
         <v>1949.298676890958</v>
@@ -6451,64 +6451,64 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F29" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G29" t="n">
         <v>380.2757138127627</v>
       </c>
       <c r="H29" t="n">
-        <v>93.84834815160684</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I29" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J29" t="n">
-        <v>373.34422365072</v>
+        <v>424.1437450015196</v>
       </c>
       <c r="K29" t="n">
-        <v>842.974607438402</v>
+        <v>893.7741287892015</v>
       </c>
       <c r="L29" t="n">
-        <v>1462.494387944177</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M29" t="n">
-        <v>2183.498949883215</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N29" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O29" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P29" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q29" t="n">
-        <v>4515.534099052815</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R29" t="n">
         <v>4692.417407580351</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T29" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U29" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V29" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W29" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X29" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="30">
@@ -6539,22 +6539,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I30" t="n">
-        <v>94.88738072612962</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J30" t="n">
-        <v>242.5353624779756</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K30" t="n">
-        <v>573.0441050413344</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L30" t="n">
-        <v>1063.776437885086</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M30" t="n">
-        <v>1384.839916296236</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N30" t="n">
-        <v>2006.935879695572</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O30" t="n">
         <v>2553.812354695766</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>495.0957149476001</v>
+        <v>562.9550599890988</v>
       </c>
       <c r="C31" t="n">
-        <v>495.0957149476001</v>
+        <v>562.9550599890988</v>
       </c>
       <c r="D31" t="n">
-        <v>408.9756365594213</v>
+        <v>412.838420576763</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0625429770282</v>
+        <v>407.9524904749385</v>
       </c>
       <c r="F31" t="n">
         <v>261.0625429770282</v>
@@ -6645,28 +6645,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R31" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S31" t="n">
-        <v>2178.382964033126</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T31" t="n">
-        <v>1958.704181747508</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U31" t="n">
-        <v>1669.627968062235</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V31" t="n">
-        <v>1414.943479856348</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W31" t="n">
-        <v>1125.526309819387</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X31" t="n">
-        <v>897.5367589213699</v>
+        <v>965.3961039628687</v>
       </c>
       <c r="Y31" t="n">
-        <v>676.7441797778398</v>
+        <v>744.6035248193385</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C32" t="n">
         <v>1949.298676890959</v>
@@ -6691,52 +6691,52 @@
         <v>794.2588208963565</v>
       </c>
       <c r="G32" t="n">
-        <v>380.275713812763</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H32" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I32" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J32" t="n">
-        <v>373.3442236507201</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K32" t="n">
-        <v>893.7741287892034</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L32" t="n">
-        <v>1513.293909294978</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M32" t="n">
-        <v>2234.298471234016</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N32" t="n">
-        <v>2971.583449151122</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O32" t="n">
-        <v>3654.44548561026</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P32" t="n">
-        <v>4202.751434297608</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q32" t="n">
-        <v>4566.333620403615</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R32" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.950144347202</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.74099602652</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U32" t="n">
         <v>4152.297666746069</v>
       </c>
       <c r="V32" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W32" t="n">
         <v>3468.466124132384</v>
@@ -6745,7 +6745,7 @@
         <v>3095.000365871304</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="33">
@@ -6773,25 +6773,25 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H33" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I33" t="n">
-        <v>94.88738072612965</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J33" t="n">
-        <v>242.5353624779756</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K33" t="n">
-        <v>573.0441050413344</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L33" t="n">
-        <v>1063.776437885086</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M33" t="n">
-        <v>1384.839916296236</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N33" t="n">
-        <v>2006.935879695572</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O33" t="n">
         <v>2553.812354695766</v>
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>495.0957149476001</v>
+        <v>562.9550599890988</v>
       </c>
       <c r="C34" t="n">
-        <v>326.1595320196932</v>
+        <v>407.9524904749385</v>
       </c>
       <c r="D34" t="n">
-        <v>326.1595320196932</v>
+        <v>407.9524904749385</v>
       </c>
       <c r="E34" t="n">
-        <v>326.1595320196932</v>
+        <v>407.9524904749385</v>
       </c>
       <c r="F34" t="n">
         <v>261.0625429770282</v>
       </c>
       <c r="G34" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H34" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I34" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J34" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K34" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L34" t="n">
         <v>820.2210160948589</v>
@@ -6882,28 +6882,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R34" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S34" t="n">
-        <v>2178.382964033126</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T34" t="n">
-        <v>1958.704181747508</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U34" t="n">
-        <v>1669.627968062235</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V34" t="n">
-        <v>1414.943479856348</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W34" t="n">
-        <v>1125.526309819387</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X34" t="n">
-        <v>897.5367589213699</v>
+        <v>965.3961039628687</v>
       </c>
       <c r="Y34" t="n">
-        <v>676.7441797778398</v>
+        <v>744.6035248193385</v>
       </c>
     </row>
     <row r="35">
@@ -6916,70 +6916,70 @@
         <v>2318.261193831371</v>
       </c>
       <c r="C35" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.29867689096</v>
       </c>
       <c r="D35" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284209</v>
       </c>
       <c r="E35" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685965</v>
       </c>
       <c r="F35" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963573</v>
       </c>
       <c r="G35" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127637</v>
       </c>
       <c r="H35" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I35" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J35" t="n">
-        <v>373.34422365072</v>
+        <v>424.1437450015214</v>
       </c>
       <c r="K35" t="n">
-        <v>842.974607438402</v>
+        <v>893.7741287892034</v>
       </c>
       <c r="L35" t="n">
-        <v>1462.494387944177</v>
+        <v>1513.293909294978</v>
       </c>
       <c r="M35" t="n">
-        <v>2183.498949883215</v>
+        <v>2234.298471234016</v>
       </c>
       <c r="N35" t="n">
-        <v>2971.58344915112</v>
+        <v>2971.583449151122</v>
       </c>
       <c r="O35" t="n">
-        <v>3654.445485610258</v>
+        <v>3654.44548561026</v>
       </c>
       <c r="P35" t="n">
-        <v>4202.751434297606</v>
+        <v>4202.751434297608</v>
       </c>
       <c r="Q35" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403615</v>
       </c>
       <c r="R35" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580353</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.950144347202</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.740996026519</v>
+        <v>4405.74099602652</v>
       </c>
       <c r="U35" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.29766674607</v>
       </c>
       <c r="V35" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W35" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132385</v>
       </c>
       <c r="X35" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871305</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.861033895493</v>
@@ -7010,25 +7010,25 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H36" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I36" t="n">
-        <v>94.88738072612962</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J36" t="n">
-        <v>242.5353624779756</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K36" t="n">
-        <v>573.0441050413344</v>
+        <v>572.0050724668118</v>
       </c>
       <c r="L36" t="n">
-        <v>1063.776437885086</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M36" t="n">
-        <v>1655.794792137213</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N36" t="n">
-        <v>2006.935879695572</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O36" t="n">
         <v>2553.812354695766</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>977.7697540515045</v>
+        <v>874.9184063975744</v>
       </c>
       <c r="C37" t="n">
-        <v>808.8335711235976</v>
+        <v>705.9822234696675</v>
       </c>
       <c r="D37" t="n">
-        <v>697.7383010189012</v>
+        <v>555.8655840573317</v>
       </c>
       <c r="E37" t="n">
-        <v>549.8252074365081</v>
+        <v>407.9524904749386</v>
       </c>
       <c r="F37" t="n">
-        <v>402.9352599385978</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G37" t="n">
-        <v>235.7210651131766</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="H37" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I37" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J37" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K37" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L37" t="n">
         <v>820.2210160948589</v>
@@ -7119,28 +7119,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R37" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S37" t="n">
-        <v>2178.382964033126</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T37" t="n">
-        <v>1958.704181747508</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U37" t="n">
-        <v>1669.627968062235</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V37" t="n">
-        <v>1669.627968062235</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W37" t="n">
-        <v>1380.210798025274</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X37" t="n">
-        <v>1380.210798025274</v>
+        <v>1095.710985541104</v>
       </c>
       <c r="Y37" t="n">
-        <v>1159.418218881744</v>
+        <v>874.9184063975744</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C38" t="n">
         <v>1949.298676890959</v>
@@ -7162,55 +7162,55 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F38" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G38" t="n">
         <v>380.2757138127629</v>
       </c>
       <c r="H38" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I38" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J38" t="n">
-        <v>373.34422365072</v>
+        <v>424.1437450015214</v>
       </c>
       <c r="K38" t="n">
-        <v>842.974607438402</v>
+        <v>893.7741287892034</v>
       </c>
       <c r="L38" t="n">
-        <v>1462.494387944177</v>
+        <v>1513.293909294978</v>
       </c>
       <c r="M38" t="n">
-        <v>2183.498949883215</v>
+        <v>2234.298471234016</v>
       </c>
       <c r="N38" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.583449151122</v>
       </c>
       <c r="O38" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.44548561026</v>
       </c>
       <c r="P38" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297608</v>
       </c>
       <c r="Q38" t="n">
-        <v>4515.534099052815</v>
+        <v>4566.333620403615</v>
       </c>
       <c r="R38" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580353</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.950144347203</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.740996026519</v>
+        <v>4405.740996026521</v>
       </c>
       <c r="U38" t="n">
         <v>4152.297666746069</v>
       </c>
       <c r="V38" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W38" t="n">
         <v>3468.466124132384</v>
@@ -7219,7 +7219,7 @@
         <v>3095.000365871304</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="39">
@@ -7247,34 +7247,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H39" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I39" t="n">
-        <v>94.88738072612962</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J39" t="n">
-        <v>242.5353624779756</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K39" t="n">
-        <v>573.0441050413344</v>
+        <v>241.496329903453</v>
       </c>
       <c r="L39" t="n">
-        <v>1063.776437885086</v>
+        <v>241.496329903453</v>
       </c>
       <c r="M39" t="n">
-        <v>1655.794792137213</v>
+        <v>833.5146841555809</v>
       </c>
       <c r="N39" t="n">
-        <v>2006.935879695572</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.812354695766</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R39" t="n">
         <v>2553.812354695766</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>495.0957149476001</v>
+        <v>965.8040325357866</v>
       </c>
       <c r="C40" t="n">
-        <v>326.1595320196932</v>
+        <v>930.4858260316502</v>
       </c>
       <c r="D40" t="n">
-        <v>326.1595320196932</v>
+        <v>780.3691866193144</v>
       </c>
       <c r="E40" t="n">
-        <v>326.1595320196932</v>
+        <v>632.4560930369213</v>
       </c>
       <c r="F40" t="n">
-        <v>326.1595320196932</v>
+        <v>485.566145539011</v>
       </c>
       <c r="G40" t="n">
-        <v>235.7210651131766</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H40" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I40" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J40" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K40" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L40" t="n">
         <v>820.2210160948589</v>
@@ -7356,28 +7356,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R40" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S40" t="n">
-        <v>2178.382964033126</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="T40" t="n">
-        <v>1958.704181747508</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="U40" t="n">
-        <v>1669.627968062235</v>
+        <v>2140.336285650421</v>
       </c>
       <c r="V40" t="n">
-        <v>1414.943479856348</v>
+        <v>1885.651797444534</v>
       </c>
       <c r="W40" t="n">
-        <v>1125.526309819387</v>
+        <v>1596.234627407574</v>
       </c>
       <c r="X40" t="n">
-        <v>897.5367589213699</v>
+        <v>1368.245076509556</v>
       </c>
       <c r="Y40" t="n">
-        <v>676.7441797778398</v>
+        <v>1147.452497366026</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C41" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.29867689096</v>
       </c>
       <c r="D41" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284209</v>
       </c>
       <c r="E41" t="n">
         <v>1205.244725685964</v>
@@ -7402,16 +7402,16 @@
         <v>794.2588208963566</v>
       </c>
       <c r="G41" t="n">
-        <v>380.2757138127627</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H41" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I41" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J41" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K41" t="n">
         <v>842.974607438402</v>
@@ -7432,31 +7432,31 @@
         <v>4151.951912946808</v>
       </c>
       <c r="Q41" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403615</v>
       </c>
       <c r="R41" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580353</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347202</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.740996026519</v>
+        <v>4405.74099602652</v>
       </c>
       <c r="U41" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.29766674607</v>
       </c>
       <c r="V41" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W41" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132385</v>
       </c>
       <c r="X41" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871305</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="42">
@@ -7484,25 +7484,25 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H42" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I42" t="n">
-        <v>94.88738072612962</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J42" t="n">
-        <v>242.5353624779756</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K42" t="n">
-        <v>573.0441050413344</v>
+        <v>572.0050724668118</v>
       </c>
       <c r="L42" t="n">
-        <v>1063.776437885086</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M42" t="n">
-        <v>1655.794792137213</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N42" t="n">
-        <v>2006.935879695572</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O42" t="n">
         <v>2553.812354695766</v>
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>495.0957149476001</v>
+        <v>701.6638349513297</v>
       </c>
       <c r="C43" t="n">
-        <v>326.1595320196932</v>
+        <v>532.7276520234228</v>
       </c>
       <c r="D43" t="n">
-        <v>326.1595320196932</v>
+        <v>382.6110126110871</v>
       </c>
       <c r="E43" t="n">
-        <v>326.1595320196932</v>
+        <v>382.6110126110871</v>
       </c>
       <c r="F43" t="n">
-        <v>326.1595320196932</v>
+        <v>235.7210651131767</v>
       </c>
       <c r="G43" t="n">
-        <v>158.945337194272</v>
+        <v>235.7210651131767</v>
       </c>
       <c r="H43" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I43" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J43" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K43" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L43" t="n">
         <v>820.2210160948589</v>
@@ -7593,28 +7593,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R43" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S43" t="n">
-        <v>2178.382964033126</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T43" t="n">
-        <v>1958.704181747508</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U43" t="n">
-        <v>1669.627968062235</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V43" t="n">
-        <v>1414.943479856348</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W43" t="n">
-        <v>1125.526309819387</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X43" t="n">
-        <v>897.5367589213699</v>
+        <v>965.3961039628687</v>
       </c>
       <c r="Y43" t="n">
-        <v>676.7441797778398</v>
+        <v>744.6035248193385</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C44" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D44" t="n">
-        <v>1591.032978284207</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E44" t="n">
-        <v>1205.244725685963</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>794.2588208963555</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G44" t="n">
-        <v>380.2757138127629</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H44" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I44" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J44" t="n">
-        <v>373.34422365072</v>
+        <v>424.1437450015214</v>
       </c>
       <c r="K44" t="n">
-        <v>893.7741287892015</v>
+        <v>893.7741287892034</v>
       </c>
       <c r="L44" t="n">
-        <v>1513.293909294976</v>
+        <v>1513.293909294978</v>
       </c>
       <c r="M44" t="n">
-        <v>2234.298471234014</v>
+        <v>2234.298471234016</v>
       </c>
       <c r="N44" t="n">
-        <v>2971.58344915112</v>
+        <v>2971.583449151122</v>
       </c>
       <c r="O44" t="n">
-        <v>3654.445485610258</v>
+        <v>3654.44548561026</v>
       </c>
       <c r="P44" t="n">
-        <v>4202.751434297606</v>
+        <v>4202.751434297608</v>
       </c>
       <c r="Q44" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403615</v>
       </c>
       <c r="R44" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580353</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347202</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.740996026519</v>
+        <v>4405.74099602652</v>
       </c>
       <c r="U44" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.29766674607</v>
       </c>
       <c r="V44" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W44" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132385</v>
       </c>
       <c r="X44" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871305</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="45">
@@ -7721,34 +7721,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H45" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I45" t="n">
-        <v>94.88738072612962</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J45" t="n">
-        <v>242.5353624779756</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K45" t="n">
-        <v>242.5353624779756</v>
+        <v>572.0050724668118</v>
       </c>
       <c r="L45" t="n">
-        <v>733.2676953217269</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M45" t="n">
-        <v>1325.286049573855</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N45" t="n">
-        <v>1947.382012973191</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O45" t="n">
-        <v>1947.382012973191</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P45" t="n">
-        <v>2366.965531399267</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q45" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R45" t="n">
         <v>2553.812354695766</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>952.5320614616467</v>
+        <v>1099.422008959557</v>
       </c>
       <c r="C46" t="n">
-        <v>783.5958785337398</v>
+        <v>930.4858260316502</v>
       </c>
       <c r="D46" t="n">
-        <v>633.479239121404</v>
+        <v>780.3691866193144</v>
       </c>
       <c r="E46" t="n">
-        <v>485.5661455390109</v>
+        <v>632.4560930369213</v>
       </c>
       <c r="F46" t="n">
-        <v>485.5661455390109</v>
+        <v>485.566145539011</v>
       </c>
       <c r="G46" t="n">
         <v>318.3519507135898</v>
@@ -7803,13 +7803,13 @@
         <v>176.4792337520202</v>
       </c>
       <c r="I46" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J46" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K46" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L46" t="n">
         <v>820.2210160948589</v>
@@ -7833,25 +7833,25 @@
         <v>2429.412499335695</v>
       </c>
       <c r="S46" t="n">
-        <v>2246.242309074625</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="T46" t="n">
-        <v>2026.563526789007</v>
+        <v>2209.733717050076</v>
       </c>
       <c r="U46" t="n">
-        <v>1737.487313103734</v>
+        <v>1920.657503364803</v>
       </c>
       <c r="V46" t="n">
-        <v>1482.802824897847</v>
+        <v>1665.973015158916</v>
       </c>
       <c r="W46" t="n">
-        <v>1482.802824897847</v>
+        <v>1376.555845121956</v>
       </c>
       <c r="X46" t="n">
-        <v>1354.973105435416</v>
+        <v>1148.566294223938</v>
       </c>
       <c r="Y46" t="n">
-        <v>1134.180526291886</v>
+        <v>1148.566294223938</v>
       </c>
     </row>
   </sheetData>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>122.1609165114202</v>
+        <v>122.1609165114201</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>315.2952166467423</v>
       </c>
       <c r="M3" t="n">
-        <v>267.9873942041307</v>
+        <v>129.591740357718</v>
       </c>
       <c r="N3" t="n">
-        <v>381.7094952808119</v>
+        <v>381.7094952808121</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>124.5219861368073</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>133.663080786811</v>
+        <v>133.6630807868109</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8303,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>392.8337743093848</v>
+        <v>256.9443198746407</v>
       </c>
       <c r="N6" t="n">
-        <v>381.709495280812</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O6" t="n">
-        <v>269.0159391714756</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>124.5219861368073</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>133.663080786811</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,22 +8531,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>98.21846313347619</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.7937368863008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>464.4535191168293</v>
+        <v>70.57133424718792</v>
       </c>
       <c r="N9" t="n">
-        <v>451.6297827178988</v>
+        <v>451.6297827178979</v>
       </c>
       <c r="O9" t="n">
-        <v>70.52420674029956</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>51.31264782909136</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8710,7 +8710,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>51.31264782908892</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>51.31264782909136</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8947,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>51.31264782908892</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>51.31264782909039</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>51.31264782908892</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9403,7 +9403,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>51.31264782909039</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>51.312647829089</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9649,7 +9649,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>51.31264782908988</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>51.312647829089</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>51.31264782909034</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>51.31264782908966</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>51.31264782909045</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>51.312647829089</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>51.31264782909221</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10366,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>51.31264782908966</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>51.31264782909227</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10597,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>51.31264782908988</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>51.31264782909227</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>51.312647829089</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11080,7 +11080,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>51.31264782908892</v>
+        <v>51.31264782909074</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>51.31264782909227</v>
       </c>
       <c r="K44" t="n">
-        <v>51.31264782909039</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23427,13 +23427,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>76.00797063971557</v>
       </c>
       <c r="I13" t="n">
         <v>81.80457674440902</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.18219756401864</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23655,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>137.3216872126085</v>
       </c>
       <c r="E16" t="n">
-        <v>63.35659541391539</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.80457674440902</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23901,13 +23901,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>29.14392329984864</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
         <v>81.80457674440902</v>
@@ -23940,19 +23940,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>229.9554559908372</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>76.00797063971555</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.80457674440902</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>8.827219048631576</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>90.63179579304082</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>76.00797063971558</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>129.0117327624534</v>
+        <v>80.97502887069287</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>63.35659541391536</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>141.5968918457629</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>13.79427727960913</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>80.97502887069292</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>38.63115561456293</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
         <v>81.80457674440902</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>129.0117327624534</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>132.2817966595327</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>76.00797063971552</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>137.3216872126086</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H43" t="n">
-        <v>76.00797063971555</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.80457674440902</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>131.1791377702</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>67.18075159108355</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>99.15823312123109</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>753302.3151765894</v>
+        <v>753302.3151765895</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>753302.3151765894</v>
+        <v>753302.3151765895</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>753302.3151765895</v>
+        <v>753302.3151765894</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>753302.3151765894</v>
+        <v>753302.3151765895</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>753302.3151765895</v>
+        <v>753302.3151765894</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>753302.3151765894</v>
+        <v>753302.3151765895</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>753302.3151765895</v>
+        <v>753302.3151765894</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>753302.3151765894</v>
+        <v>753302.3151765895</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>753302.3151765894</v>
+        <v>753302.3151765896</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>753302.3151765894</v>
+        <v>753302.3151765895</v>
       </c>
     </row>
     <row r="16">
@@ -26319,43 +26319,43 @@
         <v>677359.4601380336</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380329</v>
+        <v>677359.4601380341</v>
       </c>
       <c r="E2" t="n">
         <v>665513.4561228117</v>
       </c>
       <c r="F2" t="n">
+        <v>665513.4561228117</v>
+      </c>
+      <c r="G2" t="n">
+        <v>665513.4561228117</v>
+      </c>
+      <c r="H2" t="n">
+        <v>665513.4561228117</v>
+      </c>
+      <c r="I2" t="n">
         <v>665513.4561228114</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
         <v>665513.4561228114</v>
       </c>
-      <c r="H2" t="n">
-        <v>665513.4561228112</v>
-      </c>
-      <c r="I2" t="n">
-        <v>665513.4561228113</v>
-      </c>
-      <c r="J2" t="n">
-        <v>665513.4561228113</v>
-      </c>
       <c r="K2" t="n">
-        <v>665513.4561228113</v>
+        <v>665513.4561228114</v>
       </c>
       <c r="L2" t="n">
-        <v>665513.4561228117</v>
+        <v>665513.4561228114</v>
       </c>
       <c r="M2" t="n">
-        <v>665513.4561228115</v>
+        <v>665513.4561228118</v>
       </c>
       <c r="N2" t="n">
         <v>665513.4561228115</v>
       </c>
       <c r="O2" t="n">
+        <v>665513.4561228117</v>
+      </c>
+      <c r="P2" t="n">
         <v>665513.4561228115</v>
-      </c>
-      <c r="P2" t="n">
-        <v>665513.4561228118</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110394.4548749495</v>
+        <v>110394.4548749498</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>143093.1975581093</v>
+        <v>143093.1975581073</v>
       </c>
       <c r="E3" t="n">
-        <v>1209019.537077497</v>
+        <v>1209019.537077498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68875.69873124985</v>
+        <v>68875.69873124993</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>34377.379016584</v>
+        <v>34377.37901658341</v>
       </c>
       <c r="M3" t="n">
-        <v>192891.9217116885</v>
+        <v>192891.9217116892</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>354753.502998367</v>
       </c>
       <c r="D4" t="n">
-        <v>312563.8135151853</v>
+        <v>312563.8135151858</v>
       </c>
       <c r="E4" t="n">
-        <v>7918.14029743167</v>
+        <v>7918.14029743172</v>
       </c>
       <c r="F4" t="n">
-        <v>7918.14029743167</v>
+        <v>7918.14029743172</v>
       </c>
       <c r="G4" t="n">
-        <v>7918.140297431701</v>
+        <v>7918.140297431671</v>
       </c>
       <c r="H4" t="n">
-        <v>7918.140297431728</v>
+        <v>7918.140297431745</v>
       </c>
       <c r="I4" t="n">
-        <v>7918.140297431673</v>
+        <v>7918.140297431745</v>
       </c>
       <c r="J4" t="n">
-        <v>7918.140297431699</v>
+        <v>7918.140297431686</v>
       </c>
       <c r="K4" t="n">
-        <v>7918.140297431673</v>
+        <v>7918.140297431702</v>
       </c>
       <c r="L4" t="n">
+        <v>7918.140297431686</v>
+      </c>
+      <c r="M4" t="n">
         <v>7918.140297431738</v>
       </c>
-      <c r="M4" t="n">
-        <v>7918.14029743169</v>
-      </c>
       <c r="N4" t="n">
-        <v>7918.140297431673</v>
+        <v>7918.140297431739</v>
       </c>
       <c r="O4" t="n">
-        <v>7918.140297431672</v>
+        <v>7918.140297431707</v>
       </c>
       <c r="P4" t="n">
-        <v>7918.140297431701</v>
+        <v>7918.140297431738</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50134.40740683334</v>
+        <v>50134.40740683336</v>
       </c>
       <c r="C5" t="n">
         <v>50134.40740683334</v>
       </c>
       <c r="D5" t="n">
-        <v>60961.29296005023</v>
+        <v>60961.29296005008</v>
       </c>
       <c r="E5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="F5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="G5" t="n">
         <v>100930.0394572385</v>
@@ -26499,19 +26499,19 @@
         <v>100930.0394572385</v>
       </c>
       <c r="L5" t="n">
+        <v>100930.0394572385</v>
+      </c>
+      <c r="M5" t="n">
         <v>100930.0394572386</v>
       </c>
-      <c r="M5" t="n">
-        <v>100930.0394572385</v>
-      </c>
       <c r="N5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="O5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="P5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>162077.0948578838</v>
+        <v>162077.0948578835</v>
       </c>
       <c r="C6" t="n">
-        <v>272471.5497328333</v>
+        <v>272471.5497328335</v>
       </c>
       <c r="D6" t="n">
-        <v>160741.1561046881</v>
+        <v>160741.1561046909</v>
       </c>
       <c r="E6" t="n">
-        <v>-652713.2305279981</v>
+        <v>-652390.1576912213</v>
       </c>
       <c r="F6" t="n">
-        <v>556306.3065494982</v>
+        <v>556629.3793862771</v>
       </c>
       <c r="G6" t="n">
-        <v>556306.3065494981</v>
+        <v>556629.3793862772</v>
       </c>
       <c r="H6" t="n">
-        <v>556306.3065494979</v>
+        <v>556629.3793862771</v>
       </c>
       <c r="I6" t="n">
-        <v>556306.3065494981</v>
+        <v>556629.3793862768</v>
       </c>
       <c r="J6" t="n">
-        <v>487430.607818248</v>
+        <v>487753.680655027</v>
       </c>
       <c r="K6" t="n">
-        <v>556306.3065494981</v>
+        <v>556629.3793862768</v>
       </c>
       <c r="L6" t="n">
-        <v>521928.9275329142</v>
+        <v>522252.0003696934</v>
       </c>
       <c r="M6" t="n">
-        <v>363414.3848378097</v>
+        <v>363737.457674588</v>
       </c>
       <c r="N6" t="n">
-        <v>556306.3065494983</v>
+        <v>556629.3793862768</v>
       </c>
       <c r="O6" t="n">
-        <v>556306.3065494983</v>
+        <v>556629.3793862771</v>
       </c>
       <c r="P6" t="n">
-        <v>556306.3065494985</v>
+        <v>556629.3793862768</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>23.01338268678962</v>
+      </c>
+      <c r="C3" t="n">
         <v>23.01338268678938</v>
       </c>
-      <c r="C3" t="n">
-        <v>23.01338268678931</v>
-      </c>
       <c r="D3" t="n">
-        <v>140.8305712138801</v>
+        <v>140.8305712138786</v>
       </c>
       <c r="E3" t="n">
         <v>1358.041048716386</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.2420339516666</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="C4" t="n">
         <v>263.2420339516666</v>
       </c>
       <c r="D4" t="n">
-        <v>399.0721465063757</v>
+        <v>399.0721465063738</v>
       </c>
       <c r="E4" t="n">
         <v>1173.104351895088</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.01338268678938</v>
+        <v>23.01338268678962</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-2.344791028008331e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>117.8171885270908</v>
+        <v>117.8171885270892</v>
       </c>
       <c r="E3" t="n">
-        <v>1217.210477502506</v>
+        <v>1217.210477502507</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.2420339516666</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>135.8301125547091</v>
+        <v>135.8301125547072</v>
       </c>
       <c r="E4" t="n">
-        <v>774.0322053887121</v>
+        <v>774.0322053887141</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516666</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>135.8301125547096</v>
+        <v>135.8301125547072</v>
       </c>
       <c r="M4" t="n">
-        <v>774.0322053887116</v>
+        <v>774.0322053887146</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516666</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>135.8301125547091</v>
+        <v>135.8301125547072</v>
       </c>
       <c r="M4" t="n">
-        <v>774.0322053887121</v>
+        <v>774.0322053887141</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>119.0415018000071</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>91.44100766901607</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.6883361205949</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>338.5273214908784</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,22 +27426,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T2" t="n">
-        <v>222.6908602868995</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>163.0515258288664</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>159.9286947628071</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27478,7 +27478,7 @@
         <v>111.757373777286</v>
       </c>
       <c r="I3" t="n">
-        <v>87.69233988828964</v>
+        <v>87.69233988828962</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>97.08446202703756</v>
+        <v>97.08446202703753</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>39.40779849655388</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27520,13 +27520,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27542,10 +27542,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>135.2143665578063</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27557,13 +27557,13 @@
         <v>161.8582038473137</v>
       </c>
       <c r="I4" t="n">
-        <v>154.2024705022108</v>
+        <v>154.2024705022107</v>
       </c>
       <c r="J4" t="n">
-        <v>90.42516245839144</v>
+        <v>90.42516245839141</v>
       </c>
       <c r="K4" t="n">
-        <v>17.44799951871616</v>
+        <v>17.44799951871611</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.68702246598919</v>
+        <v>82.68702246598916</v>
       </c>
       <c r="R4" t="n">
         <v>175.4274210366964</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>58.74958424511985</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27624,19 +27624,19 @@
         <v>91.44100766901636</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.6883361205952</v>
       </c>
       <c r="F5" t="n">
+        <v>143.6340117900448</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>348.7766863961784</v>
       </c>
       <c r="H5" t="n">
         <v>338.5273214908784</v>
       </c>
       <c r="I5" t="n">
-        <v>206.909162189371</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>144.0576027644702</v>
+        <v>138.4131994164384</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>76.6070504540709</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>97.08446202703757</v>
+        <v>97.08446202703756</v>
       </c>
       <c r="S6" t="n">
         <v>170.7637213332854</v>
@@ -27751,19 +27751,19 @@
         <v>199.9652070090748</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>34.19782427937687</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27776,10 +27776,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>7.411751991652892</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27797,10 +27797,10 @@
         <v>154.2024705022108</v>
       </c>
       <c r="J7" t="n">
-        <v>90.42516245839145</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="K7" t="n">
-        <v>6.228403429953714</v>
+        <v>17.44799951871616</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.6870224659892</v>
+        <v>82.68702246598919</v>
       </c>
       <c r="R7" t="n">
         <v>175.4274210366964</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27873,7 +27873,7 @@
         <v>333.6766871913686</v>
       </c>
       <c r="I8" t="n">
-        <v>188.6492741061924</v>
+        <v>188.6492741061926</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>20.16121697429386</v>
+        <v>114.3055064074259</v>
       </c>
       <c r="S8" t="n">
-        <v>196.1188569569537</v>
+        <v>162.3982236204449</v>
       </c>
       <c r="T8" t="n">
         <v>220.6175145872921</v>
@@ -27912,10 +27912,10 @@
         <v>251.300360663828</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -27940,10 +27940,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.0405985760713</v>
@@ -27952,7 +27952,7 @@
         <v>109.3098884080723</v>
       </c>
       <c r="I9" t="n">
-        <v>78.96719903982112</v>
+        <v>78.96719903982124</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>81.35030994411777</v>
+        <v>81.35030994411798</v>
       </c>
       <c r="S9" t="n">
         <v>166.056591206755</v>
@@ -27988,10 +27988,10 @@
         <v>198.9437542142032</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9214532265578</v>
+        <v>59.84026655857076</v>
       </c>
       <c r="V9" t="n">
-        <v>136.6331061807904</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28016,25 +28016,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>123.4633966372541</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.737022590696</v>
+        <v>142.5849462097401</v>
       </c>
       <c r="H10" t="n">
         <v>159.96926597224</v>
       </c>
       <c r="I10" t="n">
-        <v>147.8133023112662</v>
+        <v>147.8133023112663</v>
       </c>
       <c r="J10" t="n">
-        <v>75.40443663584743</v>
+        <v>75.40443663584763</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.89662699839849</v>
+        <v>64.89662699839872</v>
       </c>
       <c r="R10" t="n">
-        <v>165.8745716194014</v>
+        <v>165.8745716194016</v>
       </c>
       <c r="S10" t="n">
-        <v>219.5908241842344</v>
+        <v>219.5908241842345</v>
       </c>
       <c r="T10" t="n">
         <v>226.860501420568</v>
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28863,7 +28863,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29097,7 +29097,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09251611130367583</v>
+        <v>0.09251611130367678</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9474806248887704</v>
+        <v>0.94748062488878</v>
       </c>
       <c r="I2" t="n">
-        <v>3.566727381034966</v>
+        <v>3.566727381035002</v>
       </c>
       <c r="J2" t="n">
-        <v>7.852189301760364</v>
+        <v>7.852189301760444</v>
       </c>
       <c r="K2" t="n">
-        <v>11.76839629324496</v>
+        <v>11.76839629324508</v>
       </c>
       <c r="L2" t="n">
-        <v>14.59973623455484</v>
+        <v>14.59973623455499</v>
       </c>
       <c r="M2" t="n">
-        <v>16.24501962895158</v>
+        <v>16.24501962895175</v>
       </c>
       <c r="N2" t="n">
-        <v>16.50788103019315</v>
+        <v>16.50788103019332</v>
       </c>
       <c r="O2" t="n">
-        <v>15.58792394841722</v>
+        <v>15.58792394841738</v>
       </c>
       <c r="P2" t="n">
-        <v>13.30393245060773</v>
+        <v>13.30393245060786</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544831</v>
+        <v>9.990699214544932</v>
       </c>
       <c r="R2" t="n">
-        <v>5.811515176679532</v>
+        <v>5.811515176679592</v>
       </c>
       <c r="S2" t="n">
-        <v>2.108210886332515</v>
+        <v>2.108210886332537</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4049892772318412</v>
+        <v>0.4049892772318453</v>
       </c>
       <c r="U2" t="n">
-        <v>0.007401288904294065</v>
+        <v>0.00740128890429414</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04950048351498094</v>
+        <v>0.04950048351498144</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4780704592104738</v>
+        <v>0.4780704592104787</v>
       </c>
       <c r="I3" t="n">
-        <v>1.70429296312544</v>
+        <v>1.704292963125458</v>
       </c>
       <c r="J3" t="n">
-        <v>4.676710155246511</v>
+        <v>4.676710155246559</v>
       </c>
       <c r="K3" t="n">
-        <v>7.993242550750233</v>
+        <v>7.993242550750314</v>
       </c>
       <c r="L3" t="n">
-        <v>10.74790103688215</v>
+        <v>10.74790103688226</v>
       </c>
       <c r="M3" t="n">
-        <v>12.54229356430021</v>
+        <v>12.54229356430034</v>
       </c>
       <c r="N3" t="n">
-        <v>12.87425075418796</v>
+        <v>12.87425075418809</v>
       </c>
       <c r="O3" t="n">
-        <v>11.77742425104022</v>
+        <v>11.77742425104034</v>
       </c>
       <c r="P3" t="n">
-        <v>9.452421277522983</v>
+        <v>9.452421277523079</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.318693299210549</v>
+        <v>6.318693299210613</v>
       </c>
       <c r="R3" t="n">
-        <v>3.073372125605572</v>
+        <v>3.073372125605603</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9194497705523865</v>
+        <v>0.9194497705523959</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1995216857467871</v>
+        <v>0.1995216857467891</v>
       </c>
       <c r="U3" t="n">
-        <v>0.003256610757564536</v>
+        <v>0.00325661075756457</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04149954254994806</v>
+        <v>0.04149954254994848</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3689686601259021</v>
+        <v>0.3689686601259058</v>
       </c>
       <c r="I4" t="n">
-        <v>1.248004425047529</v>
+        <v>1.248004425047542</v>
       </c>
       <c r="J4" t="n">
-        <v>2.934017658281328</v>
+        <v>2.934017658281358</v>
       </c>
       <c r="K4" t="n">
-        <v>4.821492307166691</v>
+        <v>4.821492307166741</v>
       </c>
       <c r="L4" t="n">
-        <v>6.16985017147137</v>
+        <v>6.169850171471433</v>
       </c>
       <c r="M4" t="n">
-        <v>6.505241928988675</v>
+        <v>6.505241928988742</v>
       </c>
       <c r="N4" t="n">
-        <v>6.350561815847965</v>
+        <v>6.35056181584803</v>
       </c>
       <c r="O4" t="n">
-        <v>5.865771705150842</v>
+        <v>5.865771705150903</v>
       </c>
       <c r="P4" t="n">
-        <v>5.019181037131898</v>
+        <v>5.019181037131949</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.475020785705196</v>
+        <v>3.475020785705232</v>
       </c>
       <c r="R4" t="n">
-        <v>1.865970340473119</v>
+        <v>1.865970340473138</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7232238460750037</v>
+        <v>0.723223846075011</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1773162272588689</v>
+        <v>0.1773162272588708</v>
       </c>
       <c r="U4" t="n">
-        <v>0.002263611411815351</v>
+        <v>0.002263611411815374</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09251611130367554</v>
+        <v>0.09251611130367583</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9474806248887675</v>
+        <v>0.9474806248887704</v>
       </c>
       <c r="I5" t="n">
-        <v>3.566727381034955</v>
+        <v>3.566727381034966</v>
       </c>
       <c r="J5" t="n">
-        <v>7.852189301760339</v>
+        <v>7.852189301760364</v>
       </c>
       <c r="K5" t="n">
-        <v>11.76839629324493</v>
+        <v>11.76839629324496</v>
       </c>
       <c r="L5" t="n">
-        <v>14.59973623455479</v>
+        <v>14.59973623455484</v>
       </c>
       <c r="M5" t="n">
-        <v>16.24501962895153</v>
+        <v>16.24501962895158</v>
       </c>
       <c r="N5" t="n">
-        <v>16.5078810301931</v>
+        <v>16.50788103019315</v>
       </c>
       <c r="O5" t="n">
-        <v>15.58792394841718</v>
+        <v>15.58792394841722</v>
       </c>
       <c r="P5" t="n">
-        <v>13.30393245060768</v>
+        <v>13.30393245060773</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544799</v>
+        <v>9.990699214544831</v>
       </c>
       <c r="R5" t="n">
-        <v>5.811515176679515</v>
+        <v>5.811515176679532</v>
       </c>
       <c r="S5" t="n">
-        <v>2.108210886332509</v>
+        <v>2.108210886332515</v>
       </c>
       <c r="T5" t="n">
-        <v>0.4049892772318399</v>
+        <v>0.4049892772318412</v>
       </c>
       <c r="U5" t="n">
-        <v>0.007401288904294042</v>
+        <v>0.007401288904294065</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04950048351498078</v>
+        <v>0.04950048351498094</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4780704592104724</v>
+        <v>0.4780704592104738</v>
       </c>
       <c r="I6" t="n">
-        <v>1.704292963125435</v>
+        <v>1.70429296312544</v>
       </c>
       <c r="J6" t="n">
-        <v>4.676710155246496</v>
+        <v>4.676710155246511</v>
       </c>
       <c r="K6" t="n">
-        <v>7.993242550750209</v>
+        <v>7.993242550750233</v>
       </c>
       <c r="L6" t="n">
-        <v>10.74790103688212</v>
+        <v>10.74790103688215</v>
       </c>
       <c r="M6" t="n">
-        <v>12.54229356430017</v>
+        <v>12.54229356430021</v>
       </c>
       <c r="N6" t="n">
-        <v>12.87425075418792</v>
+        <v>12.87425075418796</v>
       </c>
       <c r="O6" t="n">
-        <v>11.77742425104019</v>
+        <v>11.77742425104022</v>
       </c>
       <c r="P6" t="n">
-        <v>9.452421277522953</v>
+        <v>9.452421277522983</v>
       </c>
       <c r="Q6" t="n">
-        <v>6.31869329921053</v>
+        <v>6.318693299210549</v>
       </c>
       <c r="R6" t="n">
-        <v>3.073372125605562</v>
+        <v>3.073372125605572</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9194497705523836</v>
+        <v>0.9194497705523865</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1995216857467865</v>
+        <v>0.1995216857467871</v>
       </c>
       <c r="U6" t="n">
-        <v>0.003256610757564526</v>
+        <v>0.003256610757564536</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04149954254994793</v>
+        <v>0.04149954254994806</v>
       </c>
       <c r="H7" t="n">
-        <v>0.368968660125901</v>
+        <v>0.3689686601259021</v>
       </c>
       <c r="I7" t="n">
-        <v>1.248004425047526</v>
+        <v>1.248004425047529</v>
       </c>
       <c r="J7" t="n">
-        <v>2.934017658281319</v>
+        <v>2.934017658281328</v>
       </c>
       <c r="K7" t="n">
-        <v>4.821492307166677</v>
+        <v>4.821492307166691</v>
       </c>
       <c r="L7" t="n">
-        <v>6.169850171471351</v>
+        <v>6.16985017147137</v>
       </c>
       <c r="M7" t="n">
-        <v>6.505241928988656</v>
+        <v>6.505241928988675</v>
       </c>
       <c r="N7" t="n">
-        <v>6.350561815847946</v>
+        <v>6.350561815847965</v>
       </c>
       <c r="O7" t="n">
-        <v>5.865771705150824</v>
+        <v>5.865771705150842</v>
       </c>
       <c r="P7" t="n">
-        <v>5.019181037131882</v>
+        <v>5.019181037131898</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.475020785705186</v>
+        <v>3.475020785705196</v>
       </c>
       <c r="R7" t="n">
-        <v>1.865970340473113</v>
+        <v>1.865970340473119</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7232238460750015</v>
+        <v>0.7232238460750037</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1773162272588684</v>
+        <v>0.1773162272588689</v>
       </c>
       <c r="U7" t="n">
-        <v>0.002263611411815344</v>
+        <v>0.002263611411815351</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5661530501060504</v>
+        <v>0.5661530501060441</v>
       </c>
       <c r="H8" t="n">
-        <v>5.798114924398591</v>
+        <v>5.798114924398526</v>
       </c>
       <c r="I8" t="n">
-        <v>21.82661546421353</v>
+        <v>21.82661546421329</v>
       </c>
       <c r="J8" t="n">
-        <v>48.05153243643844</v>
+        <v>48.05153243643791</v>
       </c>
       <c r="K8" t="n">
-        <v>72.01679104742757</v>
+        <v>72.01679104742676</v>
       </c>
       <c r="L8" t="n">
-        <v>89.34319745461063</v>
+        <v>89.34319745460964</v>
       </c>
       <c r="M8" t="n">
-        <v>99.41152175943409</v>
+        <v>99.411521759433</v>
       </c>
       <c r="N8" t="n">
-        <v>101.0201041130479</v>
+        <v>101.0201041130468</v>
       </c>
       <c r="O8" t="n">
-        <v>95.39041972105588</v>
+        <v>95.39041972105481</v>
       </c>
       <c r="P8" t="n">
-        <v>81.41351629656275</v>
+        <v>81.41351629656184</v>
       </c>
       <c r="Q8" t="n">
-        <v>61.13816018963979</v>
+        <v>61.13816018963912</v>
       </c>
       <c r="R8" t="n">
-        <v>35.56361153372422</v>
+        <v>35.56361153372383</v>
       </c>
       <c r="S8" t="n">
-        <v>12.90121262929164</v>
+        <v>12.90121262929149</v>
       </c>
       <c r="T8" t="n">
-        <v>2.478334976839237</v>
+        <v>2.478334976839209</v>
       </c>
       <c r="U8" t="n">
-        <v>0.04529224400848402</v>
+        <v>0.04529224400848352</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3029185871392894</v>
+        <v>0.302918587139286</v>
       </c>
       <c r="H9" t="n">
-        <v>2.92555582842419</v>
+        <v>2.925555828424157</v>
       </c>
       <c r="I9" t="n">
-        <v>10.42943381159396</v>
+        <v>10.42943381159384</v>
       </c>
       <c r="J9" t="n">
-        <v>28.6191635331905</v>
+        <v>28.61916353319018</v>
       </c>
       <c r="K9" t="n">
-        <v>48.91470887152288</v>
+        <v>48.91470887152234</v>
       </c>
       <c r="L9" t="n">
-        <v>65.77186252776545</v>
+        <v>65.77186252776472</v>
       </c>
       <c r="M9" t="n">
-        <v>76.75266131156467</v>
+        <v>76.75266131156381</v>
       </c>
       <c r="N9" t="n">
-        <v>78.78407587181019</v>
+        <v>78.78407587180931</v>
       </c>
       <c r="O9" t="n">
-        <v>72.07203770414488</v>
+        <v>72.07203770414407</v>
       </c>
       <c r="P9" t="n">
-        <v>57.84416424065957</v>
+        <v>57.84416424065893</v>
       </c>
       <c r="Q9" t="n">
-        <v>38.6672919302714</v>
+        <v>38.66729193027097</v>
       </c>
       <c r="R9" t="n">
-        <v>18.80752420852536</v>
+        <v>18.80752420852515</v>
       </c>
       <c r="S9" t="n">
-        <v>5.626579897082849</v>
+        <v>5.626579897082787</v>
       </c>
       <c r="T9" t="n">
-        <v>1.220974480618451</v>
+        <v>1.220974480618437</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01992885441705852</v>
+        <v>0.0199288544170583</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2539567677627347</v>
+        <v>0.2539567677627318</v>
       </c>
       <c r="H10" t="n">
-        <v>2.257906535199588</v>
+        <v>2.257906535199563</v>
       </c>
       <c r="I10" t="n">
-        <v>7.63717261599206</v>
+        <v>7.637172615991974</v>
       </c>
       <c r="J10" t="n">
-        <v>17.95474348082534</v>
+        <v>17.95474348082514</v>
       </c>
       <c r="K10" t="n">
-        <v>29.50515901825226</v>
+        <v>29.50515901825193</v>
       </c>
       <c r="L10" t="n">
-        <v>37.75644527265239</v>
+        <v>37.75644527265197</v>
       </c>
       <c r="M10" t="n">
-        <v>39.80887769575303</v>
+        <v>39.80887769575259</v>
       </c>
       <c r="N10" t="n">
-        <v>38.86231156136468</v>
+        <v>38.86231156136426</v>
       </c>
       <c r="O10" t="n">
-        <v>35.89563477431818</v>
+        <v>35.89563477431778</v>
       </c>
       <c r="P10" t="n">
-        <v>30.71491671195837</v>
+        <v>30.71491671195803</v>
       </c>
       <c r="Q10" t="n">
-        <v>21.2654162532959</v>
+        <v>21.26541625329567</v>
       </c>
       <c r="R10" t="n">
-        <v>11.41881975776805</v>
+        <v>11.41881975776792</v>
       </c>
       <c r="S10" t="n">
-        <v>4.425773852737838</v>
+        <v>4.425773852737789</v>
       </c>
       <c r="T10" t="n">
-        <v>1.085088007713502</v>
+        <v>1.08508800771349</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01385218733251282</v>
+        <v>0.01385218733251266</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I12" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>275.9770021735818</v>
@@ -31849,13 +31849,13 @@
         <v>634.2436048745725</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1323715504302</v>
+        <v>467.4901056247181</v>
       </c>
       <c r="N12" t="n">
         <v>759.7214730927639</v>
       </c>
       <c r="O12" t="n">
-        <v>421.3049304638554</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -32074,7 +32074,7 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>275.9770021735818</v>
@@ -32092,7 +32092,7 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O15" t="n">
-        <v>421.3049304638554</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32311,7 +32311,7 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I18" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>275.9770021735818</v>
@@ -32323,22 +32323,22 @@
         <v>634.2436048745725</v>
       </c>
       <c r="M18" t="n">
-        <v>740.1323715504302</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>486.0296793139987</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O18" t="n">
         <v>694.9967242426205</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>423.6474445373228</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S18" t="n">
         <v>54.25758340862161</v>
@@ -32548,7 +32548,7 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I21" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>275.9770021735818</v>
@@ -32560,13 +32560,13 @@
         <v>634.2436048745725</v>
       </c>
       <c r="M21" t="n">
-        <v>466.4405777716651</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N21" t="n">
         <v>759.7214730927639</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32785,7 +32785,7 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I24" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>275.9770021735818</v>
@@ -32797,13 +32797,13 @@
         <v>634.2436048745725</v>
       </c>
       <c r="M24" t="n">
-        <v>466.4405777716651</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N24" t="n">
         <v>759.7214730927639</v>
       </c>
       <c r="O24" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I27" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>275.9770021735818</v>
@@ -33034,13 +33034,13 @@
         <v>634.2436048745725</v>
       </c>
       <c r="M27" t="n">
-        <v>466.4405777716651</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N27" t="n">
         <v>759.7214730927639</v>
       </c>
       <c r="O27" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,7 +33259,7 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I30" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>275.9770021735818</v>
@@ -33271,13 +33271,13 @@
         <v>634.2436048745725</v>
       </c>
       <c r="M30" t="n">
-        <v>466.4405777716651</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N30" t="n">
         <v>759.7214730927639</v>
       </c>
       <c r="O30" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,7 +33496,7 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I33" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>275.9770021735818</v>
@@ -33508,13 +33508,13 @@
         <v>634.2436048745725</v>
       </c>
       <c r="M33" t="n">
-        <v>466.4405777716651</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N33" t="n">
         <v>759.7214730927639</v>
       </c>
       <c r="O33" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33733,7 +33733,7 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I36" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>275.9770021735818</v>
@@ -33748,10 +33748,10 @@
         <v>740.1323715504302</v>
       </c>
       <c r="N36" t="n">
-        <v>486.0296793139987</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O36" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33970,34 +33970,34 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I39" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>275.9770021735818</v>
       </c>
       <c r="K39" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>634.2436048745725</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>740.1323715504302</v>
       </c>
       <c r="N39" t="n">
-        <v>486.0296793139987</v>
+        <v>624.220700865917</v>
       </c>
       <c r="O39" t="n">
         <v>694.9967242426205</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S39" t="n">
         <v>54.25758340862161</v>
@@ -34207,7 +34207,7 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I42" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>275.9770021735818</v>
@@ -34222,10 +34222,10 @@
         <v>740.1323715504302</v>
       </c>
       <c r="N42" t="n">
-        <v>486.0296793139987</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O42" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34444,13 +34444,13 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I45" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>275.9770021735818</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L45" t="n">
         <v>634.2436048745725</v>
@@ -34462,16 +34462,16 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P45" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>293.0329044522736</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.25758340862161</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>115.8239578194292</v>
+        <v>115.8239578194293</v>
       </c>
       <c r="L2" t="n">
-        <v>196.494535815018</v>
+        <v>196.4945358150182</v>
       </c>
       <c r="M2" t="n">
-        <v>235.4123198945113</v>
+        <v>235.4123198945115</v>
       </c>
       <c r="N2" t="n">
-        <v>224.4417418455864</v>
+        <v>224.4417418455866</v>
       </c>
       <c r="O2" t="n">
-        <v>166.2898937894759</v>
+        <v>166.289893789476</v>
       </c>
       <c r="P2" t="n">
-        <v>103.8696448668208</v>
+        <v>103.869644866821</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>134.6170405889698</v>
+        <v>134.6170405889699</v>
       </c>
       <c r="L3" t="n">
-        <v>243.0338665604671</v>
+        <v>187.4887379037504</v>
       </c>
       <c r="M3" t="n">
-        <v>138.3956538464126</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>263.2420339516666</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="O3" t="n">
-        <v>263.0434990833253</v>
+        <v>263.0434990833254</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>193.94078250313</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34862,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>33.75987543178751</v>
+        <v>33.75987543178757</v>
       </c>
       <c r="M4" t="n">
-        <v>46.08911889082926</v>
+        <v>46.08911889082933</v>
       </c>
       <c r="N4" t="n">
-        <v>50.48273419507656</v>
+        <v>50.48273419507662</v>
       </c>
       <c r="O4" t="n">
-        <v>30.45089961919052</v>
+        <v>30.45089961919058</v>
       </c>
       <c r="P4" t="n">
-        <v>2.297740302025386</v>
+        <v>2.297740302025437</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>115.8239578194291</v>
+        <v>115.8239578194292</v>
       </c>
       <c r="L5" t="n">
         <v>196.494535815018</v>
@@ -34947,10 +34947,10 @@
         <v>235.4123198945113</v>
       </c>
       <c r="N5" t="n">
-        <v>224.4417418455863</v>
+        <v>224.4417418455864</v>
       </c>
       <c r="O5" t="n">
-        <v>166.2898937894758</v>
+        <v>166.2898937894759</v>
       </c>
       <c r="P5" t="n">
         <v>103.8696448668208</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>3.930118828988654</v>
       </c>
       <c r="K6" t="n">
         <v>134.6170405889698</v>
@@ -35023,19 +35023,19 @@
         <v>243.0338665604671</v>
       </c>
       <c r="M6" t="n">
-        <v>263.2420339516666</v>
+        <v>127.3525795169225</v>
       </c>
       <c r="N6" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>138.1971189780713</v>
+        <v>263.0434990833253</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>193.9407825031299</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>76.41420694903813</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,19 +35099,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>33.75987543178749</v>
+        <v>33.75987543178751</v>
       </c>
       <c r="M7" t="n">
-        <v>46.08911889082924</v>
+        <v>46.08911889082926</v>
       </c>
       <c r="N7" t="n">
-        <v>50.48273419507654</v>
+        <v>50.48273419507656</v>
       </c>
       <c r="O7" t="n">
-        <v>30.4508996191905</v>
+        <v>30.45089961919052</v>
       </c>
       <c r="P7" t="n">
-        <v>2.29774030202537</v>
+        <v>2.297740302025386</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>36.10224308182593</v>
+        <v>36.10224308182539</v>
       </c>
       <c r="K8" t="n">
-        <v>176.0723525736118</v>
+        <v>176.0723525736109</v>
       </c>
       <c r="L8" t="n">
-        <v>271.2379970350738</v>
+        <v>271.2379970350729</v>
       </c>
       <c r="M8" t="n">
-        <v>318.5788220249939</v>
+        <v>318.5788220249927</v>
       </c>
       <c r="N8" t="n">
-        <v>308.9539649284412</v>
+        <v>308.95396492844</v>
       </c>
       <c r="O8" t="n">
-        <v>246.0923895621145</v>
+        <v>246.0923895621135</v>
       </c>
       <c r="P8" t="n">
-        <v>171.9792287127759</v>
+        <v>171.979228712775</v>
       </c>
       <c r="Q8" t="n">
-        <v>51.14746097509499</v>
+        <v>51.14746097509431</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>27.87257220693233</v>
       </c>
       <c r="K9" t="n">
-        <v>132.8670067834647</v>
+        <v>175.538506909742</v>
       </c>
       <c r="L9" t="n">
-        <v>298.0578280513504</v>
+        <v>298.0578280513497</v>
       </c>
       <c r="M9" t="n">
-        <v>399.0721465063757</v>
+        <v>5.189961636733412</v>
       </c>
       <c r="N9" t="n">
-        <v>399.0721465063757</v>
+        <v>399.0721465063738</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>323.3381125364292</v>
       </c>
       <c r="P9" t="n">
-        <v>242.3325254662665</v>
+        <v>242.3325254662658</v>
       </c>
       <c r="Q9" t="n">
-        <v>108.762805580099</v>
+        <v>108.7628055800986</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>7.235667192369405</v>
+        <v>7.235667192369078</v>
       </c>
       <c r="L10" t="n">
-        <v>65.34647053296854</v>
+        <v>65.34647053296811</v>
       </c>
       <c r="M10" t="n">
-        <v>79.39275465759363</v>
+        <v>79.39275465759317</v>
       </c>
       <c r="N10" t="n">
-        <v>82.99448394059328</v>
+        <v>82.99448394059286</v>
       </c>
       <c r="O10" t="n">
-        <v>60.48076268835786</v>
+        <v>60.48076268835746</v>
       </c>
       <c r="P10" t="n">
-        <v>27.99347597685186</v>
+        <v>27.99347597685152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607202</v>
+        <v>333.6317139898116</v>
       </c>
       <c r="K11" t="n">
         <v>474.3741250380626</v>
@@ -35430,7 +35430,7 @@
         <v>553.844392613483</v>
       </c>
       <c r="Q11" t="n">
-        <v>418.5673812695001</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R11" t="n">
         <v>127.3573607845842</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>149.1393755069151</v>
@@ -35497,13 +35497,13 @@
         <v>495.6892250946983</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284119</v>
+        <v>325.3560717026998</v>
       </c>
       <c r="N12" t="n">
         <v>628.3797610094306</v>
       </c>
       <c r="O12" t="n">
-        <v>278.7086860194109</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607202</v>
+        <v>333.6317139898116</v>
       </c>
       <c r="K14" t="n">
         <v>474.3741250380626</v>
@@ -35667,7 +35667,7 @@
         <v>553.844392613483</v>
       </c>
       <c r="Q14" t="n">
-        <v>418.5673812695001</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R14" t="n">
         <v>127.3573607845842</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>149.1393755069151</v>
@@ -35740,7 +35740,7 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O15" t="n">
-        <v>278.7086860194109</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>282.3190661607202</v>
       </c>
       <c r="K17" t="n">
-        <v>525.686772867153</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L17" t="n">
         <v>625.7775560664393</v>
@@ -35904,7 +35904,7 @@
         <v>553.844392613483</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.2547334404112</v>
+        <v>418.5673812695001</v>
       </c>
       <c r="R17" t="n">
         <v>127.3573607845842</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>149.1393755069151</v>
@@ -35971,22 +35971,22 @@
         <v>495.6892250946983</v>
       </c>
       <c r="M18" t="n">
-        <v>597.9983376284119</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>354.6879672306654</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O18" t="n">
         <v>552.4004797981761</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>289.6730371229925</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>282.3190661607202</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380626</v>
+        <v>525.686772867153</v>
       </c>
       <c r="L20" t="n">
         <v>625.7775560664393</v>
@@ -36144,7 +36144,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R20" t="n">
-        <v>178.6700086136732</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>149.1393755069151</v>
@@ -36208,13 +36208,13 @@
         <v>495.6892250946983</v>
       </c>
       <c r="M21" t="n">
-        <v>324.3065438496467</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N21" t="n">
         <v>628.3797610094306</v>
       </c>
       <c r="O21" t="n">
-        <v>552.4004797981761</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36369,7 +36369,7 @@
         <v>728.2874363020583</v>
       </c>
       <c r="N23" t="n">
-        <v>744.73230092637</v>
+        <v>796.0449487554599</v>
       </c>
       <c r="O23" t="n">
         <v>689.7596327870085</v>
@@ -36381,7 +36381,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R23" t="n">
-        <v>178.6700086136732</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>149.1393755069151</v>
@@ -36445,13 +36445,13 @@
         <v>495.6892250946983</v>
       </c>
       <c r="M24" t="n">
-        <v>324.3065438496467</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N24" t="n">
         <v>628.3797610094306</v>
       </c>
       <c r="O24" t="n">
-        <v>552.4004797981761</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>625.7775560664393</v>
       </c>
       <c r="M26" t="n">
-        <v>779.6000841311486</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N26" t="n">
         <v>744.73230092637</v>
@@ -36612,7 +36612,7 @@
         <v>689.7596327870085</v>
       </c>
       <c r="P26" t="n">
-        <v>553.844392613483</v>
+        <v>605.1570404425727</v>
       </c>
       <c r="Q26" t="n">
         <v>367.2547334404112</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>149.1393755069151</v>
@@ -36682,13 +36682,13 @@
         <v>495.6892250946983</v>
       </c>
       <c r="M27" t="n">
-        <v>324.3065438496467</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N27" t="n">
         <v>628.3797610094306</v>
       </c>
       <c r="O27" t="n">
-        <v>552.4004797981761</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>282.3190661607202</v>
+        <v>333.6317139898107</v>
       </c>
       <c r="K29" t="n">
         <v>474.3741250380626</v>
@@ -36855,7 +36855,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R29" t="n">
-        <v>178.6700086136732</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>149.1393755069151</v>
@@ -36919,13 +36919,13 @@
         <v>495.6892250946983</v>
       </c>
       <c r="M30" t="n">
-        <v>324.3065438496467</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N30" t="n">
         <v>628.3797610094306</v>
       </c>
       <c r="O30" t="n">
-        <v>552.4004797981761</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>282.3190661607202</v>
       </c>
       <c r="K32" t="n">
-        <v>525.6867728671548</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L32" t="n">
         <v>625.7775560664393</v>
@@ -37086,7 +37086,7 @@
         <v>689.7596327870085</v>
       </c>
       <c r="P32" t="n">
-        <v>553.844392613483</v>
+        <v>605.1570404425727</v>
       </c>
       <c r="Q32" t="n">
         <v>367.2547334404112</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>149.1393755069151</v>
@@ -37156,13 +37156,13 @@
         <v>495.6892250946983</v>
       </c>
       <c r="M33" t="n">
-        <v>324.3065438496467</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N33" t="n">
         <v>628.3797610094306</v>
       </c>
       <c r="O33" t="n">
-        <v>552.4004797981761</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>282.3190661607202</v>
+        <v>333.6317139898125</v>
       </c>
       <c r="K35" t="n">
         <v>474.3741250380626</v>
@@ -37317,7 +37317,7 @@
         <v>728.2874363020583</v>
       </c>
       <c r="N35" t="n">
-        <v>796.0449487554599</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O35" t="n">
         <v>689.7596327870085</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>149.1393755069151</v>
@@ -37396,10 +37396,10 @@
         <v>597.9983376284119</v>
       </c>
       <c r="N36" t="n">
-        <v>354.6879672306654</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O36" t="n">
-        <v>552.4004797981761</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>282.3190661607202</v>
+        <v>333.6317139898125</v>
       </c>
       <c r="K38" t="n">
         <v>474.3741250380626</v>
@@ -37566,7 +37566,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R38" t="n">
-        <v>178.6700086136732</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>149.1393755069151</v>
       </c>
       <c r="K39" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>495.6892250946983</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>597.9983376284119</v>
       </c>
       <c r="N39" t="n">
-        <v>354.6879672306654</v>
+        <v>492.8789887825837</v>
       </c>
       <c r="O39" t="n">
         <v>552.4004797981761</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>553.844392613483</v>
       </c>
       <c r="Q41" t="n">
-        <v>418.5673812695001</v>
+        <v>418.5673812695019</v>
       </c>
       <c r="R41" t="n">
         <v>127.3573607845842</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>149.1393755069151</v>
@@ -37870,10 +37870,10 @@
         <v>597.9983376284119</v>
       </c>
       <c r="N42" t="n">
-        <v>354.6879672306654</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O42" t="n">
-        <v>552.4004797981761</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38016,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>282.3190661607202</v>
+        <v>333.6317139898125</v>
       </c>
       <c r="K44" t="n">
-        <v>525.686772867153</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L44" t="n">
         <v>625.7775560664393</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>149.1393755069151</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L45" t="n">
         <v>495.6892250946983</v>
@@ -38110,16 +38110,16 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P45" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>153.051130366252</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
